--- a/results.xlsx
+++ b/results.xlsx
@@ -85,7 +85,7 @@
         <v>33970.0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.858662999260094</v>
+        <v>23.878231801254397</v>
       </c>
     </row>
     <row r="3">
@@ -93,7 +93,7 @@
         <v>33971.0</v>
       </c>
       <c r="B3" t="n">
-        <v>22.856703736118938</v>
+        <v>22.87045284765001</v>
       </c>
     </row>
     <row r="4">
@@ -101,7 +101,7 @@
         <v>33972.0</v>
       </c>
       <c r="B4" t="n">
-        <v>97.87566520758568</v>
+        <v>97.9036923055491</v>
       </c>
     </row>
     <row r="5">
@@ -109,7 +109,7 @@
         <v>33975.0</v>
       </c>
       <c r="B5" t="n">
-        <v>53.06908800313668</v>
+        <v>53.21275448894397</v>
       </c>
     </row>
     <row r="6">
@@ -117,7 +117,7 @@
         <v>33976.0</v>
       </c>
       <c r="B6" t="n">
-        <v>75.44353981539257</v>
+        <v>75.58593169022379</v>
       </c>
     </row>
     <row r="7">
@@ -125,7 +125,7 @@
         <v>33978.0</v>
       </c>
       <c r="B7" t="n">
-        <v>198.17372629940039</v>
+        <v>196.21357131469946</v>
       </c>
     </row>
     <row r="8">
@@ -133,7 +133,7 @@
         <v>33980.0</v>
       </c>
       <c r="B8" t="n">
-        <v>167.34977063355709</v>
+        <v>166.2642200263278</v>
       </c>
     </row>
     <row r="9">
@@ -141,7 +141,7 @@
         <v>33982.0</v>
       </c>
       <c r="B9" t="n">
-        <v>204.52829502501166</v>
+        <v>202.37180197840553</v>
       </c>
     </row>
     <row r="10">
@@ -149,7 +149,7 @@
         <v>33983.0</v>
       </c>
       <c r="B10" t="n">
-        <v>165.97819371937388</v>
+        <v>164.934956565676</v>
       </c>
     </row>
     <row r="11">
@@ -157,7 +157,7 @@
         <v>33986.0</v>
       </c>
       <c r="B11" t="n">
-        <v>104.86320643376854</v>
+        <v>104.8455051903448</v>
       </c>
     </row>
     <row r="12">
@@ -165,7 +165,7 @@
         <v>33987.0</v>
       </c>
       <c r="B12" t="n">
-        <v>141.2580677537469</v>
+        <v>140.74473293393646</v>
       </c>
     </row>
     <row r="13">
@@ -173,7 +173,7 @@
         <v>33988.0</v>
       </c>
       <c r="B13" t="n">
-        <v>127.86295909767298</v>
+        <v>127.57403347652327</v>
       </c>
     </row>
     <row r="14">
@@ -181,7 +181,7 @@
         <v>33990.0</v>
       </c>
       <c r="B14" t="n">
-        <v>181.03905036796706</v>
+        <v>179.61511777859172</v>
       </c>
     </row>
     <row r="15">
@@ -189,7 +189,7 @@
         <v>33991.0</v>
       </c>
       <c r="B15" t="n">
-        <v>132.11840219574978</v>
+        <v>131.76735944955644</v>
       </c>
     </row>
     <row r="16">
@@ -197,7 +197,7 @@
         <v>33992.0</v>
       </c>
       <c r="B16" t="n">
-        <v>118.9375872364743</v>
+        <v>118.77769074995676</v>
       </c>
     </row>
     <row r="17">
@@ -205,7 +205,7 @@
         <v>33995.0</v>
       </c>
       <c r="B17" t="n">
-        <v>91.63900262176011</v>
+        <v>91.72924598492408</v>
       </c>
     </row>
     <row r="18">
@@ -213,7 +213,7 @@
         <v>33996.0</v>
       </c>
       <c r="B18" t="n">
-        <v>107.0562994612097</v>
+        <v>107.03074218671935</v>
       </c>
     </row>
     <row r="19">
@@ -221,7 +221,7 @@
         <v>33998.0</v>
       </c>
       <c r="B19" t="n">
-        <v>60.428580749363576</v>
+        <v>60.59331832187017</v>
       </c>
     </row>
     <row r="20">
@@ -229,7 +229,7 @@
         <v>34000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>46.435889686391306</v>
+        <v>46.56958621855748</v>
       </c>
     </row>
     <row r="21">
@@ -237,7 +237,7 @@
         <v>34002.0</v>
       </c>
       <c r="B21" t="n">
-        <v>39.87230464440536</v>
+        <v>39.98021816981711</v>
       </c>
     </row>
     <row r="22">
@@ -245,7 +245,7 @@
         <v>34003.0</v>
       </c>
       <c r="B22" t="n">
-        <v>34.74329184073287</v>
+        <v>34.827223796683846</v>
       </c>
     </row>
     <row r="23">
@@ -253,7 +253,7 @@
         <v>34006.0</v>
       </c>
       <c r="B23" t="n">
-        <v>35.25189103993185</v>
+        <v>35.33857648286477</v>
       </c>
     </row>
     <row r="24">
@@ -261,7 +261,7 @@
         <v>34007.0</v>
       </c>
       <c r="B24" t="n">
-        <v>33.39740229015095</v>
+        <v>33.474651745037306</v>
       </c>
     </row>
     <row r="25">
@@ -269,7 +269,7 @@
         <v>34008.0</v>
       </c>
       <c r="B25" t="n">
-        <v>33.7409655084765</v>
+        <v>33.82033051506549</v>
       </c>
     </row>
     <row r="26">
@@ -277,7 +277,7 @@
         <v>34010.0</v>
       </c>
       <c r="B26" t="n">
-        <v>32.852692559830466</v>
+        <v>32.927485578686074</v>
       </c>
     </row>
     <row r="27">
@@ -285,7 +285,7 @@
         <v>34011.0</v>
       </c>
       <c r="B27" t="n">
-        <v>30.744566023499903</v>
+        <v>30.807941394695263</v>
       </c>
     </row>
     <row r="28">
@@ -293,7 +293,7 @@
         <v>34012.0</v>
       </c>
       <c r="B28" t="n">
-        <v>25.970266918632674</v>
+        <v>26.006203677281565</v>
       </c>
     </row>
     <row r="29">
@@ -301,7 +301,7 @@
         <v>34015.0</v>
       </c>
       <c r="B29" t="n">
-        <v>24.91174902304685</v>
+        <v>24.941356001698807</v>
       </c>
     </row>
     <row r="30">
@@ -309,7 +309,7 @@
         <v>34016.0</v>
       </c>
       <c r="B30" t="n">
-        <v>23.354599802821614</v>
+        <v>23.374771478823597</v>
       </c>
     </row>
     <row r="31">
@@ -317,7 +317,7 @@
         <v>34018.0</v>
       </c>
       <c r="B31" t="n">
-        <v>22.13776025947372</v>
+        <v>22.150458004734205</v>
       </c>
     </row>
     <row r="32">
@@ -325,7 +325,7 @@
         <v>34020.0</v>
       </c>
       <c r="B32" t="n">
-        <v>20.375673065327444</v>
+        <v>20.377319098150874</v>
       </c>
     </row>
     <row r="33">
@@ -333,7 +333,7 @@
         <v>34022.0</v>
       </c>
       <c r="B33" t="n">
-        <v>20.31403182295237</v>
+        <v>20.315334272228558</v>
       </c>
     </row>
     <row r="34">
@@ -341,7 +341,7 @@
         <v>34023.0</v>
       </c>
       <c r="B34" t="n">
-        <v>20.052869477287352</v>
+        <v>20.052645582447383</v>
       </c>
     </row>
     <row r="35">
@@ -349,7 +349,7 @@
         <v>34026.0</v>
       </c>
       <c r="B35" t="n">
-        <v>21.386549381068757</v>
+        <v>21.394902059584275</v>
       </c>
     </row>
     <row r="36">
@@ -357,7 +357,7 @@
         <v>34027.0</v>
       </c>
       <c r="B36" t="n">
-        <v>20.243796192606226</v>
+        <v>20.244892838256508</v>
       </c>
     </row>
     <row r="37">
@@ -365,7 +365,7 @@
         <v>34028.0</v>
       </c>
       <c r="B37" t="n">
-        <v>22.860138707980212</v>
+        <v>22.878018462971994</v>
       </c>
     </row>
     <row r="38">
@@ -373,7 +373,7 @@
         <v>34030.0</v>
       </c>
       <c r="B38" t="n">
-        <v>24.835829497423223</v>
+        <v>24.86615899500463</v>
       </c>
     </row>
     <row r="39">
@@ -381,7 +381,7 @@
         <v>34031.0</v>
       </c>
       <c r="B39" t="n">
-        <v>23.295852305215615</v>
+        <v>23.316613002532904</v>
       </c>
     </row>
     <row r="40">
@@ -389,7 +389,7 @@
         <v>34032.0</v>
       </c>
       <c r="B40" t="n">
-        <v>33.24468301085167</v>
+        <v>33.32505089642924</v>
       </c>
     </row>
     <row r="41">
@@ -397,7 +397,7 @@
         <v>34035.0</v>
       </c>
       <c r="B41" t="n">
-        <v>26.40114890239361</v>
+        <v>26.441557175988493</v>
       </c>
     </row>
     <row r="42">
@@ -405,7 +405,7 @@
         <v>34036.0</v>
       </c>
       <c r="B42" t="n">
-        <v>21.586303722800725</v>
+        <v>21.596535629563178</v>
       </c>
     </row>
     <row r="43">
@@ -413,7 +413,7 @@
         <v>34038.0</v>
       </c>
       <c r="B43" t="n">
-        <v>20.057052534350333</v>
+        <v>20.05749649621575</v>
       </c>
     </row>
     <row r="44">
@@ -421,7 +421,7 @@
         <v>34040.0</v>
       </c>
       <c r="B44" t="n">
-        <v>18.503849770632563</v>
+        <v>18.494236761913083</v>
       </c>
     </row>
     <row r="45">
@@ -429,7 +429,7 @@
         <v>34042.0</v>
       </c>
       <c r="B45" t="n">
-        <v>18.571112316579317</v>
+        <v>18.561975014354278</v>
       </c>
     </row>
     <row r="46">
@@ -437,7 +437,7 @@
         <v>34043.0</v>
       </c>
       <c r="B46" t="n">
-        <v>21.86541640236662</v>
+        <v>21.87787939540503</v>
       </c>
     </row>
     <row r="47">
@@ -445,7 +445,7 @@
         <v>34046.0</v>
       </c>
       <c r="B47" t="n">
-        <v>24.171458581742375</v>
+        <v>24.1987777538887</v>
       </c>
     </row>
     <row r="48">
@@ -453,7 +453,7 @@
         <v>34047.0</v>
       </c>
       <c r="B48" t="n">
-        <v>20.10094654676122</v>
+        <v>20.102024415994915</v>
       </c>
     </row>
     <row r="49">
@@ -461,7 +461,7 @@
         <v>34048.0</v>
       </c>
       <c r="B49" t="n">
-        <v>21.109343067984817</v>
+        <v>21.117099818497042</v>
       </c>
     </row>
     <row r="50">
@@ -469,7 +469,7 @@
         <v>34050.0</v>
       </c>
       <c r="B50" t="n">
-        <v>18.975417883208973</v>
+        <v>18.969220374497034</v>
       </c>
     </row>
     <row r="51">
@@ -477,7 +477,7 @@
         <v>34051.0</v>
       </c>
       <c r="B51" t="n">
-        <v>18.15701256288083</v>
+        <v>18.145444992567302</v>
       </c>
     </row>
     <row r="52">
@@ -485,7 +485,7 @@
         <v>34052.0</v>
       </c>
       <c r="B52" t="n">
-        <v>16.43645616243247</v>
+        <v>16.413557356200776</v>
       </c>
     </row>
     <row r="53">
@@ -493,7 +493,7 @@
         <v>34055.0</v>
       </c>
       <c r="B53" t="n">
-        <v>15.811455340016739</v>
+        <v>15.784420669751075</v>
       </c>
     </row>
     <row r="54">
@@ -501,7 +501,7 @@
         <v>34056.0</v>
       </c>
       <c r="B54" t="n">
-        <v>15.57261055265743</v>
+        <v>15.544020334119262</v>
       </c>
     </row>
     <row r="55">
@@ -509,7 +509,7 @@
         <v>34058.0</v>
       </c>
       <c r="B55" t="n">
-        <v>18.117547258489846</v>
+        <v>18.10595658850357</v>
       </c>
     </row>
     <row r="56">
@@ -517,7 +517,7 @@
         <v>34060.0</v>
       </c>
       <c r="B56" t="n">
-        <v>16.471002636074264</v>
+        <v>16.44847771892827</v>
       </c>
     </row>
     <row r="57">
@@ -525,7 +525,7 @@
         <v>34062.0</v>
       </c>
       <c r="B57" t="n">
-        <v>20.288692385930972</v>
+        <v>20.291629490514758</v>
       </c>
     </row>
     <row r="58">
@@ -533,7 +533,7 @@
         <v>34063.0</v>
       </c>
       <c r="B58" t="n">
-        <v>34.959643336876894</v>
+        <v>35.05417203290457</v>
       </c>
     </row>
     <row r="59">
@@ -541,7 +541,7 @@
         <v>34067.0</v>
       </c>
       <c r="B59" t="n">
-        <v>91.95150516881861</v>
+        <v>92.10380882132243</v>
       </c>
     </row>
     <row r="60">
@@ -549,7 +549,7 @@
         <v>34068.0</v>
       </c>
       <c r="B60" t="n">
-        <v>154.3824846762878</v>
+        <v>153.76542957752238</v>
       </c>
     </row>
     <row r="61">
@@ -557,7 +557,7 @@
         <v>34069.0</v>
       </c>
       <c r="B61" t="n">
-        <v>58.94641346495449</v>
+        <v>59.13886541473066</v>
       </c>
     </row>
     <row r="62">
@@ -565,7 +565,7 @@
         <v>34071.0</v>
       </c>
       <c r="B62" t="n">
-        <v>68.82923128305491</v>
+        <v>69.0344509447701</v>
       </c>
     </row>
     <row r="63">
@@ -573,7 +573,7 @@
         <v>34072.0</v>
       </c>
       <c r="B63" t="n">
-        <v>48.83028031015596</v>
+        <v>48.99267839909322</v>
       </c>
     </row>
     <row r="64">
@@ -581,7 +581,7 @@
         <v>34073.0</v>
       </c>
       <c r="B64" t="n">
-        <v>27.252615193526417</v>
+        <v>27.30173540391015</v>
       </c>
     </row>
     <row r="65">
@@ -589,7 +589,7 @@
         <v>34076.0</v>
       </c>
       <c r="B65" t="n">
-        <v>31.45875239803843</v>
+        <v>31.534117799473606</v>
       </c>
     </row>
     <row r="66">
@@ -597,7 +597,7 @@
         <v>34077.0</v>
       </c>
       <c r="B66" t="n">
-        <v>49.00842572345002</v>
+        <v>49.17318742426339</v>
       </c>
     </row>
     <row r="67">
@@ -605,7 +605,7 @@
         <v>34079.0</v>
       </c>
       <c r="B67" t="n">
-        <v>34.49439445791629</v>
+        <v>34.58824558459048</v>
       </c>
     </row>
     <row r="68">
@@ -613,7 +613,7 @@
         <v>34081.0</v>
       </c>
       <c r="B68" t="n">
-        <v>33.9793660645278</v>
+        <v>34.070484622786644</v>
       </c>
     </row>
     <row r="69">
@@ -621,7 +621,7 @@
         <v>34083.0</v>
       </c>
       <c r="B69" t="n">
-        <v>89.84915429328133</v>
+        <v>90.02414546915863</v>
       </c>
     </row>
     <row r="70">
@@ -629,7 +629,7 @@
         <v>34084.0</v>
       </c>
       <c r="B70" t="n">
-        <v>44.43053121059788</v>
+        <v>44.57767726237076</v>
       </c>
     </row>
     <row r="71">
@@ -637,7 +637,7 @@
         <v>34087.0</v>
       </c>
       <c r="B71" t="n">
-        <v>34.19136328694102</v>
+        <v>34.284387634193585</v>
       </c>
     </row>
     <row r="72">
@@ -645,7 +645,7 @@
         <v>34088.0</v>
       </c>
       <c r="B72" t="n">
-        <v>29.16200735603947</v>
+        <v>29.224385643341805</v>
       </c>
     </row>
     <row r="73">
@@ -653,7 +653,7 @@
         <v>34089.0</v>
       </c>
       <c r="B73" t="n">
-        <v>24.61221534011355</v>
+        <v>24.64522922115233</v>
       </c>
     </row>
     <row r="74">
@@ -661,7 +661,7 @@
         <v>34091.0</v>
       </c>
       <c r="B74" t="n">
-        <v>22.214504270529698</v>
+        <v>22.23154319052502</v>
       </c>
     </row>
     <row r="75">
@@ -669,7 +669,7 @@
         <v>34092.0</v>
       </c>
       <c r="B75" t="n">
-        <v>21.191397468021794</v>
+        <v>21.201566333929584</v>
       </c>
     </row>
     <row r="76">
@@ -677,7 +677,7 @@
         <v>34093.0</v>
       </c>
       <c r="B76" t="n">
-        <v>18.61685543960941</v>
+        <v>18.609579685278405</v>
       </c>
     </row>
     <row r="77">
@@ -685,7 +685,7 @@
         <v>34096.0</v>
       </c>
       <c r="B77" t="n">
-        <v>17.876282995378144</v>
+        <v>17.86395793492079</v>
       </c>
     </row>
     <row r="78">
@@ -693,7 +693,7 @@
         <v>34097.0</v>
       </c>
       <c r="B78" t="n">
-        <v>21.135496968553305</v>
+        <v>21.14551163506649</v>
       </c>
     </row>
     <row r="79">
@@ -701,7 +701,7 @@
         <v>34099.0</v>
       </c>
       <c r="B79" t="n">
-        <v>21.554823668944753</v>
+        <v>21.567769431019464</v>
       </c>
     </row>
     <row r="80">
@@ -709,7 +709,7 @@
         <v>34101.0</v>
       </c>
       <c r="B80" t="n">
-        <v>103.75975394182841</v>
+        <v>103.88091686882203</v>
       </c>
     </row>
     <row r="81">
@@ -717,7 +717,7 @@
         <v>34108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>63.67061984287686</v>
+        <v>63.88817717591391</v>
       </c>
     </row>
     <row r="82">
@@ -725,7 +725,7 @@
         <v>34109.0</v>
       </c>
       <c r="B82" t="n">
-        <v>47.65157321724582</v>
+        <v>47.81935960700282</v>
       </c>
     </row>
     <row r="83">
@@ -733,7 +733,7 @@
         <v>34112.0</v>
       </c>
       <c r="B83" t="n">
-        <v>37.70946192628035</v>
+        <v>37.82649692076803</v>
       </c>
     </row>
     <row r="84">
@@ -741,7 +741,7 @@
         <v>34113.0</v>
       </c>
       <c r="B84" t="n">
-        <v>32.08601478271643</v>
+        <v>32.16932534137663</v>
       </c>
     </row>
     <row r="85">
@@ -749,7 +749,7 @@
         <v>34114.0</v>
       </c>
       <c r="B85" t="n">
-        <v>27.76023062212098</v>
+        <v>27.815777714458783</v>
       </c>
     </row>
     <row r="86">
@@ -757,7 +757,7 @@
         <v>34116.0</v>
       </c>
       <c r="B86" t="n">
-        <v>27.38489756173676</v>
+        <v>27.43802768930278</v>
       </c>
     </row>
     <row r="87">
@@ -765,7 +765,7 @@
         <v>34117.0</v>
       </c>
       <c r="B87" t="n">
-        <v>26.046285956404333</v>
+        <v>26.090526927837555</v>
       </c>
     </row>
     <row r="88">
@@ -773,7 +773,7 @@
         <v>34118.0</v>
       </c>
       <c r="B88" t="n">
-        <v>32.433114934049534</v>
+        <v>32.519679900750326</v>
       </c>
     </row>
     <row r="89">
@@ -781,7 +781,7 @@
         <v>34124.0</v>
       </c>
       <c r="B89" t="n">
-        <v>26.992786131069717</v>
+        <v>27.043844781796533</v>
       </c>
     </row>
     <row r="90">
@@ -789,7 +789,7 @@
         <v>34125.0</v>
       </c>
       <c r="B90" t="n">
-        <v>21.151120810986793</v>
+        <v>21.1621745580972</v>
       </c>
     </row>
     <row r="91">
@@ -797,7 +797,7 @@
         <v>34127.0</v>
       </c>
       <c r="B91" t="n">
-        <v>19.180661513901036</v>
+        <v>19.177989403954314</v>
       </c>
     </row>
     <row r="92">
@@ -805,7 +805,7 @@
         <v>34129.0</v>
       </c>
       <c r="B92" t="n">
-        <v>19.4227255415241</v>
+        <v>19.421789063397075</v>
       </c>
     </row>
     <row r="93">
@@ -813,7 +813,7 @@
         <v>34131.0</v>
       </c>
       <c r="B93" t="n">
-        <v>20.616080915539424</v>
+        <v>20.62353458393911</v>
       </c>
     </row>
     <row r="94">
@@ -821,7 +821,7 @@
         <v>34132.0</v>
       </c>
       <c r="B94" t="n">
-        <v>21.97546388548352</v>
+        <v>21.992521687906027</v>
       </c>
     </row>
     <row r="95">
@@ -829,7 +829,7 @@
         <v>34135.0</v>
       </c>
       <c r="B95" t="n">
-        <v>20.069458368087226</v>
+        <v>20.073168821346314</v>
       </c>
     </row>
     <row r="96">
@@ -837,7 +837,7 @@
         <v>34136.0</v>
       </c>
       <c r="B96" t="n">
-        <v>18.635103816021875</v>
+        <v>18.6287281441259</v>
       </c>
     </row>
     <row r="97">
@@ -845,7 +845,7 @@
         <v>34137.0</v>
       </c>
       <c r="B97" t="n">
-        <v>26.65849545974315</v>
+        <v>26.7081714100878</v>
       </c>
     </row>
     <row r="98">
@@ -853,7 +853,7 @@
         <v>34139.0</v>
       </c>
       <c r="B98" t="n">
-        <v>23.659872906362864</v>
+        <v>23.68887952597889</v>
       </c>
     </row>
     <row r="99">
@@ -861,7 +861,7 @@
         <v>34140.0</v>
       </c>
       <c r="B99" t="n">
-        <v>19.701315318974554</v>
+        <v>19.70253078718985</v>
       </c>
     </row>
     <row r="100">
@@ -869,7 +869,7 @@
         <v>34141.0</v>
       </c>
       <c r="B100" t="n">
-        <v>16.864387186527647</v>
+        <v>16.84556431877707</v>
       </c>
     </row>
     <row r="101">
@@ -877,7 +877,7 @@
         <v>34144.0</v>
       </c>
       <c r="B101" t="n">
-        <v>15.82865010723137</v>
+        <v>15.80250720043188</v>
       </c>
     </row>
     <row r="102">
@@ -885,7 +885,7 @@
         <v>34145.0</v>
       </c>
       <c r="B102" t="n">
-        <v>15.215307390574335</v>
+        <v>15.18483018093935</v>
       </c>
     </row>
     <row r="103">
@@ -893,7 +893,7 @@
         <v>34147.0</v>
       </c>
       <c r="B103" t="n">
-        <v>14.238268645192655</v>
+        <v>14.200895247087251</v>
       </c>
     </row>
     <row r="104">
@@ -901,7 +901,7 @@
         <v>34149.0</v>
       </c>
       <c r="B104" t="n">
-        <v>13.533609011068693</v>
+        <v>13.491265558130094</v>
       </c>
     </row>
     <row r="105">
@@ -909,7 +909,7 @@
         <v>34151.0</v>
       </c>
       <c r="B105" t="n">
-        <v>13.842160947301226</v>
+        <v>13.801973813006539</v>
       </c>
     </row>
     <row r="106">
@@ -917,7 +917,7 @@
         <v>34152.0</v>
       </c>
       <c r="B106" t="n">
-        <v>13.071683695567337</v>
+        <v>13.026050294627781</v>
       </c>
     </row>
     <row r="107">
@@ -925,7 +925,7 @@
         <v>34155.0</v>
       </c>
       <c r="B107" t="n">
-        <v>12.863030018961458</v>
+        <v>12.815920183852866</v>
       </c>
     </row>
     <row r="108">
@@ -933,7 +933,7 @@
         <v>34156.0</v>
       </c>
       <c r="B108" t="n">
-        <v>12.632229348939397</v>
+        <v>12.583488502654227</v>
       </c>
     </row>
     <row r="109">
@@ -941,7 +941,7 @@
         <v>34157.0</v>
       </c>
       <c r="B109" t="n">
-        <v>14.860713861101171</v>
+        <v>14.827657728862988</v>
       </c>
     </row>
     <row r="110">
@@ -949,7 +949,7 @@
         <v>34159.0</v>
       </c>
       <c r="B110" t="n">
-        <v>15.983419581367384</v>
+        <v>15.958343580988801</v>
       </c>
     </row>
     <row r="111">
@@ -957,7 +957,7 @@
         <v>34160.0</v>
       </c>
       <c r="B111" t="n">
-        <v>14.08599837675219</v>
+        <v>14.047433689633051</v>
       </c>
     </row>
     <row r="112">
@@ -965,7 +965,7 @@
         <v>34161.0</v>
       </c>
       <c r="B112" t="n">
-        <v>13.12445637549738</v>
+        <v>13.079061726474675</v>
       </c>
     </row>
     <row r="113">
@@ -973,7 +973,7 @@
         <v>34164.0</v>
       </c>
       <c r="B113" t="n">
-        <v>14.31815234147163</v>
+        <v>14.281187911737977</v>
       </c>
     </row>
     <row r="114">
@@ -981,7 +981,7 @@
         <v>34165.0</v>
       </c>
       <c r="B114" t="n">
-        <v>22.96770023804557</v>
+        <v>22.992767141867667</v>
       </c>
     </row>
     <row r="115">
@@ -989,7 +989,7 @@
         <v>34167.0</v>
       </c>
       <c r="B115" t="n">
-        <v>34.27489976824442</v>
+        <v>34.378275949360265</v>
       </c>
     </row>
     <row r="116">
@@ -997,7 +997,7 @@
         <v>34171.0</v>
       </c>
       <c r="B116" t="n">
-        <v>19.038883342813875</v>
+        <v>19.035777789885934</v>
       </c>
     </row>
     <row r="117">
@@ -1005,7 +1005,7 @@
         <v>34173.0</v>
       </c>
       <c r="B117" t="n">
-        <v>36.399960642663366</v>
+        <v>36.517408695711275</v>
       </c>
     </row>
     <row r="118">
@@ -1013,7 +1013,7 @@
         <v>34174.0</v>
       </c>
       <c r="B118" t="n">
-        <v>21.627048792313843</v>
+        <v>21.642716346904276</v>
       </c>
     </row>
     <row r="119">
@@ -1021,7 +1021,7 @@
         <v>34177.0</v>
       </c>
       <c r="B119" t="n">
-        <v>23.035945649127747</v>
+        <v>23.061812306599762</v>
       </c>
     </row>
     <row r="120">
@@ -1029,7 +1029,7 @@
         <v>34178.0</v>
       </c>
       <c r="B120" t="n">
-        <v>19.64418696393991</v>
+        <v>19.645513282233207</v>
       </c>
     </row>
     <row r="121">
@@ -1037,7 +1037,7 @@
         <v>34179.0</v>
       </c>
       <c r="B121" t="n">
-        <v>15.197308395705857</v>
+        <v>15.166446113057448</v>
       </c>
     </row>
     <row r="122">
@@ -1045,7 +1045,7 @@
         <v>34181.0</v>
       </c>
       <c r="B122" t="n">
-        <v>14.461622791388802</v>
+        <v>14.42546388848469</v>
       </c>
     </row>
     <row r="123">
@@ -1053,7 +1053,7 @@
         <v>34182.0</v>
       </c>
       <c r="B123" t="n">
-        <v>14.4328958551384</v>
+        <v>14.396516371727335</v>
       </c>
     </row>
     <row r="124">
@@ -1061,7 +1061,7 @@
         <v>34183.0</v>
       </c>
       <c r="B124" t="n">
-        <v>109.60727013908692</v>
+        <v>109.76831994171229</v>
       </c>
     </row>
     <row r="125">
@@ -1069,7 +1069,7 @@
         <v>34186.0</v>
       </c>
       <c r="B125" t="n">
-        <v>29.41099772875143</v>
+        <v>29.48282360638045</v>
       </c>
     </row>
     <row r="126">
@@ -1077,7 +1077,7 @@
         <v>34189.0</v>
       </c>
       <c r="B126" t="n">
-        <v>36.87739862046743</v>
+        <v>37.000054645806614</v>
       </c>
     </row>
     <row r="127">
@@ -1085,7 +1085,7 @@
         <v>34192.0</v>
       </c>
       <c r="B127" t="n">
-        <v>29.256377205388258</v>
+        <v>29.327542065538427</v>
       </c>
     </row>
     <row r="128">
@@ -1093,7 +1093,7 @@
         <v>34196.0</v>
       </c>
       <c r="B128" t="n">
-        <v>23.419937036490257</v>
+        <v>23.44909434291132</v>
       </c>
     </row>
     <row r="129">
@@ -1101,7 +1101,7 @@
         <v>34198.0</v>
       </c>
       <c r="B129" t="n">
-        <v>20.249861054583874</v>
+        <v>20.255765686885322</v>
       </c>
     </row>
     <row r="130">
@@ -1109,7 +1109,7 @@
         <v>34199.0</v>
       </c>
       <c r="B130" t="n">
-        <v>15.911862801272276</v>
+        <v>15.885919665150402</v>
       </c>
     </row>
     <row r="131">
@@ -1117,7 +1117,7 @@
         <v>34202.0</v>
       </c>
       <c r="B131" t="n">
-        <v>15.52825572342554</v>
+        <v>15.499499921869303</v>
       </c>
     </row>
     <row r="132">
@@ -1125,7 +1125,7 @@
         <v>34203.0</v>
       </c>
       <c r="B132" t="n">
-        <v>15.37663117236921</v>
+        <v>15.34675461843683</v>
       </c>
     </row>
     <row r="133">
@@ -1133,7 +1133,7 @@
         <v>34204.0</v>
       </c>
       <c r="B133" t="n">
-        <v>14.7027193434799</v>
+        <v>14.667902439953883</v>
       </c>
     </row>
     <row r="134">
@@ -1141,7 +1141,7 @@
         <v>34206.0</v>
       </c>
       <c r="B134" t="n">
-        <v>14.382383756793894</v>
+        <v>14.34522042872725</v>
       </c>
     </row>
     <row r="135">
@@ -1149,7 +1149,7 @@
         <v>34207.0</v>
       </c>
       <c r="B135" t="n">
-        <v>14.15539679912068</v>
+        <v>14.116565946685482</v>
       </c>
     </row>
     <row r="136">
@@ -1157,7 +1157,7 @@
         <v>34208.0</v>
       </c>
       <c r="B136" t="n">
-        <v>13.318117969816072</v>
+        <v>13.273160093024407</v>
       </c>
     </row>
     <row r="137">
@@ -1165,7 +1165,7 @@
         <v>34211.0</v>
       </c>
       <c r="B137" t="n">
-        <v>13.108594934937427</v>
+        <v>13.062100393452697</v>
       </c>
     </row>
     <row r="138">
@@ -1173,7 +1173,7 @@
         <v>34212.0</v>
       </c>
       <c r="B138" t="n">
-        <v>12.941044654296771</v>
+        <v>12.89329012141776</v>
       </c>
     </row>
     <row r="139">
@@ -1181,7 +1181,7 @@
         <v>34214.0</v>
       </c>
       <c r="B139" t="n">
-        <v>12.732367488376275</v>
+        <v>12.683055490604447</v>
       </c>
     </row>
     <row r="140">
@@ -1189,7 +1189,7 @@
         <v>34216.0</v>
       </c>
       <c r="B140" t="n">
-        <v>12.67218280974186</v>
+        <v>12.622381305089451</v>
       </c>
     </row>
     <row r="141">
@@ -1197,7 +1197,7 @@
         <v>34218.0</v>
       </c>
       <c r="B141" t="n">
-        <v>12.710583654029616</v>
+        <v>12.661030394288169</v>
       </c>
     </row>
     <row r="142">
@@ -1205,7 +1205,7 @@
         <v>34219.0</v>
       </c>
       <c r="B142" t="n">
-        <v>51.17223154377106</v>
+        <v>51.38355003916426</v>
       </c>
     </row>
     <row r="143">
@@ -1213,7 +1213,7 @@
         <v>34222.0</v>
       </c>
       <c r="B143" t="n">
-        <v>58.03602900674405</v>
+        <v>58.2792020031001</v>
       </c>
     </row>
     <row r="144">
@@ -1221,7 +1221,7 @@
         <v>34223.0</v>
       </c>
       <c r="B144" t="n">
-        <v>32.21063647630624</v>
+        <v>32.30454887759421</v>
       </c>
     </row>
     <row r="145">
@@ -1229,7 +1229,7 @@
         <v>34224.0</v>
       </c>
       <c r="B145" t="n">
-        <v>159.33949867941172</v>
+        <v>158.9224646590733</v>
       </c>
     </row>
     <row r="146">
@@ -1237,7 +1237,7 @@
         <v>34229.0</v>
       </c>
       <c r="B146" t="n">
-        <v>92.48213557866258</v>
+        <v>92.76339393571814</v>
       </c>
     </row>
     <row r="147">
@@ -1245,7 +1245,7 @@
         <v>34230.0</v>
       </c>
       <c r="B147" t="n">
-        <v>58.515405379885834</v>
+        <v>58.76300532272761</v>
       </c>
     </row>
     <row r="148">
@@ -1253,7 +1253,7 @@
         <v>34231.0</v>
       </c>
       <c r="B148" t="n">
-        <v>35.172115739824804</v>
+        <v>35.28762046452894</v>
       </c>
     </row>
     <row r="149">
@@ -1261,7 +1261,7 @@
         <v>34234.0</v>
       </c>
       <c r="B149" t="n">
-        <v>29.696897857457987</v>
+        <v>29.773360894701625</v>
       </c>
     </row>
     <row r="150">
@@ -1269,7 +1269,7 @@
         <v>34235.0</v>
       </c>
       <c r="B150" t="n">
-        <v>27.262128475201028</v>
+        <v>27.320727805909858</v>
       </c>
     </row>
     <row r="151">
@@ -1277,7 +1277,7 @@
         <v>34237.0</v>
       </c>
       <c r="B151" t="n">
-        <v>22.6134091340753</v>
+        <v>22.637199928394086</v>
       </c>
     </row>
     <row r="152">
@@ -1285,7 +1285,7 @@
         <v>34239.0</v>
       </c>
       <c r="B152" t="n">
-        <v>20.236341243582388</v>
+        <v>20.242184314441865</v>
       </c>
     </row>
     <row r="153">
@@ -1293,7 +1293,7 @@
         <v>34241.0</v>
       </c>
       <c r="B153" t="n">
-        <v>20.320530946864366</v>
+        <v>20.32700540320663</v>
       </c>
     </row>
     <row r="154">
@@ -1301,7 +1301,7 @@
         <v>34242.0</v>
       </c>
       <c r="B154" t="n">
-        <v>105.52758295947388</v>
+        <v>105.7720491923121</v>
       </c>
     </row>
     <row r="155">
@@ -1309,7 +1309,7 @@
         <v>34245.0</v>
       </c>
       <c r="B155" t="n">
-        <v>64.64245289639511</v>
+        <v>64.9177533249393</v>
       </c>
     </row>
     <row r="156">
@@ -1317,7 +1317,7 @@
         <v>34246.0</v>
       </c>
       <c r="B156" t="n">
-        <v>66.42450581261582</v>
+        <v>66.70574987103738</v>
       </c>
     </row>
     <row r="157">
@@ -1325,7 +1325,7 @@
         <v>34247.0</v>
       </c>
       <c r="B157" t="n">
-        <v>156.7984762285337</v>
+        <v>156.46533226184874</v>
       </c>
     </row>
     <row r="158">
@@ -1333,7 +1333,7 @@
         <v>34250.0</v>
       </c>
       <c r="B158" t="n">
-        <v>89.34394996711846</v>
+        <v>89.64645052826714</v>
       </c>
     </row>
     <row r="159">
@@ -1341,7 +1341,7 @@
         <v>34251.0</v>
       </c>
       <c r="B159" t="n">
-        <v>67.95937001994997</v>
+        <v>68.24701073999408</v>
       </c>
     </row>
     <row r="160">
@@ -1349,7 +1349,7 @@
         <v>34252.0</v>
       </c>
       <c r="B160" t="n">
-        <v>98.5646369794691</v>
+        <v>98.84775324900919</v>
       </c>
     </row>
     <row r="161">
@@ -1357,7 +1357,7 @@
         <v>34255.0</v>
       </c>
       <c r="B161" t="n">
-        <v>71.71021905460519</v>
+        <v>72.00877185069162</v>
       </c>
     </row>
     <row r="162">
@@ -1365,7 +1365,7 @@
         <v>34256.0</v>
       </c>
       <c r="B162" t="n">
-        <v>39.418044599177094</v>
+        <v>39.565115856041515</v>
       </c>
     </row>
     <row r="163">
@@ -1373,7 +1373,7 @@
         <v>34258.0</v>
       </c>
       <c r="B163" t="n">
-        <v>30.108618571453736</v>
+        <v>30.18928406459066</v>
       </c>
     </row>
     <row r="164">
@@ -1381,7 +1381,7 @@
         <v>34260.0</v>
       </c>
       <c r="B164" t="n">
-        <v>27.412911348671166</v>
+        <v>27.473392644073787</v>
       </c>
     </row>
     <row r="165">
@@ -1389,7 +1389,7 @@
         <v>34262.0</v>
       </c>
       <c r="B165" t="n">
-        <v>26.467167143196775</v>
+        <v>26.520496023782176</v>
       </c>
     </row>
     <row r="166">
@@ -1397,7 +1397,7 @@
         <v>34263.0</v>
       </c>
       <c r="B166" t="n">
-        <v>23.630366482685044</v>
+        <v>23.662053048225676</v>
       </c>
     </row>
     <row r="167">
@@ -1405,7 +1405,7 @@
         <v>34266.0</v>
       </c>
       <c r="B167" t="n">
-        <v>22.55688118733007</v>
+        <v>22.580327306710696</v>
       </c>
     </row>
     <row r="168">
@@ -1413,7 +1413,7 @@
         <v>34267.0</v>
       </c>
       <c r="B168" t="n">
-        <v>21.66853441361929</v>
+        <v>21.685150043851188</v>
       </c>
     </row>
     <row r="169">
@@ -1421,7 +1421,7 @@
         <v>34268.0</v>
       </c>
       <c r="B169" t="n">
-        <v>20.218901461284794</v>
+        <v>20.224357014408508</v>
       </c>
     </row>
     <row r="170">
@@ -1429,7 +1429,7 @@
         <v>34270.0</v>
       </c>
       <c r="B170" t="n">
-        <v>19.75146594171249</v>
+        <v>19.753317252036677</v>
       </c>
     </row>
     <row r="171">
@@ -1437,7 +1437,7 @@
         <v>34271.0</v>
       </c>
       <c r="B171" t="n">
-        <v>19.385498136138796</v>
+        <v>19.38452363836378</v>
       </c>
     </row>
     <row r="172">
@@ -1445,7 +1445,7 @@
         <v>34272.0</v>
       </c>
       <c r="B172" t="n">
-        <v>18.726087605452342</v>
+        <v>18.719996083606787</v>
       </c>
     </row>
     <row r="173">
@@ -1453,7 +1453,7 @@
         <v>34275.0</v>
       </c>
       <c r="B173" t="n">
-        <v>18.454940507461362</v>
+        <v>18.446747808620238</v>
       </c>
     </row>
     <row r="174">
@@ -1461,7 +1461,7 @@
         <v>34276.0</v>
       </c>
       <c r="B174" t="n">
-        <v>18.304208070560396</v>
+        <v>18.29481430009455</v>
       </c>
     </row>
     <row r="175">
@@ -1469,7 +1469,7 @@
         <v>34278.0</v>
       </c>
       <c r="B175" t="n">
-        <v>17.817938858132894</v>
+        <v>17.804767500105992</v>
       </c>
     </row>
     <row r="176">
@@ -1477,7 +1477,7 @@
         <v>34280.0</v>
       </c>
       <c r="B176" t="n">
-        <v>18.227893336794207</v>
+        <v>18.217818973106723</v>
       </c>
     </row>
     <row r="177">
@@ -1485,7 +1485,7 @@
         <v>34282.0</v>
       </c>
       <c r="B177" t="n">
-        <v>23.79289535592292</v>
+        <v>23.825874300095453</v>
       </c>
     </row>
     <row r="178">
@@ -1493,7 +1493,7 @@
         <v>34283.0</v>
       </c>
       <c r="B178" t="n">
-        <v>24.96982338593481</v>
+        <v>25.011941097622135</v>
       </c>
     </row>
     <row r="179">
@@ -1501,7 +1501,7 @@
         <v>34286.0</v>
       </c>
       <c r="B179" t="n">
-        <v>117.66978087526148</v>
+        <v>117.88053552354613</v>
       </c>
     </row>
     <row r="180">
@@ -1509,7 +1509,7 @@
         <v>34287.0</v>
       </c>
       <c r="B180" t="n">
-        <v>97.25746717076659</v>
+        <v>97.57090702294663</v>
       </c>
     </row>
     <row r="181">
@@ -1517,7 +1517,7 @@
         <v>34288.0</v>
       </c>
       <c r="B181" t="n">
-        <v>36.17635232991365</v>
+        <v>36.30354772073944</v>
       </c>
     </row>
     <row r="182">
@@ -1525,7 +1525,7 @@
         <v>34290.0</v>
       </c>
       <c r="B182" t="n">
-        <v>33.149192627086094</v>
+        <v>33.25406401669225</v>
       </c>
     </row>
     <row r="183">
@@ -1533,7 +1533,7 @@
         <v>34291.0</v>
       </c>
       <c r="B183" t="n">
-        <v>28.87339522047657</v>
+        <v>28.945795591318422</v>
       </c>
     </row>
     <row r="184">
@@ -1541,7 +1541,7 @@
         <v>34292.0</v>
       </c>
       <c r="B184" t="n">
-        <v>23.484813765966084</v>
+        <v>23.515363383068642</v>
       </c>
     </row>
     <row r="185">
@@ -1549,7 +1549,7 @@
         <v>34295.0</v>
       </c>
       <c r="B185" t="n">
-        <v>23.412616638982545</v>
+        <v>23.442596275373894</v>
       </c>
     </row>
     <row r="186">
@@ -1557,7 +1557,7 @@
         <v>34296.0</v>
       </c>
       <c r="B186" t="n">
-        <v>21.112792702186606</v>
+        <v>21.124759538662484</v>
       </c>
     </row>
     <row r="187">
@@ -1565,7 +1565,7 @@
         <v>34298.0</v>
       </c>
       <c r="B187" t="n">
-        <v>28.38130836453489</v>
+        <v>28.45008150077469</v>
       </c>
     </row>
     <row r="188">
@@ -1573,7 +1573,7 @@
         <v>34300.0</v>
       </c>
       <c r="B188" t="n">
-        <v>30.96493199122905</v>
+        <v>31.05370477136108</v>
       </c>
     </row>
     <row r="189">
@@ -1581,7 +1581,7 @@
         <v>34302.0</v>
       </c>
       <c r="B189" t="n">
-        <v>41.7217241472518</v>
+        <v>41.88960063510462</v>
       </c>
     </row>
     <row r="190">
@@ -1589,7 +1589,7 @@
         <v>34303.0</v>
       </c>
       <c r="B190" t="n">
-        <v>99.48407889653072</v>
+        <v>99.80550509223019</v>
       </c>
     </row>
     <row r="191">
@@ -1597,7 +1597,7 @@
         <v>34306.0</v>
       </c>
       <c r="B191" t="n">
-        <v>116.08624800555442</v>
+        <v>116.32947341811764</v>
       </c>
     </row>
     <row r="192">
@@ -1605,7 +1605,7 @@
         <v>34307.0</v>
       </c>
       <c r="B192" t="n">
-        <v>94.92661451619519</v>
+        <v>95.2602984943291</v>
       </c>
     </row>
     <row r="193">
@@ -1613,7 +1613,7 @@
         <v>34308.0</v>
       </c>
       <c r="B193" t="n">
-        <v>77.94000171207779</v>
+        <v>78.27584775619614</v>
       </c>
     </row>
     <row r="194">
@@ -1621,7 +1621,7 @@
         <v>34310.0</v>
       </c>
       <c r="B194" t="n">
-        <v>97.44849030667241</v>
+        <v>97.77911734898743</v>
       </c>
     </row>
     <row r="195">
@@ -1629,7 +1629,7 @@
         <v>34311.0</v>
       </c>
       <c r="B195" t="n">
-        <v>229.1473871391852</v>
+        <v>227.04029225354236</v>
       </c>
     </row>
     <row r="196">
@@ -1637,7 +1637,7 @@
         <v>34312.0</v>
       </c>
       <c r="B196" t="n">
-        <v>101.67218707644487</v>
+        <v>101.99419007303831</v>
       </c>
     </row>
     <row r="197">
@@ -1645,7 +1645,7 @@
         <v>34315.0</v>
       </c>
       <c r="B197" t="n">
-        <v>160.97883588517942</v>
+        <v>160.68629661630553</v>
       </c>
     </row>
     <row r="198">
@@ -1653,7 +1653,7 @@
         <v>34316.0</v>
       </c>
       <c r="B198" t="n">
-        <v>184.3560933812078</v>
+        <v>183.57931871017925</v>
       </c>
     </row>
     <row r="199">
@@ -1661,7 +1661,7 @@
         <v>34318.0</v>
       </c>
       <c r="B199" t="n">
-        <v>156.74458133580356</v>
+        <v>156.53209030204374</v>
       </c>
     </row>
     <row r="200">
@@ -1669,7 +1669,7 @@
         <v>34320.0</v>
       </c>
       <c r="B200" t="n">
-        <v>242.99678573677198</v>
+        <v>240.42236031766552</v>
       </c>
     </row>
     <row r="201">
@@ -1677,7 +1677,7 @@
         <v>34323.0</v>
       </c>
       <c r="B201" t="n">
-        <v>143.05235750624408</v>
+        <v>143.0503591325899</v>
       </c>
     </row>
     <row r="202">
@@ -1685,7 +1685,7 @@
         <v>34324.0</v>
       </c>
       <c r="B202" t="n">
-        <v>105.03233608753762</v>
+        <v>105.35256512887844</v>
       </c>
     </row>
     <row r="203">
@@ -1693,7 +1693,7 @@
         <v>34327.0</v>
       </c>
       <c r="B203" t="n">
-        <v>87.48739991239127</v>
+        <v>87.84116492311185</v>
       </c>
     </row>
     <row r="204">
@@ -1701,7 +1701,7 @@
         <v>34328.0</v>
       </c>
       <c r="B204" t="n">
-        <v>65.17977271401571</v>
+        <v>65.48598463314558</v>
       </c>
     </row>
     <row r="205">
@@ -1709,7 +1709,7 @@
         <v>34329.0</v>
       </c>
       <c r="B205" t="n">
-        <v>49.02946348991867</v>
+        <v>49.249963553829474</v>
       </c>
     </row>
     <row r="206">
@@ -1717,7 +1717,7 @@
         <v>34331.0</v>
       </c>
       <c r="B206" t="n">
-        <v>130.49406854788117</v>
+        <v>130.64695545618906</v>
       </c>
     </row>
     <row r="207">
@@ -1725,7 +1725,7 @@
         <v>34332.0</v>
       </c>
       <c r="B207" t="n">
-        <v>195.0090946103066</v>
+        <v>193.9969217644983</v>
       </c>
     </row>
     <row r="208">
@@ -1733,7 +1733,7 @@
         <v>34333.0</v>
       </c>
       <c r="B208" t="n">
-        <v>125.39835380370718</v>
+        <v>125.60278079015713</v>
       </c>
     </row>
     <row r="209">
@@ -1741,7 +1741,7 @@
         <v>34336.0</v>
       </c>
       <c r="B209" t="n">
-        <v>205.05058210496216</v>
+        <v>203.7703631362196</v>
       </c>
     </row>
     <row r="210">
@@ -1749,7 +1749,7 @@
         <v>34337.0</v>
       </c>
       <c r="B210" t="n">
-        <v>191.46384121235673</v>
+        <v>190.5565537495724</v>
       </c>
     </row>
     <row r="211">
@@ -1757,7 +1757,7 @@
         <v>34339.0</v>
       </c>
       <c r="B211" t="n">
-        <v>131.97299442786255</v>
+        <v>132.12245183539832</v>
       </c>
     </row>
     <row r="212">
@@ -1765,7 +1765,7 @@
         <v>34341.0</v>
       </c>
       <c r="B212" t="n">
-        <v>85.17508372571186</v>
+        <v>85.53683256155256</v>
       </c>
     </row>
     <row r="213">
@@ -1773,7 +1773,7 @@
         <v>34343.0</v>
       </c>
       <c r="B213" t="n">
-        <v>151.62578399278647</v>
+        <v>151.5333755036639</v>
       </c>
     </row>
     <row r="214">
@@ -1781,7 +1781,7 @@
         <v>34344.0</v>
       </c>
       <c r="B214" t="n">
-        <v>191.313846784033</v>
+        <v>190.42758653736874</v>
       </c>
     </row>
     <row r="215">
@@ -1789,7 +1789,7 @@
         <v>34347.0</v>
       </c>
       <c r="B215" t="n">
-        <v>193.28205213268805</v>
+        <v>192.34776735270052</v>
       </c>
     </row>
     <row r="216">
@@ -1797,7 +1797,7 @@
         <v>34348.0</v>
       </c>
       <c r="B216" t="n">
-        <v>163.9074550287176</v>
+        <v>163.61987613587888</v>
       </c>
     </row>
     <row r="217">
@@ -1805,7 +1805,7 @@
         <v>34349.0</v>
       </c>
       <c r="B217" t="n">
-        <v>77.83114216474581</v>
+        <v>78.1863765833584</v>
       </c>
     </row>
     <row r="218">
@@ -1813,7 +1813,7 @@
         <v>34351.0</v>
       </c>
       <c r="B218" t="n">
-        <v>72.22941894176869</v>
+        <v>72.56987863581989</v>
       </c>
     </row>
     <row r="219">
@@ -1821,7 +1821,7 @@
         <v>34352.0</v>
       </c>
       <c r="B219" t="n">
-        <v>121.65314699163133</v>
+        <v>121.90635040716788</v>
       </c>
     </row>
     <row r="220">
@@ -1829,7 +1829,7 @@
         <v>34353.0</v>
       </c>
       <c r="B220" t="n">
-        <v>64.96766530832899</v>
+        <v>65.2815147633721</v>
       </c>
     </row>
     <row r="221">
@@ -1837,7 +1837,7 @@
         <v>34356.0</v>
       </c>
       <c r="B221" t="n">
-        <v>115.22405917687489</v>
+        <v>115.5233677610543</v>
       </c>
     </row>
     <row r="222">
@@ -1845,7 +1845,7 @@
         <v>34357.0</v>
       </c>
       <c r="B222" t="n">
-        <v>113.95815832394825</v>
+        <v>114.26645969616428</v>
       </c>
     </row>
     <row r="223">
@@ -1853,7 +1853,7 @@
         <v>34359.0</v>
       </c>
       <c r="B223" t="n">
-        <v>223.38324711691612</v>
+        <v>221.5948599139605</v>
       </c>
     </row>
     <row r="224">
@@ -1861,7 +1861,7 @@
         <v>34361.0</v>
       </c>
       <c r="B224" t="n">
-        <v>159.7442471020416</v>
+        <v>159.55339734189405</v>
       </c>
     </row>
     <row r="225">
@@ -1869,7 +1869,7 @@
         <v>34363.0</v>
       </c>
       <c r="B225" t="n">
-        <v>164.3460914383498</v>
+        <v>164.07679439639776</v>
       </c>
     </row>
     <row r="226">
@@ -1877,7 +1877,7 @@
         <v>34364.0</v>
       </c>
       <c r="B226" t="n">
-        <v>145.53191317420942</v>
+        <v>145.5597837726366</v>
       </c>
     </row>
     <row r="227">
@@ -1885,7 +1885,7 @@
         <v>34367.0</v>
       </c>
       <c r="B227" t="n">
-        <v>102.98806408389677</v>
+        <v>103.34883605122683</v>
       </c>
     </row>
     <row r="228">
@@ -1893,7 +1893,7 @@
         <v>34368.0</v>
       </c>
       <c r="B228" t="n">
-        <v>151.24852335800188</v>
+        <v>151.20046381554533</v>
       </c>
     </row>
     <row r="229">
@@ -1901,7 +1901,7 @@
         <v>34369.0</v>
       </c>
       <c r="B229" t="n">
-        <v>99.8588977167206</v>
+        <v>100.22942643638821</v>
       </c>
     </row>
     <row r="230">
@@ -1909,7 +1909,7 @@
         <v>34371.0</v>
       </c>
       <c r="B230" t="n">
-        <v>88.10326341067386</v>
+        <v>88.48330078923358</v>
       </c>
     </row>
     <row r="231">
@@ -1917,7 +1917,7 @@
         <v>34372.0</v>
       </c>
       <c r="B231" t="n">
-        <v>67.5684806858846</v>
+        <v>67.89904879907839</v>
       </c>
     </row>
     <row r="232">
@@ -1925,7 +1925,7 @@
         <v>34373.0</v>
       </c>
       <c r="B232" t="n">
-        <v>52.683847044183864</v>
+        <v>52.93518419926889</v>
       </c>
     </row>
     <row r="233">
@@ -1933,7 +1933,7 @@
         <v>34376.0</v>
       </c>
       <c r="B233" t="n">
-        <v>46.64810242840801</v>
+        <v>46.8588954144309</v>
       </c>
     </row>
     <row r="234">
@@ -1941,7 +1941,7 @@
         <v>34377.0</v>
       </c>
       <c r="B234" t="n">
-        <v>38.445180721055685</v>
+        <v>38.595105936625735</v>
       </c>
     </row>
     <row r="235">
@@ -1949,7 +1949,7 @@
         <v>34379.0</v>
       </c>
       <c r="B235" t="n">
-        <v>32.32237349493812</v>
+        <v>32.42369459749188</v>
       </c>
     </row>
     <row r="236">
@@ -1957,7 +1957,7 @@
         <v>34381.0</v>
       </c>
       <c r="B236" t="n">
-        <v>31.068471081352136</v>
+        <v>31.159618939345663</v>
       </c>
     </row>
     <row r="237">
@@ -1965,7 +1965,7 @@
         <v>34383.0</v>
       </c>
       <c r="B237" t="n">
-        <v>29.394513617190615</v>
+        <v>29.47197234238023</v>
       </c>
     </row>
     <row r="238">
@@ -1973,7 +1973,7 @@
         <v>34384.0</v>
       </c>
       <c r="B238" t="n">
-        <v>26.194006766949837</v>
+        <v>26.245081759180437</v>
       </c>
     </row>
     <row r="239">
@@ -1981,7 +1981,7 @@
         <v>34387.0</v>
       </c>
       <c r="B239" t="n">
-        <v>29.214468605082644</v>
+        <v>29.290422151330848</v>
       </c>
     </row>
     <row r="240">
@@ -1989,7 +1989,7 @@
         <v>34388.0</v>
       </c>
       <c r="B240" t="n">
-        <v>28.24999028415508</v>
+        <v>28.317990505736198</v>
       </c>
     </row>
     <row r="241">
@@ -1997,7 +1997,7 @@
         <v>34389.0</v>
       </c>
       <c r="B241" t="n">
-        <v>85.44649608419833</v>
+        <v>85.83478779982724</v>
       </c>
     </row>
     <row r="242">
@@ -2005,7 +2005,7 @@
         <v>34391.0</v>
       </c>
       <c r="B242" t="n">
-        <v>197.8239413881276</v>
+        <v>196.8671960368207</v>
       </c>
     </row>
     <row r="243">
@@ -2013,7 +2013,7 @@
         <v>34392.0</v>
       </c>
       <c r="B243" t="n">
-        <v>250.19818110385663</v>
+        <v>247.53664407256042</v>
       </c>
     </row>
     <row r="244">
@@ -2021,7 +2021,7 @@
         <v>34393.0</v>
       </c>
       <c r="B244" t="n">
-        <v>155.43691941208021</v>
+        <v>155.3701252818982</v>
       </c>
     </row>
     <row r="245">
@@ -2029,7 +2029,7 @@
         <v>34397.0</v>
       </c>
       <c r="B245" t="n">
-        <v>114.23060783800753</v>
+        <v>114.57447957125336</v>
       </c>
     </row>
     <row r="246">
@@ -2037,7 +2037,7 @@
         <v>34398.0</v>
       </c>
       <c r="B246" t="n">
-        <v>120.10567576357114</v>
+        <v>120.41887212850104</v>
       </c>
     </row>
     <row r="247">
@@ -2045,7 +2045,7 @@
         <v>34400.0</v>
       </c>
       <c r="B247" t="n">
-        <v>144.39482706220085</v>
+        <v>144.48680764184545</v>
       </c>
     </row>
     <row r="248">
@@ -2053,7 +2053,7 @@
         <v>34402.0</v>
       </c>
       <c r="B248" t="n">
-        <v>56.03574780219899</v>
+        <v>56.31325267354398</v>
       </c>
     </row>
     <row r="249">
@@ -2061,7 +2061,7 @@
         <v>34404.0</v>
       </c>
       <c r="B249" t="n">
-        <v>74.19440029419341</v>
+        <v>74.56198638766917</v>
       </c>
     </row>
     <row r="250">
@@ -2069,7 +2069,7 @@
         <v>34405.0</v>
       </c>
       <c r="B250" t="n">
-        <v>124.69639858052712</v>
+        <v>124.98711045235433</v>
       </c>
     </row>
     <row r="251">
@@ -2077,7 +2077,7 @@
         <v>34408.0</v>
       </c>
       <c r="B251" t="n">
-        <v>66.95410021310492</v>
+        <v>67.29307383000643</v>
       </c>
     </row>
     <row r="252">
@@ -2085,7 +2085,7 @@
         <v>34409.0</v>
       </c>
       <c r="B252" t="n">
-        <v>55.71539961802755</v>
+        <v>55.99198555081521</v>
       </c>
     </row>
     <row r="253">
@@ -2093,7 +2093,7 @@
         <v>34410.0</v>
       </c>
       <c r="B253" t="n">
-        <v>54.584902689283105</v>
+        <v>54.854578579763306</v>
       </c>
     </row>
     <row r="254">
@@ -2101,7 +2101,7 @@
         <v>34412.0</v>
       </c>
       <c r="B254" t="n">
-        <v>42.40624814185605</v>
+        <v>42.588873452275244</v>
       </c>
     </row>
     <row r="255">
@@ -2109,7 +2109,7 @@
         <v>34413.0</v>
       </c>
       <c r="B255" t="n">
-        <v>36.303594252779725</v>
+        <v>36.43780294802518</v>
       </c>
     </row>
     <row r="256">
@@ -2117,7 +2117,7 @@
         <v>34414.0</v>
       </c>
       <c r="B256" t="n">
-        <v>128.23984101769918</v>
+        <v>128.51473794679455</v>
       </c>
     </row>
     <row r="257">
@@ -2125,7 +2125,7 @@
         <v>34418.0</v>
       </c>
       <c r="B257" t="n">
-        <v>83.92441503905764</v>
+        <v>84.3245840785906</v>
       </c>
     </row>
     <row r="258">
@@ -2133,7 +2133,7 @@
         <v>34419.0</v>
       </c>
       <c r="B258" t="n">
-        <v>60.70036653487724</v>
+        <v>61.00942039217095</v>
       </c>
     </row>
     <row r="259">
@@ -2141,7 +2141,7 @@
         <v>34421.0</v>
       </c>
       <c r="B259" t="n">
-        <v>46.8631841674291</v>
+        <v>47.08039605008067</v>
       </c>
     </row>
     <row r="260">
@@ -2149,7 +2149,7 @@
         <v>34423.0</v>
       </c>
       <c r="B260" t="n">
-        <v>145.08971442014996</v>
+        <v>145.2051332677235</v>
       </c>
     </row>
     <row r="261">
@@ -2157,7 +2157,7 @@
         <v>34425.0</v>
       </c>
       <c r="B261" t="n">
-        <v>103.38110652101606</v>
+        <v>103.78562246919219</v>
       </c>
     </row>
     <row r="262">
@@ -2165,7 +2165,7 @@
         <v>34426.0</v>
       </c>
       <c r="B262" t="n">
-        <v>70.49509730374332</v>
+        <v>70.85643979538186</v>
       </c>
     </row>
     <row r="263">
@@ -2173,7 +2173,7 @@
         <v>34429.0</v>
       </c>
       <c r="B263" t="n">
-        <v>77.13687482295592</v>
+        <v>77.52419632670745</v>
       </c>
     </row>
     <row r="264">
@@ -2181,7 +2181,7 @@
         <v>34430.0</v>
       </c>
       <c r="B264" t="n">
-        <v>69.77286888530529</v>
+        <v>70.13161207916492</v>
       </c>
     </row>
     <row r="265">
@@ -2189,7 +2189,7 @@
         <v>34431.0</v>
       </c>
       <c r="B265" t="n">
-        <v>127.46393632575653</v>
+        <v>127.76151189632432</v>
       </c>
     </row>
     <row r="266">
@@ -2197,7 +2197,7 @@
         <v>34433.0</v>
       </c>
       <c r="B266" t="n">
-        <v>74.9983774991492</v>
+        <v>75.3797395753998</v>
       </c>
     </row>
     <row r="267">
@@ -2205,7 +2205,7 @@
         <v>34434.0</v>
       </c>
       <c r="B267" t="n">
-        <v>57.56598663222568</v>
+        <v>57.85883584325842</v>
       </c>
     </row>
     <row r="268">
@@ -2213,7 +2213,7 @@
         <v>34435.0</v>
       </c>
       <c r="B268" t="n">
-        <v>43.82292056736363</v>
+        <v>44.018159391989165</v>
       </c>
     </row>
     <row r="269">
@@ -2221,7 +2221,7 @@
         <v>34438.0</v>
       </c>
       <c r="B269" t="n">
-        <v>36.622121791298206</v>
+        <v>36.759401892728626</v>
       </c>
     </row>
     <row r="270">
@@ -2229,7 +2229,7 @@
         <v>34439.0</v>
       </c>
       <c r="B270" t="n">
-        <v>29.774372215887052</v>
+        <v>29.854131116002616</v>
       </c>
     </row>
     <row r="271">
@@ -2237,7 +2237,7 @@
         <v>34441.0</v>
       </c>
       <c r="B271" t="n">
-        <v>24.863443611255942</v>
+        <v>24.901398543782623</v>
       </c>
     </row>
     <row r="272">
@@ -2245,7 +2245,7 @@
         <v>34443.0</v>
       </c>
       <c r="B272" t="n">
-        <v>27.34046962849956</v>
+        <v>27.399400225929455</v>
       </c>
     </row>
     <row r="273">
@@ -2253,7 +2253,7 @@
         <v>34445.0</v>
       </c>
       <c r="B273" t="n">
-        <v>36.120583259016776</v>
+        <v>36.25377556905447</v>
       </c>
     </row>
     <row r="274">
@@ -2261,7 +2261,7 @@
         <v>34446.0</v>
       </c>
       <c r="B274" t="n">
-        <v>44.512959751224706</v>
+        <v>44.71429024333255</v>
       </c>
     </row>
     <row r="275">
@@ -2269,7 +2269,7 @@
         <v>34449.0</v>
       </c>
       <c r="B275" t="n">
-        <v>45.62659698193446</v>
+        <v>45.83666760968455</v>
       </c>
     </row>
     <row r="276">
@@ -2277,7 +2277,7 @@
         <v>34450.0</v>
       </c>
       <c r="B276" t="n">
-        <v>36.39991092238955</v>
+        <v>36.535471197469704</v>
       </c>
     </row>
     <row r="277">
@@ -2285,7 +2285,7 @@
         <v>34451.0</v>
       </c>
       <c r="B277" t="n">
-        <v>48.937316229880565</v>
+        <v>49.172835776287506</v>
       </c>
     </row>
     <row r="278">
@@ -2293,7 +2293,7 @@
         <v>34453.0</v>
       </c>
       <c r="B278" t="n">
-        <v>31.624032599816825</v>
+        <v>31.719223878933057</v>
       </c>
     </row>
     <row r="279">
@@ -2301,7 +2301,7 @@
         <v>34454.0</v>
       </c>
       <c r="B279" t="n">
-        <v>25.625276788615317</v>
+        <v>25.669133667422855</v>
       </c>
     </row>
     <row r="280">
@@ -2309,7 +2309,7 @@
         <v>34455.0</v>
       </c>
       <c r="B280" t="n">
-        <v>20.88033375531189</v>
+        <v>20.88373839002342</v>
       </c>
     </row>
     <row r="281">
@@ -2317,7 +2317,7 @@
         <v>34458.0</v>
       </c>
       <c r="B281" t="n">
-        <v>23.239120905393367</v>
+        <v>23.262412159069104</v>
       </c>
     </row>
     <row r="282">
@@ -2325,7 +2325,7 @@
         <v>34459.0</v>
       </c>
       <c r="B282" t="n">
-        <v>29.12732965868525</v>
+        <v>29.200948566503925</v>
       </c>
     </row>
     <row r="283">
@@ -2333,7 +2333,7 @@
         <v>34461.0</v>
       </c>
       <c r="B283" t="n">
-        <v>20.522362161403457</v>
+        <v>20.522414609855524</v>
       </c>
     </row>
     <row r="284">
@@ -2341,7 +2341,7 @@
         <v>34463.0</v>
       </c>
       <c r="B284" t="n">
-        <v>18.321642603683728</v>
+        <v>18.30318680534827</v>
       </c>
     </row>
     <row r="285">
@@ -2349,7 +2349,7 @@
         <v>34465.0</v>
       </c>
       <c r="B285" t="n">
-        <v>17.54473038104074</v>
+        <v>17.51978683665886</v>
       </c>
     </row>
     <row r="286">
@@ -2357,7 +2357,7 @@
         <v>34466.0</v>
       </c>
       <c r="B286" t="n">
-        <v>19.7286726517334</v>
+        <v>19.721632367333346</v>
       </c>
     </row>
     <row r="287">
@@ -2365,7 +2365,7 @@
         <v>34469.0</v>
       </c>
       <c r="B287" t="n">
-        <v>24.27745990623808</v>
+        <v>24.308959010008834</v>
       </c>
     </row>
     <row r="288">
@@ -2373,7 +2373,7 @@
         <v>34470.0</v>
       </c>
       <c r="B288" t="n">
-        <v>21.458405985078205</v>
+        <v>21.465798145212467</v>
       </c>
     </row>
     <row r="289">
@@ -2381,7 +2381,7 @@
         <v>34471.0</v>
       </c>
       <c r="B289" t="n">
-        <v>17.30444164819649</v>
+        <v>17.2769603960335</v>
       </c>
     </row>
     <row r="290">
@@ -2389,7 +2389,7 @@
         <v>34473.0</v>
       </c>
       <c r="B290" t="n">
-        <v>16.714082411448835</v>
+        <v>16.681678702930316</v>
       </c>
     </row>
     <row r="291">
@@ -2397,7 +2397,7 @@
         <v>34474.0</v>
       </c>
       <c r="B291" t="n">
-        <v>16.625574683173</v>
+        <v>16.592364175691436</v>
       </c>
     </row>
     <row r="292">
@@ -2405,7 +2405,7 @@
         <v>34475.0</v>
       </c>
       <c r="B292" t="n">
-        <v>24.897704216328297</v>
+        <v>24.9340539755197</v>
       </c>
     </row>
     <row r="293">
@@ -2413,7 +2413,7 @@
         <v>34478.0</v>
       </c>
       <c r="B293" t="n">
-        <v>20.245818951092726</v>
+        <v>20.242374171638414</v>
       </c>
     </row>
     <row r="294">
@@ -2421,7 +2421,7 @@
         <v>34479.0</v>
       </c>
       <c r="B294" t="n">
-        <v>16.769858088140147</v>
+        <v>16.737321569834357</v>
       </c>
     </row>
     <row r="295">
@@ -2429,7 +2429,7 @@
         <v>34481.0</v>
       </c>
       <c r="B295" t="n">
-        <v>15.689279199682625</v>
+        <v>15.647763465947962</v>
       </c>
     </row>
     <row r="296">
@@ -2437,7 +2437,7 @@
         <v>34483.0</v>
       </c>
       <c r="B296" t="n">
-        <v>14.996754988840086</v>
+        <v>14.94947243168916</v>
       </c>
     </row>
     <row r="297">
@@ -2445,7 +2445,7 @@
         <v>34485.0</v>
       </c>
       <c r="B297" t="n">
-        <v>14.845935217231686</v>
+        <v>14.797351363090531</v>
       </c>
     </row>
     <row r="298">
@@ -2453,7 +2453,7 @@
         <v>34486.0</v>
       </c>
       <c r="B298" t="n">
-        <v>16.086037757318724</v>
+        <v>16.047215829123623</v>
       </c>
     </row>
     <row r="299">
@@ -2461,7 +2461,7 @@
         <v>34489.0</v>
       </c>
       <c r="B299" t="n">
-        <v>18.845606925305404</v>
+        <v>18.829514019228842</v>
       </c>
     </row>
     <row r="300">
@@ -2469,7 +2469,7 @@
         <v>34490.0</v>
       </c>
       <c r="B300" t="n">
-        <v>16.567348562707448</v>
+        <v>16.532283360894574</v>
       </c>
     </row>
     <row r="301">
@@ -2477,7 +2477,7 @@
         <v>34491.0</v>
       </c>
       <c r="B301" t="n">
-        <v>15.829917458717553</v>
+        <v>15.788651212076427</v>
       </c>
     </row>
     <row r="302">
@@ -2485,7 +2485,7 @@
         <v>34493.0</v>
       </c>
       <c r="B302" t="n">
-        <v>14.606823707595664</v>
+        <v>14.55559002477557</v>
       </c>
     </row>
     <row r="303">
@@ -2493,7 +2493,7 @@
         <v>34494.0</v>
       </c>
       <c r="B303" t="n">
-        <v>13.91130217455577</v>
+        <v>13.854427479115191</v>
       </c>
     </row>
     <row r="304">
@@ -2501,7 +2501,7 @@
         <v>34495.0</v>
       </c>
       <c r="B304" t="n">
-        <v>13.417873532208343</v>
+        <v>13.356809906728186</v>
       </c>
     </row>
     <row r="305">
@@ -2509,7 +2509,7 @@
         <v>34498.0</v>
       </c>
       <c r="B305" t="n">
-        <v>13.089044529959196</v>
+        <v>13.025298040502467</v>
       </c>
     </row>
     <row r="306">
@@ -2517,7 +2517,7 @@
         <v>34499.0</v>
       </c>
       <c r="B306" t="n">
-        <v>12.61594710564133</v>
+        <v>12.548307217425743</v>
       </c>
     </row>
     <row r="307">
@@ -2525,7 +2525,7 @@
         <v>34501.0</v>
       </c>
       <c r="B307" t="n">
-        <v>12.71896323674642</v>
+        <v>12.651931614534595</v>
       </c>
     </row>
     <row r="308">
@@ -2533,7 +2533,7 @@
         <v>34503.0</v>
       </c>
       <c r="B308" t="n">
-        <v>15.153175522888203</v>
+        <v>15.105305393808308</v>
       </c>
     </row>
     <row r="309">
@@ -2541,7 +2541,7 @@
         <v>34505.0</v>
       </c>
       <c r="B309" t="n">
-        <v>15.55631898656129</v>
+        <v>15.511622534485522</v>
       </c>
     </row>
     <row r="310">
@@ -2549,7 +2549,7 @@
         <v>34506.0</v>
       </c>
       <c r="B310" t="n">
-        <v>15.2377099816433</v>
+        <v>15.19014113848725</v>
       </c>
     </row>
     <row r="311">
@@ -2557,7 +2557,7 @@
         <v>34509.0</v>
       </c>
       <c r="B311" t="n">
-        <v>14.343709751633133</v>
+        <v>14.288842686183454</v>
       </c>
     </row>
     <row r="312">
@@ -2565,7 +2565,7 @@
         <v>34510.0</v>
       </c>
       <c r="B312" t="n">
-        <v>14.52817837651391</v>
+        <v>14.474692527033994</v>
       </c>
     </row>
     <row r="313">
@@ -2573,7 +2573,7 @@
         <v>34511.0</v>
       </c>
       <c r="B313" t="n">
-        <v>16.71915047448085</v>
+        <v>16.683314995030443</v>
       </c>
     </row>
     <row r="314">
@@ -2581,7 +2581,7 @@
         <v>34513.0</v>
       </c>
       <c r="B314" t="n">
-        <v>14.391691723256265</v>
+        <v>14.336815593408925</v>
       </c>
     </row>
     <row r="315">
@@ -2589,7 +2589,7 @@
         <v>34514.0</v>
       </c>
       <c r="B315" t="n">
-        <v>13.040317422943</v>
+        <v>12.974611432843318</v>
       </c>
     </row>
     <row r="316">
@@ -2597,7 +2597,7 @@
         <v>34515.0</v>
       </c>
       <c r="B316" t="n">
-        <v>12.056743634021934</v>
+        <v>11.983062673862076</v>
       </c>
     </row>
     <row r="317">
@@ -2605,7 +2605,7 @@
         <v>34518.0</v>
       </c>
       <c r="B317" t="n">
-        <v>11.708090377513178</v>
+        <v>11.631617940293097</v>
       </c>
     </row>
     <row r="318">
@@ -2613,7 +2613,7 @@
         <v>34519.0</v>
       </c>
       <c r="B318" t="n">
-        <v>12.062303505566748</v>
+        <v>11.988356823421809</v>
       </c>
     </row>
     <row r="319">
@@ -2621,7 +2621,7 @@
         <v>34521.0</v>
       </c>
       <c r="B319" t="n">
-        <v>12.123897520496817</v>
+        <v>12.050220627790875</v>
       </c>
     </row>
     <row r="320">
@@ -2629,7 +2629,7 @@
         <v>34523.0</v>
       </c>
       <c r="B320" t="n">
-        <v>11.500473234700273</v>
+        <v>11.421783690598243</v>
       </c>
     </row>
     <row r="321">
@@ -2637,7 +2637,7 @@
         <v>34525.0</v>
       </c>
       <c r="B321" t="n">
-        <v>11.430037421146237</v>
+        <v>11.350703504225239</v>
       </c>
     </row>
     <row r="322">
@@ -2645,7 +2645,7 @@
         <v>34526.0</v>
       </c>
       <c r="B322" t="n">
-        <v>11.035335286450527</v>
+        <v>10.95267444534096</v>
       </c>
     </row>
     <row r="323">
@@ -2653,7 +2653,7 @@
         <v>34529.0</v>
       </c>
       <c r="B323" t="n">
-        <v>10.974185005801413</v>
+        <v>10.890953527408213</v>
       </c>
     </row>
     <row r="324">
@@ -2661,7 +2661,7 @@
         <v>34530.0</v>
       </c>
       <c r="B324" t="n">
-        <v>10.83163736770935</v>
+        <v>10.747218879170289</v>
       </c>
     </row>
     <row r="325">
@@ -2669,7 +2669,7 @@
         <v>34531.0</v>
       </c>
       <c r="B325" t="n">
-        <v>10.622572919670707</v>
+        <v>10.536361117209784</v>
       </c>
     </row>
     <row r="326">
@@ -2677,7 +2677,7 @@
         <v>34533.0</v>
       </c>
       <c r="B326" t="n">
-        <v>10.287157186341375</v>
+        <v>10.19831788477183</v>
       </c>
     </row>
     <row r="327">
@@ -2685,7 +2685,7 @@
         <v>34534.0</v>
       </c>
       <c r="B327" t="n">
-        <v>10.07040705990874</v>
+        <v>9.979840665966258</v>
       </c>
     </row>
     <row r="328">
@@ -2693,7 +2693,7 @@
         <v>34535.0</v>
       </c>
       <c r="B328" t="n">
-        <v>9.796666764010375</v>
+        <v>9.70374059267436</v>
       </c>
     </row>
     <row r="329">
@@ -2701,7 +2701,7 @@
         <v>34538.0</v>
       </c>
       <c r="B329" t="n">
-        <v>10.941965621833559</v>
+        <v>10.85752121234003</v>
       </c>
     </row>
     <row r="330">
@@ -2709,7 +2709,7 @@
         <v>34539.0</v>
       </c>
       <c r="B330" t="n">
-        <v>11.653500466949392</v>
+        <v>11.57427568679556</v>
       </c>
     </row>
     <row r="331">
@@ -2717,7 +2717,7 @@
         <v>34541.0</v>
       </c>
       <c r="B331" t="n">
-        <v>11.664894186836355</v>
+        <v>11.585538515835829</v>
       </c>
     </row>
     <row r="332">
@@ -2725,7 +2725,7 @@
         <v>34543.0</v>
       </c>
       <c r="B332" t="n">
-        <v>11.078340100445171</v>
+        <v>10.994274712078086</v>
       </c>
     </row>
     <row r="333">
@@ -2733,7 +2733,7 @@
         <v>34545.0</v>
       </c>
       <c r="B333" t="n">
-        <v>12.18114305115441</v>
+        <v>12.10545070489986</v>
       </c>
     </row>
     <row r="334">
@@ -2741,7 +2741,7 @@
         <v>34546.0</v>
       </c>
       <c r="B334" t="n">
-        <v>11.32701162551936</v>
+        <v>11.244400450002797</v>
       </c>
     </row>
     <row r="335">
@@ -2749,7 +2749,7 @@
         <v>34549.0</v>
       </c>
       <c r="B335" t="n">
-        <v>11.701368410222772</v>
+        <v>11.621520122081897</v>
       </c>
     </row>
     <row r="336">
@@ -2757,7 +2757,7 @@
         <v>34550.0</v>
       </c>
       <c r="B336" t="n">
-        <v>15.471227964406857</v>
+        <v>15.421263154086335</v>
       </c>
     </row>
     <row r="337">
@@ -2765,7 +2765,7 @@
         <v>34551.0</v>
       </c>
       <c r="B337" t="n">
-        <v>12.431497011200593</v>
+        <v>12.356978210136392</v>
       </c>
     </row>
     <row r="338">
@@ -2773,7 +2773,7 @@
         <v>34553.0</v>
       </c>
       <c r="B338" t="n">
-        <v>11.852603927016464</v>
+        <v>11.77347491087154</v>
       </c>
     </row>
     <row r="339">
@@ -2781,7 +2781,7 @@
         <v>34554.0</v>
       </c>
       <c r="B339" t="n">
-        <v>11.527468273798352</v>
+        <v>11.445721149526747</v>
       </c>
     </row>
     <row r="340">
@@ -2789,7 +2789,7 @@
         <v>34555.0</v>
       </c>
       <c r="B340" t="n">
-        <v>10.962627434050198</v>
+        <v>10.876224477158116</v>
       </c>
     </row>
     <row r="341">
@@ -2797,7 +2797,7 @@
         <v>34558.0</v>
       </c>
       <c r="B341" t="n">
-        <v>10.761591690153207</v>
+        <v>10.673550308185211</v>
       </c>
     </row>
     <row r="342">
@@ -2805,7 +2805,7 @@
         <v>34559.0</v>
       </c>
       <c r="B342" t="n">
-        <v>10.365489142870125</v>
+        <v>10.274233696550203</v>
       </c>
     </row>
     <row r="343">
@@ -2813,7 +2813,7 @@
         <v>34561.0</v>
       </c>
       <c r="B343" t="n">
-        <v>10.632274881366424</v>
+        <v>10.542797211073946</v>
       </c>
     </row>
     <row r="344">
@@ -2821,7 +2821,7 @@
         <v>34563.0</v>
       </c>
       <c r="B344" t="n">
-        <v>14.418640543173776</v>
+        <v>14.358557927043904</v>
       </c>
     </row>
     <row r="345">
@@ -2829,7 +2829,7 @@
         <v>34565.0</v>
       </c>
       <c r="B345" t="n">
-        <v>12.235500164121504</v>
+        <v>12.15797349853278</v>
       </c>
     </row>
     <row r="346">
@@ -2837,7 +2837,7 @@
         <v>34566.0</v>
       </c>
       <c r="B346" t="n">
-        <v>10.630293830233224</v>
+        <v>10.540104595419681</v>
       </c>
     </row>
     <row r="347">
@@ -2845,7 +2845,7 @@
         <v>34569.0</v>
       </c>
       <c r="B347" t="n">
-        <v>12.758731474843962</v>
+        <v>12.684836110793775</v>
       </c>
     </row>
     <row r="348">
@@ -2853,7 +2853,7 @@
         <v>34570.0</v>
       </c>
       <c r="B348" t="n">
-        <v>35.34895439337607</v>
+        <v>35.472616681317575</v>
       </c>
     </row>
     <row r="349">
@@ -2861,7 +2861,7 @@
         <v>34571.0</v>
       </c>
       <c r="B349" t="n">
-        <v>18.898834970965513</v>
+        <v>18.87517138806052</v>
       </c>
     </row>
     <row r="350">
@@ -2869,7 +2869,7 @@
         <v>34573.0</v>
       </c>
       <c r="B350" t="n">
-        <v>18.242942760221677</v>
+        <v>18.213575361461494</v>
       </c>
     </row>
     <row r="351">
@@ -2877,7 +2877,7 @@
         <v>34574.0</v>
       </c>
       <c r="B351" t="n">
-        <v>16.933798716782643</v>
+        <v>16.893273576011858</v>
       </c>
     </row>
     <row r="352">
@@ -2885,7 +2885,7 @@
         <v>34575.0</v>
       </c>
       <c r="B352" t="n">
-        <v>25.907716884990567</v>
+        <v>25.945240570667618</v>
       </c>
     </row>
     <row r="353">
@@ -2893,7 +2893,7 @@
         <v>34578.0</v>
       </c>
       <c r="B353" t="n">
-        <v>27.449477220289786</v>
+        <v>27.500821885668874</v>
       </c>
     </row>
     <row r="354">
@@ -2901,7 +2901,7 @@
         <v>34579.0</v>
       </c>
       <c r="B354" t="n">
-        <v>13.872994740757608</v>
+        <v>13.80665573090279</v>
       </c>
     </row>
     <row r="355">
@@ -2909,7 +2909,7 @@
         <v>34581.0</v>
       </c>
       <c r="B355" t="n">
-        <v>14.645439927108324</v>
+        <v>14.58509836217375</v>
       </c>
     </row>
     <row r="356">
@@ -2917,7 +2917,7 @@
         <v>34583.0</v>
       </c>
       <c r="B356" t="n">
-        <v>19.455090827757143</v>
+        <v>19.434863823592927</v>
       </c>
     </row>
     <row r="357">
@@ -2925,7 +2925,7 @@
         <v>34585.0</v>
       </c>
       <c r="B357" t="n">
-        <v>17.91543506493362</v>
+        <v>17.881918510116076</v>
       </c>
     </row>
     <row r="358">
@@ -2933,7 +2933,7 @@
         <v>34586.0</v>
       </c>
       <c r="B358" t="n">
-        <v>54.373113016040506</v>
+        <v>54.66163256277427</v>
       </c>
     </row>
     <row r="359">
@@ -2941,7 +2941,7 @@
         <v>34589.0</v>
       </c>
       <c r="B359" t="n">
-        <v>75.82491910269016</v>
+        <v>76.25948416780554</v>
       </c>
     </row>
     <row r="360">
@@ -2949,7 +2949,7 @@
         <v>34590.0</v>
       </c>
       <c r="B360" t="n">
-        <v>43.51208405901692</v>
+        <v>43.708346788322025</v>
       </c>
     </row>
     <row r="361">
@@ -2957,7 +2957,7 @@
         <v>34591.0</v>
       </c>
       <c r="B361" t="n">
-        <v>65.02224830116123</v>
+        <v>65.39107871428165</v>
       </c>
     </row>
     <row r="362">
@@ -2965,7 +2965,7 @@
         <v>34593.0</v>
       </c>
       <c r="B362" t="n">
-        <v>32.053483077334356</v>
+        <v>32.145561609625545</v>
       </c>
     </row>
     <row r="363">
@@ -2973,7 +2973,7 @@
         <v>34594.0</v>
       </c>
       <c r="B363" t="n">
-        <v>22.17896285717399</v>
+        <v>22.18142091303857</v>
       </c>
     </row>
     <row r="364">
@@ -2981,7 +2981,7 @@
         <v>34595.0</v>
       </c>
       <c r="B364" t="n">
-        <v>22.977440198653763</v>
+        <v>22.986655381682432</v>
       </c>
     </row>
     <row r="365">
@@ -2989,7 +2989,7 @@
         <v>34598.0</v>
       </c>
       <c r="B365" t="n">
-        <v>24.64810393826733</v>
+        <v>24.672174813420714</v>
       </c>
     </row>
     <row r="366">
@@ -2997,7 +2997,7 @@
         <v>34599.0</v>
       </c>
       <c r="B366" t="n">
-        <v>16.246682889760294</v>
+        <v>16.197334059590066</v>
       </c>
     </row>
     <row r="367">
@@ -3005,7 +3005,7 @@
         <v>34601.0</v>
       </c>
       <c r="B367" t="n">
-        <v>55.552433397088514</v>
+        <v>55.85130897804068</v>
       </c>
     </row>
     <row r="368">
@@ -3013,7 +3013,7 @@
         <v>34603.0</v>
       </c>
       <c r="B368" t="n">
-        <v>21.210191492348716</v>
+        <v>21.202956222100756</v>
       </c>
     </row>
     <row r="369">
@@ -3021,7 +3021,7 @@
         <v>34605.0</v>
       </c>
       <c r="B369" t="n">
-        <v>18.145281280812597</v>
+        <v>18.111333790279</v>
       </c>
     </row>
     <row r="370">
@@ -3029,7 +3029,7 @@
         <v>34606.0</v>
       </c>
       <c r="B370" t="n">
-        <v>20.201679590173246</v>
+        <v>20.185127610306726</v>
       </c>
     </row>
     <row r="371">
@@ -3037,7 +3037,7 @@
         <v>34609.0</v>
       </c>
       <c r="B371" t="n">
-        <v>61.605886724804684</v>
+        <v>61.952373277172065</v>
       </c>
     </row>
     <row r="372">
@@ -3045,7 +3045,7 @@
         <v>34610.0</v>
       </c>
       <c r="B372" t="n">
-        <v>51.10214139175875</v>
+        <v>51.36449620555122</v>
       </c>
     </row>
     <row r="373">
@@ -3053,7 +3053,7 @@
         <v>34611.0</v>
       </c>
       <c r="B373" t="n">
-        <v>22.509865582640572</v>
+        <v>22.513206515783665</v>
       </c>
     </row>
     <row r="374">
@@ -3061,7 +3061,7 @@
         <v>34613.0</v>
       </c>
       <c r="B374" t="n">
-        <v>19.608983269674162</v>
+        <v>19.586660740349053</v>
       </c>
     </row>
     <row r="375">
@@ -3069,7 +3069,7 @@
         <v>34614.0</v>
       </c>
       <c r="B375" t="n">
-        <v>18.006190933377216</v>
+        <v>17.96993865131449</v>
       </c>
     </row>
     <row r="376">
@@ -3077,7 +3077,7 @@
         <v>34615.0</v>
       </c>
       <c r="B376" t="n">
-        <v>15.584506322353555</v>
+        <v>15.527516648574522</v>
       </c>
     </row>
     <row r="377">
@@ -3085,7 +3085,7 @@
         <v>34618.0</v>
       </c>
       <c r="B377" t="n">
-        <v>14.900185735299447</v>
+        <v>14.837438972315011</v>
       </c>
     </row>
     <row r="378">
@@ -3093,7 +3093,7 @@
         <v>34619.0</v>
       </c>
       <c r="B378" t="n">
-        <v>14.030890383671654</v>
+        <v>13.960821043641914</v>
       </c>
     </row>
     <row r="379">
@@ -3101,7 +3101,7 @@
         <v>34621.0</v>
       </c>
       <c r="B379" t="n">
-        <v>13.543731819399046</v>
+        <v>13.469487013914216</v>
       </c>
     </row>
     <row r="380">
@@ -3109,7 +3109,7 @@
         <v>34623.0</v>
       </c>
       <c r="B380" t="n">
-        <v>13.704460155173452</v>
+        <v>13.631238463651412</v>
       </c>
     </row>
     <row r="381">
@@ -3117,7 +3117,7 @@
         <v>34625.0</v>
       </c>
       <c r="B381" t="n">
-        <v>14.198456899382265</v>
+        <v>14.129082232046487</v>
       </c>
     </row>
     <row r="382">
@@ -3125,7 +3125,7 @@
         <v>34626.0</v>
       </c>
       <c r="B382" t="n">
-        <v>37.95557144383073</v>
+        <v>38.09963201454394</v>
       </c>
     </row>
     <row r="383">
@@ -3133,7 +3133,7 @@
         <v>34629.0</v>
       </c>
       <c r="B383" t="n">
-        <v>101.76212062032448</v>
+        <v>102.29885982011409</v>
       </c>
     </row>
     <row r="384">
@@ -3141,7 +3141,7 @@
         <v>34630.0</v>
       </c>
       <c r="B384" t="n">
-        <v>80.56769532550953</v>
+        <v>81.038047481791</v>
       </c>
     </row>
     <row r="385">
@@ -3149,7 +3149,7 @@
         <v>34631.0</v>
       </c>
       <c r="B385" t="n">
-        <v>59.90643971733937</v>
+        <v>60.24205628942651</v>
       </c>
     </row>
     <row r="386">
@@ -3157,7 +3157,7 @@
         <v>34633.0</v>
       </c>
       <c r="B386" t="n">
-        <v>46.27638738073196</v>
+        <v>46.49646854736541</v>
       </c>
     </row>
     <row r="387">
@@ -3165,7 +3165,7 @@
         <v>34634.0</v>
       </c>
       <c r="B387" t="n">
-        <v>37.33726538435841</v>
+        <v>37.47514312972563</v>
       </c>
     </row>
     <row r="388">
@@ -3173,7 +3173,7 @@
         <v>34635.0</v>
       </c>
       <c r="B388" t="n">
-        <v>51.26391832120873</v>
+        <v>51.52808201865803</v>
       </c>
     </row>
     <row r="389">
@@ -3181,7 +3181,7 @@
         <v>34638.0</v>
       </c>
       <c r="B389" t="n">
-        <v>80.42095291857719</v>
+        <v>80.89279012114496</v>
       </c>
     </row>
     <row r="390">
@@ -3189,7 +3189,7 @@
         <v>34639.0</v>
       </c>
       <c r="B390" t="n">
-        <v>40.07695769326247</v>
+        <v>40.239947883115214</v>
       </c>
     </row>
     <row r="391">
@@ -3197,7 +3197,7 @@
         <v>34641.0</v>
       </c>
       <c r="B391" t="n">
-        <v>110.25878357536847</v>
+        <v>110.80603294138425</v>
       </c>
     </row>
     <row r="392">
@@ -3205,7 +3205,7 @@
         <v>34643.0</v>
       </c>
       <c r="B392" t="n">
-        <v>58.745866623498685</v>
+        <v>59.07307601280423</v>
       </c>
     </row>
     <row r="393">
@@ -3213,7 +3213,7 @@
         <v>34645.0</v>
       </c>
       <c r="B393" t="n">
-        <v>42.15116520056664</v>
+        <v>42.33310697060875</v>
       </c>
     </row>
     <row r="394">
@@ -3221,7 +3221,7 @@
         <v>34646.0</v>
       </c>
       <c r="B394" t="n">
-        <v>61.45816707924271</v>
+        <v>61.8072252565158</v>
       </c>
     </row>
     <row r="395">
@@ -3229,7 +3229,7 @@
         <v>34649.0</v>
       </c>
       <c r="B395" t="n">
-        <v>62.650735767171</v>
+        <v>63.009136621638866</v>
       </c>
     </row>
     <row r="396">
@@ -3237,7 +3237,7 @@
         <v>34650.0</v>
       </c>
       <c r="B396" t="n">
-        <v>134.52581800255987</v>
+        <v>135.00262399764782</v>
       </c>
     </row>
     <row r="397">
@@ -3245,7 +3245,7 @@
         <v>34651.0</v>
       </c>
       <c r="B397" t="n">
-        <v>89.88250523562722</v>
+        <v>90.4015204035256</v>
       </c>
     </row>
     <row r="398">
@@ -3253,7 +3253,7 @@
         <v>34655.0</v>
       </c>
       <c r="B398" t="n">
-        <v>86.55455095276082</v>
+        <v>87.06055221719551</v>
       </c>
     </row>
     <row r="399">
@@ -3261,7 +3261,7 @@
         <v>34656.0</v>
       </c>
       <c r="B399" t="n">
-        <v>135.2090238364043</v>
+        <v>135.68759507944335</v>
       </c>
     </row>
     <row r="400">
@@ -3269,7 +3269,7 @@
         <v>34657.0</v>
       </c>
       <c r="B400" t="n">
-        <v>54.46266469394806</v>
+        <v>54.75476031112177</v>
       </c>
     </row>
     <row r="401">
@@ -3277,7 +3277,7 @@
         <v>34661.0</v>
       </c>
       <c r="B401" t="n">
-        <v>45.893222224960645</v>
+        <v>46.108911022890815</v>
       </c>
     </row>
     <row r="402">
@@ -3285,7 +3285,7 @@
         <v>34662.0</v>
       </c>
       <c r="B402" t="n">
-        <v>36.419444693860974</v>
+        <v>36.54627164179639</v>
       </c>
     </row>
     <row r="403">
@@ -3293,7 +3293,7 @@
         <v>34664.0</v>
       </c>
       <c r="B403" t="n">
-        <v>29.716332369494744</v>
+        <v>29.779524330297654</v>
       </c>
     </row>
     <row r="404">
@@ -3301,7 +3301,7 @@
         <v>34666.0</v>
       </c>
       <c r="B404" t="n">
-        <v>25.789325069384535</v>
+        <v>25.815619354481434</v>
       </c>
     </row>
     <row r="405">
@@ -3309,7 +3309,7 @@
         <v>34668.0</v>
       </c>
       <c r="B405" t="n">
-        <v>24.89747931659096</v>
+        <v>24.915420948195393</v>
       </c>
     </row>
     <row r="406">
@@ -3317,7 +3317,7 @@
         <v>34669.0</v>
       </c>
       <c r="B406" t="n">
-        <v>89.78158142388077</v>
+        <v>90.30636204128307</v>
       </c>
     </row>
     <row r="407">
@@ -3325,7 +3325,7 @@
         <v>34672.0</v>
       </c>
       <c r="B407" t="n">
-        <v>158.9743824227605</v>
+        <v>159.258300008559</v>
       </c>
     </row>
     <row r="408">
@@ -3333,7 +3333,7 @@
         <v>34673.0</v>
       </c>
       <c r="B408" t="n">
-        <v>143.48531361164552</v>
+        <v>143.92378139673536</v>
       </c>
     </row>
     <row r="409">
@@ -3341,7 +3341,7 @@
         <v>34674.0</v>
       </c>
       <c r="B409" t="n">
-        <v>184.5783316760253</v>
+        <v>184.4716105885817</v>
       </c>
     </row>
     <row r="410">
@@ -3349,7 +3349,7 @@
         <v>34676.0</v>
       </c>
       <c r="B410" t="n">
-        <v>163.74057799143813</v>
+        <v>163.9700133049801</v>
       </c>
     </row>
     <row r="411">
@@ -3357,7 +3357,7 @@
         <v>34677.0</v>
       </c>
       <c r="B411" t="n">
-        <v>136.582723013091</v>
+        <v>137.07353256858602</v>
       </c>
     </row>
     <row r="412">
@@ -3365,7 +3365,7 @@
         <v>34678.0</v>
       </c>
       <c r="B412" t="n">
-        <v>163.5424512382147</v>
+        <v>163.77999555693916</v>
       </c>
     </row>
     <row r="413">
@@ -3373,7 +3373,7 @@
         <v>34681.0</v>
       </c>
       <c r="B413" t="n">
-        <v>159.40656508624795</v>
+        <v>159.697143050021</v>
       </c>
     </row>
     <row r="414">
@@ -3381,7 +3381,7 @@
         <v>34682.0</v>
       </c>
       <c r="B414" t="n">
-        <v>80.9186669599524</v>
+        <v>81.40483675542873</v>
       </c>
     </row>
     <row r="415">
@@ -3389,7 +3389,7 @@
         <v>34684.0</v>
       </c>
       <c r="B415" t="n">
-        <v>142.06222657926995</v>
+        <v>142.52434508769875</v>
       </c>
     </row>
     <row r="416">
@@ -3397,7 +3397,7 @@
         <v>34686.0</v>
       </c>
       <c r="B416" t="n">
-        <v>85.8705507335366</v>
+        <v>86.38343597559377</v>
       </c>
     </row>
     <row r="417">
@@ -3405,7 +3405,7 @@
         <v>34688.0</v>
       </c>
       <c r="B417" t="n">
-        <v>59.45750287947726</v>
+        <v>59.792726921932626</v>
       </c>
     </row>
     <row r="418">
@@ -3413,7 +3413,7 @@
         <v>34689.0</v>
       </c>
       <c r="B418" t="n">
-        <v>37.83317994898655</v>
+        <v>37.970779371843776</v>
       </c>
     </row>
     <row r="419">
@@ -3421,7 +3421,7 @@
         <v>34692.0</v>
       </c>
       <c r="B419" t="n">
-        <v>45.216873606892136</v>
+        <v>45.424649916612225</v>
       </c>
     </row>
     <row r="420">
@@ -3429,7 +3429,7 @@
         <v>34693.0</v>
       </c>
       <c r="B420" t="n">
-        <v>68.08198911630755</v>
+        <v>68.48592421113504</v>
       </c>
     </row>
     <row r="421">
@@ -3437,7 +3437,7 @@
         <v>34694.0</v>
       </c>
       <c r="B421" t="n">
-        <v>212.94583728235062</v>
+        <v>212.22621636795256</v>
       </c>
     </row>
     <row r="422">
@@ -3445,7 +3445,7 @@
         <v>34696.0</v>
       </c>
       <c r="B422" t="n">
-        <v>238.5867388173971</v>
+        <v>237.089322129878</v>
       </c>
     </row>
     <row r="423">
@@ -3453,7 +3453,7 @@
         <v>34699.0</v>
       </c>
       <c r="B423" t="n">
-        <v>187.69922149086426</v>
+        <v>187.57290945820202</v>
       </c>
     </row>
     <row r="424">
@@ -3461,7 +3461,7 @@
         <v>34700.0</v>
       </c>
       <c r="B424" t="n">
-        <v>60.0858007147857</v>
+        <v>60.4267849198959</v>
       </c>
     </row>
     <row r="425">
@@ -3469,7 +3469,7 @@
         <v>34703.0</v>
       </c>
       <c r="B425" t="n">
-        <v>111.33951356179678</v>
+        <v>111.92432192462901</v>
       </c>
     </row>
     <row r="426">
@@ -3477,7 +3477,7 @@
         <v>34704.0</v>
       </c>
       <c r="B426" t="n">
-        <v>98.3718017385583</v>
+        <v>98.93867733923531</v>
       </c>
     </row>
     <row r="427">
@@ -3485,7 +3485,7 @@
         <v>34706.0</v>
       </c>
       <c r="B427" t="n">
-        <v>85.5396156442247</v>
+        <v>86.0565588982939</v>
       </c>
     </row>
     <row r="428">
@@ -3493,7 +3493,7 @@
         <v>34708.0</v>
       </c>
       <c r="B428" t="n">
-        <v>144.74265179849638</v>
+        <v>145.21000638126503</v>
       </c>
     </row>
     <row r="429">
@@ -3501,7 +3501,7 @@
         <v>34710.0</v>
       </c>
       <c r="B429" t="n">
-        <v>82.18821447629823</v>
+        <v>82.68795451637291</v>
       </c>
     </row>
     <row r="430">
@@ -3509,7 +3509,7 @@
         <v>34711.0</v>
       </c>
       <c r="B430" t="n">
-        <v>66.97692153690636</v>
+        <v>67.37435290532741</v>
       </c>
     </row>
     <row r="431">
@@ -3517,7 +3517,7 @@
         <v>34714.0</v>
       </c>
       <c r="B431" t="n">
-        <v>59.427533219760875</v>
+        <v>59.76324182573449</v>
       </c>
     </row>
     <row r="432">
@@ -3525,7 +3525,7 @@
         <v>34715.0</v>
       </c>
       <c r="B432" t="n">
-        <v>68.05486594155465</v>
+        <v>68.46078461945366</v>
       </c>
     </row>
     <row r="433">
@@ -3533,7 +3533,7 @@
         <v>34716.0</v>
       </c>
       <c r="B433" t="n">
-        <v>90.78935106894578</v>
+        <v>91.33389704073033</v>
       </c>
     </row>
     <row r="434">
@@ -3541,7 +3541,7 @@
         <v>34718.0</v>
       </c>
       <c r="B434" t="n">
-        <v>110.41557531093719</v>
+        <v>111.00883260818762</v>
       </c>
     </row>
     <row r="435">
@@ -3549,7 +3549,7 @@
         <v>34719.0</v>
       </c>
       <c r="B435" t="n">
-        <v>129.94247210575742</v>
+        <v>130.5044599208584</v>
       </c>
     </row>
     <row r="436">
@@ -3557,7 +3557,7 @@
         <v>34720.0</v>
       </c>
       <c r="B436" t="n">
-        <v>159.26159381887217</v>
+        <v>159.60661715047564</v>
       </c>
     </row>
     <row r="437">
@@ -3565,7 +3565,7 @@
         <v>34723.0</v>
       </c>
       <c r="B437" t="n">
-        <v>114.72356176695514</v>
+        <v>115.32015145597755</v>
       </c>
     </row>
     <row r="438">
@@ -3573,7 +3573,7 @@
         <v>34724.0</v>
       </c>
       <c r="B438" t="n">
-        <v>117.39567581404378</v>
+        <v>117.99187330678961</v>
       </c>
     </row>
     <row r="439">
@@ -3581,7 +3581,7 @@
         <v>34726.0</v>
       </c>
       <c r="B439" t="n">
-        <v>242.58509261124877</v>
+        <v>241.01596744494205</v>
       </c>
     </row>
     <row r="440">
@@ -3589,7 +3589,7 @@
         <v>34729.0</v>
       </c>
       <c r="B440" t="n">
-        <v>244.5569910951069</v>
+        <v>242.92687408445423</v>
       </c>
     </row>
     <row r="441">
@@ -3597,7 +3597,7 @@
         <v>34733.0</v>
       </c>
       <c r="B441" t="n">
-        <v>218.77391044317267</v>
+        <v>217.97072701839733</v>
       </c>
     </row>
     <row r="442">
@@ -3605,7 +3605,7 @@
         <v>34734.0</v>
       </c>
       <c r="B442" t="n">
-        <v>83.68943619011941</v>
+        <v>84.20371610554123</v>
       </c>
     </row>
     <row r="443">
@@ -3613,7 +3613,7 @@
         <v>34737.0</v>
       </c>
       <c r="B443" t="n">
-        <v>88.67156528586165</v>
+        <v>89.21246603028278</v>
       </c>
     </row>
     <row r="444">
@@ -3621,7 +3621,7 @@
         <v>34738.0</v>
       </c>
       <c r="B444" t="n">
-        <v>74.31605437357946</v>
+        <v>74.77069634291618</v>
       </c>
     </row>
     <row r="445">
@@ -3629,7 +3629,7 @@
         <v>34739.0</v>
       </c>
       <c r="B445" t="n">
-        <v>142.90248136854206</v>
+        <v>143.41511381324617</v>
       </c>
     </row>
     <row r="446">
@@ -3637,7 +3637,7 @@
         <v>34741.0</v>
       </c>
       <c r="B446" t="n">
-        <v>244.20217580855342</v>
+        <v>242.6048145112173</v>
       </c>
     </row>
     <row r="447">
@@ -3645,7 +3645,7 @@
         <v>34742.0</v>
       </c>
       <c r="B447" t="n">
-        <v>219.8740970684923</v>
+        <v>219.05807683458295</v>
       </c>
     </row>
     <row r="448">
@@ -3653,7 +3653,7 @@
         <v>34743.0</v>
       </c>
       <c r="B448" t="n">
-        <v>206.5102234580607</v>
+        <v>206.05324649595477</v>
       </c>
     </row>
     <row r="449">
@@ -3661,7 +3661,7 @@
         <v>34746.0</v>
       </c>
       <c r="B449" t="n">
-        <v>211.4700222139257</v>
+        <v>210.89019159474663</v>
       </c>
     </row>
     <row r="450">
@@ -3669,7 +3669,7 @@
         <v>34747.0</v>
       </c>
       <c r="B450" t="n">
-        <v>196.4682084177498</v>
+        <v>196.24689416101853</v>
       </c>
     </row>
     <row r="451">
@@ -3677,7 +3677,7 @@
         <v>34749.0</v>
       </c>
       <c r="B451" t="n">
-        <v>166.71382820919922</v>
+        <v>167.00512454227362</v>
       </c>
     </row>
     <row r="452">
@@ -3685,7 +3685,7 @@
         <v>34751.0</v>
       </c>
       <c r="B452" t="n">
-        <v>222.34382615375128</v>
+        <v>221.47927906955556</v>
       </c>
     </row>
     <row r="453">
@@ -3693,7 +3693,7 @@
         <v>34754.0</v>
       </c>
       <c r="B453" t="n">
-        <v>145.67663021237107</v>
+        <v>146.18402822322224</v>
       </c>
     </row>
     <row r="454">
@@ -3701,7 +3701,7 @@
         <v>34755.0</v>
       </c>
       <c r="B454" t="n">
-        <v>93.68256601558447</v>
+        <v>94.25242868419711</v>
       </c>
     </row>
     <row r="455">
@@ -3709,7 +3709,7 @@
         <v>34758.0</v>
       </c>
       <c r="B455" t="n">
-        <v>181.2360635229079</v>
+        <v>181.32279581534962</v>
       </c>
     </row>
     <row r="456">
@@ -3717,7 +3717,7 @@
         <v>34759.0</v>
       </c>
       <c r="B456" t="n">
-        <v>125.96724495770265</v>
+        <v>126.57314102572553</v>
       </c>
     </row>
     <row r="457">
@@ -3725,7 +3725,7 @@
         <v>34760.0</v>
       </c>
       <c r="B457" t="n">
-        <v>66.8868496738047</v>
+        <v>67.2866769969875</v>
       </c>
     </row>
     <row r="458">
@@ -3733,7 +3733,7 @@
         <v>34762.0</v>
       </c>
       <c r="B458" t="n">
-        <v>78.79764655804075</v>
+        <v>79.28661112617975</v>
       </c>
     </row>
     <row r="459">
@@ -3741,7 +3741,7 @@
         <v>34763.0</v>
       </c>
       <c r="B459" t="n">
-        <v>100.47912835030611</v>
+        <v>101.07609049427965</v>
       </c>
     </row>
     <row r="460">
@@ -3749,7 +3749,7 @@
         <v>34764.0</v>
       </c>
       <c r="B460" t="n">
-        <v>57.39353975616744</v>
+        <v>57.71092509887518</v>
       </c>
     </row>
     <row r="461">
@@ -3757,7 +3757,7 @@
         <v>34767.0</v>
       </c>
       <c r="B461" t="n">
-        <v>67.97473108895583</v>
+        <v>68.38372868448846</v>
       </c>
     </row>
     <row r="462">
@@ -3765,7 +3765,7 @@
         <v>34768.0</v>
       </c>
       <c r="B462" t="n">
-        <v>113.9329891137422</v>
+        <v>114.55680208848159</v>
       </c>
     </row>
     <row r="463">
@@ -3773,7 +3773,7 @@
         <v>34770.0</v>
       </c>
       <c r="B463" t="n">
-        <v>58.24929681711431</v>
+        <v>58.57433290087184</v>
       </c>
     </row>
     <row r="464">
@@ -3781,7 +3781,7 @@
         <v>34772.0</v>
       </c>
       <c r="B464" t="n">
-        <v>45.52742083433836</v>
+        <v>45.73123292645355</v>
       </c>
     </row>
     <row r="465">
@@ -3789,7 +3789,7 @@
         <v>34774.0</v>
       </c>
       <c r="B465" t="n">
-        <v>57.92326804315882</v>
+        <v>58.245237986967375</v>
       </c>
     </row>
     <row r="466">
@@ -3797,7 +3797,7 @@
         <v>34775.0</v>
       </c>
       <c r="B466" t="n">
-        <v>53.901267173598</v>
+        <v>54.185667886918736</v>
       </c>
     </row>
     <row r="467">
@@ -3805,7 +3805,7 @@
         <v>34778.0</v>
       </c>
       <c r="B467" t="n">
-        <v>42.247058918972954</v>
+        <v>42.41785469312652</v>
       </c>
     </row>
     <row r="468">
@@ -3813,7 +3813,7 @@
         <v>34779.0</v>
       </c>
       <c r="B468" t="n">
-        <v>37.317518588416746</v>
+        <v>37.4391326433618</v>
       </c>
     </row>
     <row r="469">
@@ -3821,7 +3821,7 @@
         <v>34780.0</v>
       </c>
       <c r="B469" t="n">
-        <v>36.92256094855164</v>
+        <v>37.03994608756554</v>
       </c>
     </row>
     <row r="470">
@@ -3829,7 +3829,7 @@
         <v>34782.0</v>
       </c>
       <c r="B470" t="n">
-        <v>60.87149042342725</v>
+        <v>61.21995409379185</v>
       </c>
     </row>
     <row r="471">
@@ -3837,7 +3837,7 @@
         <v>34783.0</v>
       </c>
       <c r="B471" t="n">
-        <v>59.03202394619661</v>
+        <v>59.36383308122951</v>
       </c>
     </row>
     <row r="472">
@@ -3845,7 +3845,7 @@
         <v>34784.0</v>
       </c>
       <c r="B472" t="n">
-        <v>46.22421131546819</v>
+        <v>46.43344944911705</v>
       </c>
     </row>
     <row r="473">
@@ -3853,7 +3853,7 @@
         <v>34787.0</v>
       </c>
       <c r="B473" t="n">
-        <v>48.334369003510744</v>
+        <v>48.56426842330859</v>
       </c>
     </row>
     <row r="474">
@@ -3861,7 +3861,7 @@
         <v>34788.0</v>
       </c>
       <c r="B474" t="n">
-        <v>58.90318461074583</v>
+        <v>59.23361293445017</v>
       </c>
     </row>
     <row r="475">
@@ -3869,7 +3869,7 @@
         <v>34790.0</v>
       </c>
       <c r="B475" t="n">
-        <v>36.95343693207889</v>
+        <v>37.06959522028187</v>
       </c>
     </row>
     <row r="476">
@@ -3877,7 +3877,7 @@
         <v>34792.0</v>
       </c>
       <c r="B476" t="n">
-        <v>29.202039664210695</v>
+        <v>29.241264987278083</v>
       </c>
     </row>
     <row r="477">
@@ -3885,7 +3885,7 @@
         <v>34794.0</v>
       </c>
       <c r="B477" t="n">
-        <v>27.402790125452555</v>
+        <v>27.424448421508473</v>
       </c>
     </row>
     <row r="478">
@@ -3893,7 +3893,7 @@
         <v>34795.0</v>
       </c>
       <c r="B478" t="n">
-        <v>23.054670015946126</v>
+        <v>23.034755079745647</v>
       </c>
     </row>
     <row r="479">
@@ -3901,7 +3901,7 @@
         <v>34798.0</v>
       </c>
       <c r="B479" t="n">
-        <v>22.672275104415046</v>
+        <v>22.648645172332635</v>
       </c>
     </row>
     <row r="480">
@@ -3909,7 +3909,7 @@
         <v>34799.0</v>
       </c>
       <c r="B480" t="n">
-        <v>21.79533200916056</v>
+        <v>21.763484147599264</v>
       </c>
     </row>
     <row r="481">
@@ -3917,7 +3917,7 @@
         <v>34800.0</v>
       </c>
       <c r="B481" t="n">
-        <v>19.616820413084472</v>
+        <v>19.565024293308767</v>
       </c>
     </row>
     <row r="482">
@@ -3925,7 +3925,7 @@
         <v>34802.0</v>
       </c>
       <c r="B482" t="n">
-        <v>19.402530633054273</v>
+        <v>19.34864879146523</v>
       </c>
     </row>
     <row r="483">
@@ -3933,7 +3933,7 @@
         <v>34803.0</v>
       </c>
       <c r="B483" t="n">
-        <v>19.257272758465326</v>
+        <v>19.201918053256044</v>
       </c>
     </row>
     <row r="484">
@@ -3941,7 +3941,7 @@
         <v>34804.0</v>
       </c>
       <c r="B484" t="n">
-        <v>19.507043775363275</v>
+        <v>19.453310489585554</v>
       </c>
     </row>
     <row r="485">
@@ -3949,7 +3949,7 @@
         <v>34807.0</v>
       </c>
       <c r="B485" t="n">
-        <v>19.506474113676695</v>
+        <v>19.452541317485668</v>
       </c>
     </row>
     <row r="486">
@@ -3957,7 +3957,7 @@
         <v>34808.0</v>
       </c>
       <c r="B486" t="n">
-        <v>19.10944649663849</v>
+        <v>19.05162643396148</v>
       </c>
     </row>
     <row r="487">
@@ -3965,7 +3965,7 @@
         <v>34810.0</v>
       </c>
       <c r="B487" t="n">
-        <v>29.832639742147</v>
+        <v>29.874736323182784</v>
       </c>
     </row>
     <row r="488">
@@ -3973,7 +3973,7 @@
         <v>34812.0</v>
       </c>
       <c r="B488" t="n">
-        <v>25.33125915936229</v>
+        <v>25.329577226471784</v>
       </c>
     </row>
     <row r="489">
@@ -3981,7 +3981,7 @@
         <v>34814.0</v>
       </c>
       <c r="B489" t="n">
-        <v>21.527903152150127</v>
+        <v>21.490713075205644</v>
       </c>
     </row>
     <row r="490">
@@ -3989,7 +3989,7 @@
         <v>34815.0</v>
       </c>
       <c r="B490" t="n">
-        <v>17.445037024046947</v>
+        <v>17.371219417378676</v>
       </c>
     </row>
     <row r="491">
@@ -3997,7 +3997,7 @@
         <v>34818.0</v>
       </c>
       <c r="B491" t="n">
-        <v>16.911620067392516</v>
+        <v>16.833068065207414</v>
       </c>
     </row>
     <row r="492">
@@ -4005,7 +4005,7 @@
         <v>34819.0</v>
       </c>
       <c r="B492" t="n">
-        <v>16.513970896513353</v>
+        <v>16.43186766485999</v>
       </c>
     </row>
     <row r="493">
@@ -4013,7 +4013,7 @@
         <v>34820.0</v>
       </c>
       <c r="B493" t="n">
-        <v>14.946362414939081</v>
+        <v>14.850894340602167</v>
       </c>
     </row>
     <row r="494">
@@ -4021,7 +4021,7 @@
         <v>34822.0</v>
       </c>
       <c r="B494" t="n">
-        <v>14.232412080058207</v>
+        <v>14.130978910897829</v>
       </c>
     </row>
     <row r="495">
@@ -4029,7 +4029,7 @@
         <v>34823.0</v>
       </c>
       <c r="B495" t="n">
-        <v>13.772165302895445</v>
+        <v>13.666865618101868</v>
       </c>
     </row>
     <row r="496">
@@ -4037,7 +4037,7 @@
         <v>34824.0</v>
       </c>
       <c r="B496" t="n">
-        <v>14.045966483865108</v>
+        <v>13.942252356507263</v>
       </c>
     </row>
     <row r="497">
@@ -4045,7 +4045,7 @@
         <v>34827.0</v>
       </c>
       <c r="B497" t="n">
-        <v>13.932283321203391</v>
+        <v>13.82746541865356</v>
       </c>
     </row>
     <row r="498">
@@ -4053,7 +4053,7 @@
         <v>34828.0</v>
       </c>
       <c r="B498" t="n">
-        <v>13.839408248762563</v>
+        <v>13.733455305750365</v>
       </c>
     </row>
     <row r="499">
@@ -4061,7 +4061,7 @@
         <v>34830.0</v>
       </c>
       <c r="B499" t="n">
-        <v>13.479473773114044</v>
+        <v>13.370279302940945</v>
       </c>
     </row>
     <row r="500">
@@ -4069,7 +4069,7 @@
         <v>34832.0</v>
       </c>
       <c r="B500" t="n">
-        <v>13.457335524772088</v>
+        <v>13.347568294717268</v>
       </c>
     </row>
     <row r="501">
@@ -4077,7 +4077,7 @@
         <v>34834.0</v>
       </c>
       <c r="B501" t="n">
-        <v>13.857837892736354</v>
+        <v>13.751032524260035</v>
       </c>
     </row>
     <row r="502">
@@ -4085,7 +4085,7 @@
         <v>34835.0</v>
       </c>
       <c r="B502" t="n">
-        <v>15.052321522073512</v>
+        <v>14.954511349474602</v>
       </c>
     </row>
     <row r="503">
@@ -4093,7 +4093,7 @@
         <v>34838.0</v>
       </c>
       <c r="B503" t="n">
-        <v>15.023039008164066</v>
+        <v>14.924787163638985</v>
       </c>
     </row>
     <row r="504">
@@ -4101,7 +4101,7 @@
         <v>34839.0</v>
       </c>
       <c r="B504" t="n">
-        <v>14.2798517264834</v>
+        <v>14.175399702022752</v>
       </c>
     </row>
     <row r="505">
@@ -4109,7 +4109,7 @@
         <v>34840.0</v>
       </c>
       <c r="B505" t="n">
-        <v>13.691877810129805</v>
+        <v>13.58234771700285</v>
       </c>
     </row>
     <row r="506">
@@ -4117,7 +4117,7 @@
         <v>34842.0</v>
       </c>
       <c r="B506" t="n">
-        <v>13.938172123558326</v>
+        <v>13.83038779118614</v>
       </c>
     </row>
     <row r="507">
@@ -4125,7 +4125,7 @@
         <v>34843.0</v>
       </c>
       <c r="B507" t="n">
-        <v>17.742814594159373</v>
+        <v>17.666270928407368</v>
       </c>
     </row>
     <row r="508">
@@ -4133,7 +4133,7 @@
         <v>34844.0</v>
       </c>
       <c r="B508" t="n">
-        <v>17.06550359591627</v>
+        <v>16.98256389873061</v>
       </c>
     </row>
     <row r="509">
@@ -4141,7 +4141,7 @@
         <v>34847.0</v>
       </c>
       <c r="B509" t="n">
-        <v>20.698450951956527</v>
+        <v>20.647038033646087</v>
       </c>
     </row>
     <row r="510">
@@ -4149,7 +4149,7 @@
         <v>34848.0</v>
       </c>
       <c r="B510" t="n">
-        <v>17.486211608021073</v>
+        <v>17.40621984475583</v>
       </c>
     </row>
     <row r="511">
@@ -4157,7 +4157,7 @@
         <v>34850.0</v>
       </c>
       <c r="B511" t="n">
-        <v>14.764946609972116</v>
+        <v>14.661929497308837</v>
       </c>
     </row>
     <row r="512">
@@ -4165,7 +4165,7 @@
         <v>34852.0</v>
       </c>
       <c r="B512" t="n">
-        <v>13.861462201864065</v>
+        <v>13.7508117907507</v>
       </c>
     </row>
     <row r="513">
@@ -4173,7 +4173,7 @@
         <v>34854.0</v>
       </c>
       <c r="B513" t="n">
-        <v>15.77196959128387</v>
+        <v>15.676543283674231</v>
       </c>
     </row>
     <row r="514">
@@ -4181,7 +4181,7 @@
         <v>34855.0</v>
       </c>
       <c r="B514" t="n">
-        <v>13.493254869688064</v>
+        <v>13.378877894768221</v>
       </c>
     </row>
     <row r="515">
@@ -4189,7 +4189,7 @@
         <v>34858.0</v>
       </c>
       <c r="B515" t="n">
-        <v>12.891854706618414</v>
+        <v>12.772598510634756</v>
       </c>
     </row>
     <row r="516">
@@ -4197,7 +4197,7 @@
         <v>34859.0</v>
       </c>
       <c r="B516" t="n">
-        <v>12.530679802122153</v>
+        <v>12.408446045840588</v>
       </c>
     </row>
     <row r="517">
@@ -4205,7 +4205,7 @@
         <v>34860.0</v>
       </c>
       <c r="B517" t="n">
-        <v>12.633402039712562</v>
+        <v>12.511538558042448</v>
       </c>
     </row>
     <row r="518">
@@ -4213,7 +4213,7 @@
         <v>34862.0</v>
       </c>
       <c r="B518" t="n">
-        <v>12.480644924705453</v>
+        <v>12.357407482910219</v>
       </c>
     </row>
     <row r="519">
@@ -4221,7 +4221,7 @@
         <v>34863.0</v>
       </c>
       <c r="B519" t="n">
-        <v>12.2173545111594</v>
+        <v>12.091911064176664</v>
       </c>
     </row>
     <row r="520">
@@ -4229,7 +4229,7 @@
         <v>34864.0</v>
       </c>
       <c r="B520" t="n">
-        <v>11.733762299319629</v>
+        <v>11.604065042167505</v>
       </c>
     </row>
     <row r="521">
@@ -4237,7 +4237,7 @@
         <v>34867.0</v>
       </c>
       <c r="B521" t="n">
-        <v>11.703176253514924</v>
+        <v>11.57304334474247</v>
       </c>
     </row>
     <row r="522">
@@ -4245,7 +4245,7 @@
         <v>34868.0</v>
       </c>
       <c r="B522" t="n">
-        <v>11.451391617611291</v>
+        <v>11.318975419482614</v>
       </c>
     </row>
     <row r="523">
@@ -4253,7 +4253,7 @@
         <v>34870.0</v>
       </c>
       <c r="B523" t="n">
-        <v>13.408308899131406</v>
+        <v>13.290324438784983</v>
       </c>
     </row>
     <row r="524">
@@ -4261,7 +4261,7 @@
         <v>34872.0</v>
       </c>
       <c r="B524" t="n">
-        <v>11.354114174112222</v>
+        <v>11.220146470113477</v>
       </c>
     </row>
     <row r="525">
@@ -4269,7 +4269,7 @@
         <v>34874.0</v>
       </c>
       <c r="B525" t="n">
-        <v>11.195610531715905</v>
+        <v>11.060270498827622</v>
       </c>
     </row>
     <row r="526">
@@ -4277,7 +4277,7 @@
         <v>34875.0</v>
       </c>
       <c r="B526" t="n">
-        <v>10.57154183527691</v>
+        <v>10.431052314806792</v>
       </c>
     </row>
     <row r="527">
@@ -4285,7 +4285,7 @@
         <v>34878.0</v>
       </c>
       <c r="B527" t="n">
-        <v>10.10300167692224</v>
+        <v>9.958968358004316</v>
       </c>
     </row>
     <row r="528">
@@ -4293,7 +4293,7 @@
         <v>34879.0</v>
       </c>
       <c r="B528" t="n">
-        <v>10.098478485703197</v>
+        <v>9.954205336828648</v>
       </c>
     </row>
     <row r="529">
@@ -4301,7 +4301,7 @@
         <v>34880.0</v>
       </c>
       <c r="B529" t="n">
-        <v>10.118694148149366</v>
+        <v>9.974146953738366</v>
       </c>
     </row>
     <row r="530">
@@ -4309,7 +4309,7 @@
         <v>34882.0</v>
       </c>
       <c r="B530" t="n">
-        <v>10.047690174246476</v>
+        <v>9.902433574762647</v>
       </c>
     </row>
     <row r="531">
@@ -4317,7 +4317,7 @@
         <v>34883.0</v>
       </c>
       <c r="B531" t="n">
-        <v>10.027227270288284</v>
+        <v>9.881617671337963</v>
       </c>
     </row>
     <row r="532">
@@ -4325,7 +4325,7 @@
         <v>34884.0</v>
       </c>
       <c r="B532" t="n">
-        <v>9.871072712073433</v>
+        <v>9.723740079735997</v>
       </c>
     </row>
     <row r="533">
@@ -4333,7 +4333,7 @@
         <v>34887.0</v>
       </c>
       <c r="B533" t="n">
-        <v>9.805654952751267</v>
+        <v>9.657655979654521</v>
       </c>
     </row>
     <row r="534">
@@ -4341,7 +4341,7 @@
         <v>34888.0</v>
       </c>
       <c r="B534" t="n">
-        <v>10.557705193399784</v>
+        <v>10.414590406152842</v>
       </c>
     </row>
     <row r="535">
@@ -4349,7 +4349,7 @@
         <v>34890.0</v>
       </c>
       <c r="B535" t="n">
-        <v>10.02958866102643</v>
+        <v>9.882312316051953</v>
       </c>
     </row>
     <row r="536">
@@ -4357,7 +4357,7 @@
         <v>34892.0</v>
       </c>
       <c r="B536" t="n">
-        <v>11.498816087979094</v>
+        <v>11.361659563297255</v>
       </c>
     </row>
     <row r="537">
@@ -4365,7 +4365,7 @@
         <v>34894.0</v>
       </c>
       <c r="B537" t="n">
-        <v>11.096775405856345</v>
+        <v>10.956469715702248</v>
       </c>
     </row>
     <row r="538">
@@ -4373,7 +4373,7 @@
         <v>34895.0</v>
       </c>
       <c r="B538" t="n">
-        <v>10.859667714487566</v>
+        <v>10.717003247479598</v>
       </c>
     </row>
     <row r="539">
@@ -4381,7 +4381,7 @@
         <v>34898.0</v>
       </c>
       <c r="B539" t="n">
-        <v>12.392338440071493</v>
+        <v>12.260733728123151</v>
       </c>
     </row>
     <row r="540">
@@ -4389,7 +4389,7 @@
         <v>34899.0</v>
       </c>
       <c r="B540" t="n">
-        <v>11.73408970814818</v>
+        <v>11.597360545776297</v>
       </c>
     </row>
     <row r="541">
@@ -4397,7 +4397,7 @@
         <v>34900.0</v>
       </c>
       <c r="B541" t="n">
-        <v>10.41868292581602</v>
+        <v>10.272009216767016</v>
       </c>
     </row>
     <row r="542">
@@ -4405,7 +4405,7 @@
         <v>34902.0</v>
       </c>
       <c r="B542" t="n">
-        <v>10.163970122855634</v>
+        <v>10.015286036281333</v>
       </c>
     </row>
     <row r="543">
@@ -4413,7 +4413,7 @@
         <v>34903.0</v>
       </c>
       <c r="B543" t="n">
-        <v>9.944150948101333</v>
+        <v>9.793715576308523</v>
       </c>
     </row>
     <row r="544">
@@ -4421,7 +4421,7 @@
         <v>34904.0</v>
       </c>
       <c r="B544" t="n">
-        <v>9.390639250549123</v>
+        <v>9.235746154170124</v>
       </c>
     </row>
     <row r="545">
@@ -4429,7 +4429,7 @@
         <v>34907.0</v>
       </c>
       <c r="B545" t="n">
-        <v>9.301466721700589</v>
+        <v>9.145752181482408</v>
       </c>
     </row>
     <row r="546">
@@ -4437,7 +4437,7 @@
         <v>34908.0</v>
       </c>
       <c r="B546" t="n">
-        <v>9.166059056642514</v>
+        <v>9.008997863317186</v>
       </c>
     </row>
     <row r="547">
@@ -4445,7 +4445,7 @@
         <v>34910.0</v>
       </c>
       <c r="B547" t="n">
-        <v>9.355118921777095</v>
+        <v>9.198907005339978</v>
       </c>
     </row>
     <row r="548">
@@ -4453,7 +4453,7 @@
         <v>34912.0</v>
       </c>
       <c r="B548" t="n">
-        <v>8.911170239238212</v>
+        <v>8.751536909838473</v>
       </c>
     </row>
     <row r="549">
@@ -4461,7 +4461,7 @@
         <v>34914.0</v>
       </c>
       <c r="B549" t="n">
-        <v>8.662881043493924</v>
+        <v>8.501383151137416</v>
       </c>
     </row>
     <row r="550">
@@ -4469,7 +4469,7 @@
         <v>34915.0</v>
       </c>
       <c r="B550" t="n">
-        <v>8.76715262101153</v>
+        <v>8.605698036157623</v>
       </c>
     </row>
     <row r="551">
@@ -4477,7 +4477,7 @@
         <v>34918.0</v>
       </c>
       <c r="B551" t="n">
-        <v>8.8316627365709</v>
+        <v>8.670419576217181</v>
       </c>
     </row>
     <row r="552">
@@ -4485,7 +4485,7 @@
         <v>34919.0</v>
       </c>
       <c r="B552" t="n">
-        <v>8.756338809373489</v>
+        <v>8.594379550084433</v>
       </c>
     </row>
     <row r="553">
@@ -4493,7 +4493,7 @@
         <v>34920.0</v>
       </c>
       <c r="B553" t="n">
-        <v>8.472605229119702</v>
+        <v>8.308346210000009</v>
       </c>
     </row>
     <row r="554">
@@ -4501,7 +4501,7 @@
         <v>34922.0</v>
       </c>
       <c r="B554" t="n">
-        <v>8.475955720383862</v>
+        <v>8.311501910359564</v>
       </c>
     </row>
     <row r="555">
@@ -4509,7 +4509,7 @@
         <v>34923.0</v>
       </c>
       <c r="B555" t="n">
-        <v>8.667186005922105</v>
+        <v>8.503769109433602</v>
       </c>
     </row>
     <row r="556">
@@ -4517,7 +4517,7 @@
         <v>34924.0</v>
       </c>
       <c r="B556" t="n">
-        <v>8.424702351658848</v>
+        <v>8.259044663764843</v>
       </c>
     </row>
     <row r="557">
@@ -4525,7 +4525,7 @@
         <v>34927.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8.284125041358463</v>
+        <v>8.117337277309232</v>
       </c>
     </row>
     <row r="558">
@@ -4533,7 +4533,7 @@
         <v>34928.0</v>
       </c>
       <c r="B558" t="n">
-        <v>8.487761210942738</v>
+        <v>8.321858650640737</v>
       </c>
     </row>
     <row r="559">
@@ -4541,7 +4541,7 @@
         <v>34930.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8.3510137883946</v>
+        <v>8.183784817965725</v>
       </c>
     </row>
     <row r="560">
@@ -4549,7 +4549,7 @@
         <v>34932.0</v>
       </c>
       <c r="B560" t="n">
-        <v>8.17533680939386</v>
+        <v>8.006536824901863</v>
       </c>
     </row>
     <row r="561">
@@ -4557,7 +4557,7 @@
         <v>34934.0</v>
       </c>
       <c r="B561" t="n">
-        <v>8.215351022385176</v>
+        <v>8.046588568572286</v>
       </c>
     </row>
     <row r="562">
@@ -4565,7 +4565,7 @@
         <v>34935.0</v>
       </c>
       <c r="B562" t="n">
-        <v>8.726573113404338</v>
+        <v>8.560464731989478</v>
       </c>
     </row>
     <row r="563">
@@ -4573,7 +4573,7 @@
         <v>34938.0</v>
       </c>
       <c r="B563" t="n">
-        <v>8.72473675418384</v>
+        <v>8.558393776318791</v>
       </c>
     </row>
     <row r="564">
@@ -4581,7 +4581,7 @@
         <v>34939.0</v>
       </c>
       <c r="B564" t="n">
-        <v>8.646953829712643</v>
+        <v>8.47987979885645</v>
       </c>
     </row>
     <row r="565">
@@ -4589,7 +4589,7 @@
         <v>34940.0</v>
       </c>
       <c r="B565" t="n">
-        <v>8.778361244894862</v>
+        <v>8.611699547315567</v>
       </c>
     </row>
     <row r="566">
@@ -4597,7 +4597,7 @@
         <v>34942.0</v>
       </c>
       <c r="B566" t="n">
-        <v>8.812941763658182</v>
+        <v>8.646282598368892</v>
       </c>
     </row>
     <row r="567">
@@ -4605,7 +4605,7 @@
         <v>34943.0</v>
       </c>
       <c r="B567" t="n">
-        <v>8.867725600494868</v>
+        <v>8.70120134071041</v>
       </c>
     </row>
     <row r="568">
@@ -4613,7 +4613,7 @@
         <v>34944.0</v>
       </c>
       <c r="B568" t="n">
-        <v>9.237801076479426</v>
+        <v>9.073045055761368</v>
       </c>
     </row>
     <row r="569">
@@ -4621,7 +4621,7 @@
         <v>34947.0</v>
       </c>
       <c r="B569" t="n">
-        <v>9.17961500499288</v>
+        <v>9.01424539067205</v>
       </c>
     </row>
     <row r="570">
@@ -4629,7 +4629,7 @@
         <v>34948.0</v>
       </c>
       <c r="B570" t="n">
-        <v>21.805983079887447</v>
+        <v>21.740941008936602</v>
       </c>
     </row>
     <row r="571">
@@ -4637,7 +4637,7 @@
         <v>34950.0</v>
       </c>
       <c r="B571" t="n">
-        <v>13.27850826417355</v>
+        <v>13.14140112809675</v>
       </c>
     </row>
     <row r="572">
@@ -4645,7 +4645,7 @@
         <v>34952.0</v>
       </c>
       <c r="B572" t="n">
-        <v>18.667305167404095</v>
+        <v>18.573450423162992</v>
       </c>
     </row>
     <row r="573">
@@ -4653,7 +4653,7 @@
         <v>34954.0</v>
       </c>
       <c r="B573" t="n">
-        <v>15.301010669403054</v>
+        <v>15.178934870970124</v>
       </c>
     </row>
     <row r="574">
@@ -4661,7 +4661,7 @@
         <v>34955.0</v>
       </c>
       <c r="B574" t="n">
-        <v>11.223365797282021</v>
+        <v>11.069720756800807</v>
       </c>
     </row>
     <row r="575">
@@ -4669,7 +4669,7 @@
         <v>34958.0</v>
       </c>
       <c r="B575" t="n">
-        <v>10.734329869900284</v>
+        <v>10.57700290234605</v>
       </c>
     </row>
     <row r="576">
@@ -4677,7 +4677,7 @@
         <v>34959.0</v>
       </c>
       <c r="B576" t="n">
-        <v>10.675330903249032</v>
+        <v>10.517356420263722</v>
       </c>
     </row>
     <row r="577">
@@ -4685,7 +4685,7 @@
         <v>34960.0</v>
       </c>
       <c r="B577" t="n">
-        <v>10.21941197852183</v>
+        <v>10.057816461966885</v>
       </c>
     </row>
     <row r="578">
@@ -4693,7 +4693,7 @@
         <v>34962.0</v>
       </c>
       <c r="B578" t="n">
-        <v>10.05184711962191</v>
+        <v>9.888872572140283</v>
       </c>
     </row>
     <row r="579">
@@ -4701,7 +4701,7 @@
         <v>34963.0</v>
       </c>
       <c r="B579" t="n">
-        <v>9.84699667687677</v>
+        <v>9.68239906657322</v>
       </c>
     </row>
     <row r="580">
@@ -4709,7 +4709,7 @@
         <v>34964.0</v>
       </c>
       <c r="B580" t="n">
-        <v>14.605152523779228</v>
+        <v>14.474596195804105</v>
       </c>
     </row>
     <row r="581">
@@ -4717,7 +4717,7 @@
         <v>34967.0</v>
       </c>
       <c r="B581" t="n">
-        <v>18.620722185047335</v>
+        <v>18.52289980489816</v>
       </c>
     </row>
     <row r="582">
@@ -4725,7 +4725,7 @@
         <v>34968.0</v>
       </c>
       <c r="B582" t="n">
-        <v>13.851076796869934</v>
+        <v>13.713932621738998</v>
       </c>
     </row>
     <row r="583">
@@ -4733,7 +4733,7 @@
         <v>34970.0</v>
       </c>
       <c r="B583" t="n">
-        <v>11.966936280503392</v>
+        <v>11.81525647972718</v>
       </c>
     </row>
     <row r="584">
@@ -4741,7 +4741,7 @@
         <v>34972.0</v>
       </c>
       <c r="B584" t="n">
-        <v>12.10439184449463</v>
+        <v>11.953219402206786</v>
       </c>
     </row>
     <row r="585">
@@ -4749,7 +4749,7 @@
         <v>34974.0</v>
       </c>
       <c r="B585" t="n">
-        <v>13.188051031935878</v>
+        <v>13.044634939532486</v>
       </c>
     </row>
     <row r="586">
@@ -4757,7 +4757,7 @@
         <v>34975.0</v>
       </c>
       <c r="B586" t="n">
-        <v>29.42622258366892</v>
+        <v>29.426729495078614</v>
       </c>
     </row>
     <row r="587">
@@ -4765,7 +4765,7 @@
         <v>34978.0</v>
       </c>
       <c r="B587" t="n">
-        <v>52.4893117627603</v>
+        <v>52.732605551864204</v>
       </c>
     </row>
     <row r="588">
@@ -4773,7 +4773,7 @@
         <v>34979.0</v>
       </c>
       <c r="B588" t="n">
-        <v>26.560669334958813</v>
+        <v>26.532461141558564</v>
       </c>
     </row>
     <row r="589">
@@ -4781,7 +4781,7 @@
         <v>34980.0</v>
       </c>
       <c r="B589" t="n">
-        <v>14.325453192037632</v>
+        <v>14.188943559930497</v>
       </c>
     </row>
     <row r="590">
@@ -4789,7 +4789,7 @@
         <v>34982.0</v>
       </c>
       <c r="B590" t="n">
-        <v>13.526508085652253</v>
+        <v>13.38363657582296</v>
       </c>
     </row>
     <row r="591">
@@ -4797,7 +4797,7 @@
         <v>34983.0</v>
       </c>
       <c r="B591" t="n">
-        <v>12.175532178698653</v>
+        <v>12.022405322428032</v>
       </c>
     </row>
     <row r="592">
@@ -4805,7 +4805,7 @@
         <v>34984.0</v>
       </c>
       <c r="B592" t="n">
-        <v>11.045786499293264</v>
+        <v>10.883882294555606</v>
       </c>
     </row>
     <row r="593">
@@ -4813,7 +4813,7 @@
         <v>34987.0</v>
       </c>
       <c r="B593" t="n">
-        <v>11.013474502510983</v>
+        <v>10.851098721342035</v>
       </c>
     </row>
     <row r="594">
@@ -4821,7 +4821,7 @@
         <v>34988.0</v>
       </c>
       <c r="B594" t="n">
-        <v>17.4980077507477</v>
+        <v>17.384939920700532</v>
       </c>
     </row>
     <row r="595">
@@ -4829,7 +4829,7 @@
         <v>34990.0</v>
       </c>
       <c r="B595" t="n">
-        <v>13.345786853110216</v>
+        <v>13.19927030297166</v>
       </c>
     </row>
     <row r="596">
@@ -4837,7 +4837,7 @@
         <v>34992.0</v>
       </c>
       <c r="B596" t="n">
-        <v>12.668790893838086</v>
+        <v>12.516746066322842</v>
       </c>
     </row>
     <row r="597">
@@ -4845,7 +4845,7 @@
         <v>34994.0</v>
       </c>
       <c r="B597" t="n">
-        <v>11.82752624800365</v>
+        <v>11.669142661681946</v>
       </c>
     </row>
     <row r="598">
@@ -4853,7 +4853,7 @@
         <v>34995.0</v>
       </c>
       <c r="B598" t="n">
-        <v>21.837356356479336</v>
+        <v>21.759919282953497</v>
       </c>
     </row>
     <row r="599">
@@ -4861,7 +4861,7 @@
         <v>34998.0</v>
       </c>
       <c r="B599" t="n">
-        <v>16.451456014028167</v>
+        <v>16.327384156245106</v>
       </c>
     </row>
     <row r="600">
@@ -4869,7 +4869,7 @@
         <v>34999.0</v>
       </c>
       <c r="B600" t="n">
-        <v>14.735064725059077</v>
+        <v>14.597083623023133</v>
       </c>
     </row>
     <row r="601">
@@ -4877,7 +4877,7 @@
         <v>35000.0</v>
       </c>
       <c r="B601" t="n">
-        <v>12.518653983467937</v>
+        <v>12.36347073345994</v>
       </c>
     </row>
     <row r="602">
@@ -4885,7 +4885,7 @@
         <v>35002.0</v>
       </c>
       <c r="B602" t="n">
-        <v>11.88714193425808</v>
+        <v>11.727157213403522</v>
       </c>
     </row>
     <row r="603">
@@ -4893,7 +4893,7 @@
         <v>35003.0</v>
       </c>
       <c r="B603" t="n">
-        <v>11.380631036982333</v>
+        <v>11.216816735047908</v>
       </c>
     </row>
     <row r="604">
@@ -4901,7 +4901,7 @@
         <v>35004.0</v>
       </c>
       <c r="B604" t="n">
-        <v>10.394707015506842</v>
+        <v>10.22336463398231</v>
       </c>
     </row>
     <row r="605">
@@ -4909,7 +4909,7 @@
         <v>35007.0</v>
       </c>
       <c r="B605" t="n">
-        <v>10.238641757047924</v>
+        <v>10.066000260924058</v>
       </c>
     </row>
     <row r="606">
@@ -4917,7 +4917,7 @@
         <v>35008.0</v>
       </c>
       <c r="B606" t="n">
-        <v>9.95226244933708</v>
+        <v>9.777214237303964</v>
       </c>
     </row>
     <row r="607">
@@ -4925,7 +4925,7 @@
         <v>35010.0</v>
       </c>
       <c r="B607" t="n">
-        <v>10.153759668671123</v>
+        <v>9.979546222218396</v>
       </c>
     </row>
     <row r="608">
@@ -4933,7 +4933,7 @@
         <v>35012.0</v>
       </c>
       <c r="B608" t="n">
-        <v>12.774737211339957</v>
+        <v>12.618311447935966</v>
       </c>
     </row>
     <row r="609">
@@ -4941,7 +4941,7 @@
         <v>35014.0</v>
       </c>
       <c r="B609" t="n">
-        <v>55.4673984469873</v>
+        <v>55.73493069090115</v>
       </c>
     </row>
     <row r="610">
@@ -4949,7 +4949,7 @@
         <v>35015.0</v>
       </c>
       <c r="B610" t="n">
-        <v>17.56188891291953</v>
+        <v>17.441784542618148</v>
       </c>
     </row>
     <row r="611">
@@ -4957,7 +4957,7 @@
         <v>35018.0</v>
       </c>
       <c r="B611" t="n">
-        <v>74.3059903337795</v>
+        <v>74.76551234340994</v>
       </c>
     </row>
     <row r="612">
@@ -4965,7 +4965,7 @@
         <v>35019.0</v>
       </c>
       <c r="B612" t="n">
-        <v>62.97008922496354</v>
+        <v>63.31610040567006</v>
       </c>
     </row>
     <row r="613">
@@ -4973,7 +4973,7 @@
         <v>35020.0</v>
       </c>
       <c r="B613" t="n">
-        <v>20.891039647515445</v>
+        <v>20.798414308988004</v>
       </c>
     </row>
     <row r="614">
@@ -4981,7 +4981,7 @@
         <v>35022.0</v>
       </c>
       <c r="B614" t="n">
-        <v>18.2089252046694</v>
+        <v>18.092834637838344</v>
       </c>
     </row>
     <row r="615">
@@ -4989,7 +4989,7 @@
         <v>35023.0</v>
       </c>
       <c r="B615" t="n">
-        <v>17.164653350938668</v>
+        <v>17.039611125397943</v>
       </c>
     </row>
     <row r="616">
@@ -4997,7 +4997,7 @@
         <v>35024.0</v>
       </c>
       <c r="B616" t="n">
-        <v>33.694282017461894</v>
+        <v>33.724572983057605</v>
       </c>
     </row>
     <row r="617">
@@ -5005,7 +5005,7 @@
         <v>35027.0</v>
       </c>
       <c r="B617" t="n">
-        <v>87.43774268988422</v>
+        <v>88.01279854477275</v>
       </c>
     </row>
     <row r="618">
@@ -5013,7 +5013,7 @@
         <v>35028.0</v>
       </c>
       <c r="B618" t="n">
-        <v>30.35148231155589</v>
+        <v>30.34668616869704</v>
       </c>
     </row>
     <row r="619">
@@ -5021,7 +5021,7 @@
         <v>35030.0</v>
       </c>
       <c r="B619" t="n">
-        <v>21.89302034609026</v>
+        <v>21.806489122188125</v>
       </c>
     </row>
     <row r="620">
@@ -5029,7 +5029,7 @@
         <v>35032.0</v>
       </c>
       <c r="B620" t="n">
-        <v>18.729010666048843</v>
+        <v>18.614204690095313</v>
       </c>
     </row>
     <row r="621">
@@ -5037,7 +5037,7 @@
         <v>35034.0</v>
       </c>
       <c r="B621" t="n">
-        <v>17.17972762443465</v>
+        <v>17.051730990154617</v>
       </c>
     </row>
     <row r="622">
@@ -5045,7 +5045,7 @@
         <v>35035.0</v>
       </c>
       <c r="B622" t="n">
-        <v>32.834618344606035</v>
+        <v>32.85279134081171</v>
       </c>
     </row>
     <row r="623">
@@ -5053,7 +5053,7 @@
         <v>35038.0</v>
       </c>
       <c r="B623" t="n">
-        <v>25.627822949032</v>
+        <v>25.57393205605401</v>
       </c>
     </row>
     <row r="624">
@@ -5061,7 +5061,7 @@
         <v>35039.0</v>
       </c>
       <c r="B624" t="n">
-        <v>26.792961413053074</v>
+        <v>26.74998231109244</v>
       </c>
     </row>
     <row r="625">
@@ -5069,7 +5069,7 @@
         <v>35040.0</v>
       </c>
       <c r="B625" t="n">
-        <v>21.42327102105967</v>
+        <v>21.32960705092774</v>
       </c>
     </row>
     <row r="626">
@@ -5077,7 +5077,7 @@
         <v>35042.0</v>
       </c>
       <c r="B626" t="n">
-        <v>23.75508525096924</v>
+        <v>23.682367583072505</v>
       </c>
     </row>
     <row r="627">
@@ -5085,7 +5085,7 @@
         <v>35043.0</v>
       </c>
       <c r="B627" t="n">
-        <v>32.936280761355654</v>
+        <v>32.9537131855116</v>
       </c>
     </row>
     <row r="628">
@@ -5093,7 +5093,7 @@
         <v>35044.0</v>
       </c>
       <c r="B628" t="n">
-        <v>19.57928720565756</v>
+        <v>19.467988892772578</v>
       </c>
     </row>
     <row r="629">
@@ -5101,7 +5101,7 @@
         <v>35047.0</v>
       </c>
       <c r="B629" t="n">
-        <v>19.121347949612474</v>
+        <v>19.00583669056298</v>
       </c>
     </row>
     <row r="630">
@@ -5109,7 +5109,7 @@
         <v>35048.0</v>
       </c>
       <c r="B630" t="n">
-        <v>18.469334701095306</v>
+        <v>18.3477262123074</v>
       </c>
     </row>
     <row r="631">
@@ -5117,7 +5117,7 @@
         <v>35050.0</v>
       </c>
       <c r="B631" t="n">
-        <v>16.571500566240946</v>
+        <v>16.43373726426421</v>
       </c>
     </row>
     <row r="632">
@@ -5125,7 +5125,7 @@
         <v>35052.0</v>
       </c>
       <c r="B632" t="n">
-        <v>15.709197208369215</v>
+        <v>15.564028984436023</v>
       </c>
     </row>
     <row r="633">
@@ -5133,7 +5133,7 @@
         <v>35054.0</v>
       </c>
       <c r="B633" t="n">
-        <v>32.44275014735052</v>
+        <v>32.4517624794464</v>
       </c>
     </row>
     <row r="634">
@@ -5141,7 +5141,7 @@
         <v>35055.0</v>
       </c>
       <c r="B634" t="n">
-        <v>34.862007564987685</v>
+        <v>34.89524145744637</v>
       </c>
     </row>
     <row r="635">
@@ -5149,7 +5149,7 @@
         <v>35058.0</v>
       </c>
       <c r="B635" t="n">
-        <v>24.252010437958322</v>
+        <v>24.179098672278315</v>
       </c>
     </row>
     <row r="636">
@@ -5157,7 +5157,7 @@
         <v>35059.0</v>
       </c>
       <c r="B636" t="n">
-        <v>19.55518989997042</v>
+        <v>19.439846736229104</v>
       </c>
     </row>
     <row r="637">
@@ -5165,7 +5165,7 @@
         <v>35060.0</v>
       </c>
       <c r="B637" t="n">
-        <v>17.036291508772877</v>
+        <v>16.899368910948205</v>
       </c>
     </row>
     <row r="638">
@@ -5173,7 +5173,7 @@
         <v>35062.0</v>
       </c>
       <c r="B638" t="n">
-        <v>16.43962115306664</v>
+        <v>16.297620866990457</v>
       </c>
     </row>
     <row r="639">
@@ -5181,7 +5181,7 @@
         <v>35063.0</v>
       </c>
       <c r="B639" t="n">
-        <v>17.979402005193325</v>
+        <v>17.84960068647516</v>
       </c>
     </row>
     <row r="640">
@@ -5189,7 +5189,7 @@
         <v>35064.0</v>
       </c>
       <c r="B640" t="n">
-        <v>21.853046838536486</v>
+        <v>21.7557363437956</v>
       </c>
     </row>
     <row r="641">
@@ -5197,7 +5197,7 @@
         <v>35067.0</v>
       </c>
       <c r="B641" t="n">
-        <v>28.307628776680875</v>
+        <v>28.270901644194144</v>
       </c>
     </row>
     <row r="642">
@@ -5205,7 +5205,7 @@
         <v>35068.0</v>
       </c>
       <c r="B642" t="n">
-        <v>66.35652877808964</v>
+        <v>66.72857350645033</v>
       </c>
     </row>
     <row r="643">
@@ -5213,7 +5213,7 @@
         <v>35070.0</v>
       </c>
       <c r="B643" t="n">
-        <v>114.47389551707988</v>
+        <v>115.22259972735233</v>
       </c>
     </row>
     <row r="644">
@@ -5221,7 +5221,7 @@
         <v>35072.0</v>
       </c>
       <c r="B644" t="n">
-        <v>82.58328062164908</v>
+        <v>83.11488736054531</v>
       </c>
     </row>
     <row r="645">
@@ -5229,7 +5229,7 @@
         <v>35074.0</v>
       </c>
       <c r="B645" t="n">
-        <v>54.50464293259132</v>
+        <v>54.747249940109285</v>
       </c>
     </row>
     <row r="646">
@@ -5237,7 +5237,7 @@
         <v>35075.0</v>
       </c>
       <c r="B646" t="n">
-        <v>101.81142584503358</v>
+        <v>102.49385019562932</v>
       </c>
     </row>
     <row r="647">
@@ -5245,7 +5245,7 @@
         <v>35078.0</v>
       </c>
       <c r="B647" t="n">
-        <v>57.19306768637945</v>
+        <v>57.464254719884295</v>
       </c>
     </row>
     <row r="648">
@@ -5253,7 +5253,7 @@
         <v>35079.0</v>
       </c>
       <c r="B648" t="n">
-        <v>42.59346855110464</v>
+        <v>42.70300255187212</v>
       </c>
     </row>
     <row r="649">
@@ -5261,7 +5261,7 @@
         <v>35080.0</v>
       </c>
       <c r="B649" t="n">
-        <v>29.934118226146353</v>
+        <v>29.90914282295614</v>
       </c>
     </row>
     <row r="650">
@@ -5269,7 +5269,7 @@
         <v>35082.0</v>
       </c>
       <c r="B650" t="n">
-        <v>26.844917326732077</v>
+        <v>26.78915450420453</v>
       </c>
     </row>
     <row r="651">
@@ -5277,7 +5277,7 @@
         <v>35083.0</v>
       </c>
       <c r="B651" t="n">
-        <v>25.628229806605475</v>
+        <v>25.560480973234416</v>
       </c>
     </row>
     <row r="652">
@@ -5285,7 +5285,7 @@
         <v>35084.0</v>
       </c>
       <c r="B652" t="n">
-        <v>22.629067564108144</v>
+        <v>22.532526369932118</v>
       </c>
     </row>
     <row r="653">
@@ -5293,7 +5293,7 @@
         <v>35087.0</v>
       </c>
       <c r="B653" t="n">
-        <v>21.19593983680293</v>
+        <v>21.086289135250155</v>
       </c>
     </row>
     <row r="654">
@@ -5301,7 +5301,7 @@
         <v>35088.0</v>
       </c>
       <c r="B654" t="n">
-        <v>18.472418382202417</v>
+        <v>18.33884452488429</v>
       </c>
     </row>
     <row r="655">
@@ -5309,7 +5309,7 @@
         <v>35090.0</v>
       </c>
       <c r="B655" t="n">
-        <v>18.07281298437567</v>
+        <v>17.935324771258664</v>
       </c>
     </row>
     <row r="656">
@@ -5317,7 +5317,7 @@
         <v>35092.0</v>
       </c>
       <c r="B656" t="n">
-        <v>18.13142162287816</v>
+        <v>17.99379769355713</v>
       </c>
     </row>
     <row r="657">
@@ -5325,7 +5325,7 @@
         <v>35094.0</v>
       </c>
       <c r="B657" t="n">
-        <v>19.45474256975973</v>
+        <v>19.32785179340551</v>
       </c>
     </row>
     <row r="658">
@@ -5333,7 +5333,7 @@
         <v>35095.0</v>
       </c>
       <c r="B658" t="n">
-        <v>20.861867734515034</v>
+        <v>20.74613174734889</v>
       </c>
     </row>
     <row r="659">
@@ -5341,7 +5341,7 @@
         <v>35098.0</v>
       </c>
       <c r="B659" t="n">
-        <v>23.578443131060105</v>
+        <v>23.486717743036643</v>
       </c>
     </row>
     <row r="660">
@@ -5349,7 +5349,7 @@
         <v>35099.0</v>
       </c>
       <c r="B660" t="n">
-        <v>22.961758068711926</v>
+        <v>22.86407970458717</v>
       </c>
     </row>
     <row r="661">
@@ -5357,7 +5357,7 @@
         <v>35100.0</v>
       </c>
       <c r="B661" t="n">
-        <v>18.78879471440912</v>
+        <v>18.654114849756596</v>
       </c>
     </row>
     <row r="662">
@@ -5365,7 +5365,7 @@
         <v>35102.0</v>
       </c>
       <c r="B662" t="n">
-        <v>17.468247373870305</v>
+        <v>17.322437089093942</v>
       </c>
     </row>
     <row r="663">
@@ -5373,7 +5373,7 @@
         <v>35103.0</v>
       </c>
       <c r="B663" t="n">
-        <v>19.98449938167714</v>
+        <v>19.859277143614232</v>
       </c>
     </row>
     <row r="664">
@@ -5381,7 +5381,7 @@
         <v>35104.0</v>
       </c>
       <c r="B664" t="n">
-        <v>219.25465837793158</v>
+        <v>219.12034432180909</v>
       </c>
     </row>
     <row r="665">
@@ -5389,7 +5389,7 @@
         <v>35107.0</v>
       </c>
       <c r="B665" t="n">
-        <v>227.45084887828654</v>
+        <v>227.107495310302</v>
       </c>
     </row>
     <row r="666">
@@ -5397,7 +5397,7 @@
         <v>35108.0</v>
       </c>
       <c r="B666" t="n">
-        <v>117.74983890727452</v>
+        <v>118.52130917846732</v>
       </c>
     </row>
     <row r="667">
@@ -5405,7 +5405,7 @@
         <v>35110.0</v>
       </c>
       <c r="B667" t="n">
-        <v>131.88968381505052</v>
+        <v>132.69754152574282</v>
       </c>
     </row>
     <row r="668">
@@ -5413,7 +5413,7 @@
         <v>35112.0</v>
       </c>
       <c r="B668" t="n">
-        <v>114.12176774309921</v>
+        <v>114.87843934969275</v>
       </c>
     </row>
     <row r="669">
@@ -5421,7 +5421,7 @@
         <v>35114.0</v>
       </c>
       <c r="B669" t="n">
-        <v>66.0319688204249</v>
+        <v>66.39078637227223</v>
       </c>
     </row>
     <row r="670">
@@ -5429,7 +5429,7 @@
         <v>35115.0</v>
       </c>
       <c r="B670" t="n">
-        <v>62.195295665304776</v>
+        <v>62.511486620336306</v>
       </c>
     </row>
     <row r="671">
@@ -5437,7 +5437,7 @@
         <v>35118.0</v>
       </c>
       <c r="B671" t="n">
-        <v>90.73331854715556</v>
+        <v>91.33363009331198</v>
       </c>
     </row>
     <row r="672">
@@ -5445,7 +5445,7 @@
         <v>35119.0</v>
       </c>
       <c r="B672" t="n">
-        <v>106.25995768425636</v>
+        <v>106.97477789507379</v>
       </c>
     </row>
     <row r="673">
@@ -5453,7 +5453,7 @@
         <v>35120.0</v>
       </c>
       <c r="B673" t="n">
-        <v>54.809914376128724</v>
+        <v>55.04271150004078</v>
       </c>
     </row>
     <row r="674">
@@ -5461,7 +5461,7 @@
         <v>35122.0</v>
       </c>
       <c r="B674" t="n">
-        <v>46.16709399130035</v>
+        <v>46.30254023042532</v>
       </c>
     </row>
     <row r="675">
@@ -5469,7 +5469,7 @@
         <v>35123.0</v>
       </c>
       <c r="B675" t="n">
-        <v>40.52503876371578</v>
+        <v>40.59771227985937</v>
       </c>
     </row>
     <row r="676">
@@ -5477,7 +5477,7 @@
         <v>35124.0</v>
       </c>
       <c r="B676" t="n">
-        <v>45.36090148617641</v>
+        <v>45.486032987082716</v>
       </c>
     </row>
     <row r="677">
@@ -5485,7 +5485,7 @@
         <v>35127.0</v>
       </c>
       <c r="B677" t="n">
-        <v>48.388395415651416</v>
+        <v>48.5470985588751</v>
       </c>
     </row>
     <row r="678">
@@ -5493,7 +5493,7 @@
         <v>35128.0</v>
       </c>
       <c r="B678" t="n">
-        <v>33.437765262776374</v>
+        <v>33.43257978117885</v>
       </c>
     </row>
     <row r="679">
@@ -5501,7 +5501,7 @@
         <v>35130.0</v>
       </c>
       <c r="B679" t="n">
-        <v>28.70826071438966</v>
+        <v>28.654388739785055</v>
       </c>
     </row>
     <row r="680">
@@ -5509,7 +5509,7 @@
         <v>35132.0</v>
       </c>
       <c r="B680" t="n">
-        <v>24.854631440967466</v>
+        <v>24.763062526912893</v>
       </c>
     </row>
     <row r="681">
@@ -5517,7 +5517,7 @@
         <v>35134.0</v>
       </c>
       <c r="B681" t="n">
-        <v>24.147911090764104</v>
+        <v>24.049453368783897</v>
       </c>
     </row>
     <row r="682">
@@ -5525,7 +5525,7 @@
         <v>35135.0</v>
       </c>
       <c r="B682" t="n">
-        <v>25.317201492397615</v>
+        <v>25.228583747026793</v>
       </c>
     </row>
     <row r="683">
@@ -5533,7 +5533,7 @@
         <v>35138.0</v>
       </c>
       <c r="B683" t="n">
-        <v>24.623031120569635</v>
+        <v>24.527591840177244</v>
       </c>
     </row>
     <row r="684">
@@ -5541,7 +5541,7 @@
         <v>35139.0</v>
       </c>
       <c r="B684" t="n">
-        <v>27.1605013707694</v>
+        <v>27.088738332890067</v>
       </c>
     </row>
     <row r="685">
@@ -5549,7 +5549,7 @@
         <v>35140.0</v>
       </c>
       <c r="B685" t="n">
-        <v>36.05407127323254</v>
+        <v>36.07221381916028</v>
       </c>
     </row>
     <row r="686">
@@ -5557,7 +5557,7 @@
         <v>35142.0</v>
       </c>
       <c r="B686" t="n">
-        <v>35.75345532830584</v>
+        <v>35.76804846378744</v>
       </c>
     </row>
     <row r="687">
@@ -5565,7 +5565,7 @@
         <v>35143.0</v>
       </c>
       <c r="B687" t="n">
-        <v>37.0573437485264</v>
+        <v>37.085497275143695</v>
       </c>
     </row>
     <row r="688">
@@ -5573,7 +5573,7 @@
         <v>35144.0</v>
       </c>
       <c r="B688" t="n">
-        <v>42.23392575108826</v>
+        <v>42.317477797355856</v>
       </c>
     </row>
     <row r="689">
@@ -5581,7 +5581,7 @@
         <v>35147.0</v>
       </c>
       <c r="B689" t="n">
-        <v>45.5490016956261</v>
+        <v>45.66913873511704</v>
       </c>
     </row>
     <row r="690">
@@ -5589,7 +5589,7 @@
         <v>35148.0</v>
       </c>
       <c r="B690" t="n">
-        <v>35.304029599298794</v>
+        <v>35.31136420299027</v>
       </c>
     </row>
     <row r="691">
@@ -5597,7 +5597,7 @@
         <v>35150.0</v>
       </c>
       <c r="B691" t="n">
-        <v>27.754690405586732</v>
+        <v>27.68445470748028</v>
       </c>
     </row>
     <row r="692">
@@ -5605,7 +5605,7 @@
         <v>35152.0</v>
       </c>
       <c r="B692" t="n">
-        <v>23.481477063460133</v>
+        <v>23.370367407833474</v>
       </c>
     </row>
     <row r="693">
@@ -5613,7 +5613,7 @@
         <v>35154.0</v>
       </c>
       <c r="B693" t="n">
-        <v>22.072979627556098</v>
+        <v>21.948937742492625</v>
       </c>
     </row>
     <row r="694">
@@ -5621,7 +5621,7 @@
         <v>35155.0</v>
       </c>
       <c r="B694" t="n">
-        <v>19.05999228831154</v>
+        <v>18.909252025265612</v>
       </c>
     </row>
     <row r="695">
@@ -5629,7 +5629,7 @@
         <v>35158.0</v>
       </c>
       <c r="B695" t="n">
-        <v>18.288744480651296</v>
+        <v>18.13139134349006</v>
       </c>
     </row>
     <row r="696">
@@ -5637,7 +5637,7 @@
         <v>35159.0</v>
       </c>
       <c r="B696" t="n">
-        <v>17.81604962679165</v>
+        <v>17.65457793693405</v>
       </c>
     </row>
     <row r="697">
@@ -5645,7 +5645,7 @@
         <v>35160.0</v>
       </c>
       <c r="B697" t="n">
-        <v>17.197404668578674</v>
+        <v>17.03038898691692</v>
       </c>
     </row>
     <row r="698">
@@ -5653,7 +5653,7 @@
         <v>35162.0</v>
       </c>
       <c r="B698" t="n">
-        <v>16.886355695802354</v>
+        <v>16.716589189011675</v>
       </c>
     </row>
     <row r="699">
@@ -5661,7 +5661,7 @@
         <v>35163.0</v>
       </c>
       <c r="B699" t="n">
-        <v>16.745699630181566</v>
+        <v>16.57451390979035</v>
       </c>
     </row>
     <row r="700">
@@ -5669,7 +5669,7 @@
         <v>35164.0</v>
       </c>
       <c r="B700" t="n">
-        <v>17.17167175515835</v>
+        <v>17.00277509768544</v>
       </c>
     </row>
     <row r="701">
@@ -5677,7 +5677,7 @@
         <v>35167.0</v>
       </c>
       <c r="B701" t="n">
-        <v>16.801790872679195</v>
+        <v>16.629695792258754</v>
       </c>
     </row>
     <row r="702">
@@ -5685,7 +5685,7 @@
         <v>35168.0</v>
       </c>
       <c r="B702" t="n">
-        <v>15.638977826469818</v>
+        <v>15.457429062993244</v>
       </c>
     </row>
     <row r="703">
@@ -5693,7 +5693,7 @@
         <v>35170.0</v>
       </c>
       <c r="B703" t="n">
-        <v>15.681075968487884</v>
+        <v>15.49917324414286</v>
       </c>
     </row>
     <row r="704">
@@ -5701,7 +5701,7 @@
         <v>35172.0</v>
       </c>
       <c r="B704" t="n">
-        <v>31.133335242179122</v>
+        <v>31.088655738458407</v>
       </c>
     </row>
     <row r="705">
@@ -5709,7 +5709,7 @@
         <v>35174.0</v>
       </c>
       <c r="B705" t="n">
-        <v>22.890110993870223</v>
+        <v>22.76625907898946</v>
       </c>
     </row>
     <row r="706">
@@ -5717,7 +5717,7 @@
         <v>35175.0</v>
       </c>
       <c r="B706" t="n">
-        <v>27.12239413535657</v>
+        <v>27.03663796461968</v>
       </c>
     </row>
     <row r="707">
@@ -5725,7 +5725,7 @@
         <v>35178.0</v>
       </c>
       <c r="B707" t="n">
-        <v>46.573201780892774</v>
+        <v>46.69389463440165</v>
       </c>
     </row>
     <row r="708">
@@ -5733,7 +5733,7 @@
         <v>35179.0</v>
       </c>
       <c r="B708" t="n">
-        <v>44.50863149439131</v>
+        <v>44.6056859907176</v>
       </c>
     </row>
     <row r="709">
@@ -5741,7 +5741,7 @@
         <v>35180.0</v>
       </c>
       <c r="B709" t="n">
-        <v>24.581933611844182</v>
+        <v>24.47085203128449</v>
       </c>
     </row>
     <row r="710">
@@ -5749,7 +5749,7 @@
         <v>35182.0</v>
       </c>
       <c r="B710" t="n">
-        <v>22.423361448734877</v>
+        <v>22.292501301380913</v>
       </c>
     </row>
     <row r="711">
@@ -5757,7 +5757,7 @@
         <v>35183.0</v>
       </c>
       <c r="B711" t="n">
-        <v>19.31489299771036</v>
+        <v>19.157253796497194</v>
       </c>
     </row>
     <row r="712">
@@ -5765,7 +5765,7 @@
         <v>35184.0</v>
       </c>
       <c r="B712" t="n">
-        <v>121.83529998504956</v>
+        <v>122.6409941408182</v>
       </c>
     </row>
     <row r="713">
@@ -5773,7 +5773,7 @@
         <v>35187.0</v>
       </c>
       <c r="B713" t="n">
-        <v>77.04820023428002</v>
+        <v>77.50769837184515</v>
       </c>
     </row>
     <row r="714">
@@ -5781,7 +5781,7 @@
         <v>35188.0</v>
       </c>
       <c r="B714" t="n">
-        <v>28.1458054846572</v>
+        <v>28.065464126324013</v>
       </c>
     </row>
     <row r="715">
@@ -5789,7 +5789,7 @@
         <v>35190.0</v>
       </c>
       <c r="B715" t="n">
-        <v>21.104421069865488</v>
+        <v>20.95888371262216</v>
       </c>
     </row>
     <row r="716">
@@ -5797,7 +5797,7 @@
         <v>35192.0</v>
       </c>
       <c r="B716" t="n">
-        <v>17.560646661167265</v>
+        <v>17.38549620908364</v>
       </c>
     </row>
     <row r="717">
@@ -5805,7 +5805,7 @@
         <v>35194.0</v>
       </c>
       <c r="B717" t="n">
-        <v>16.878471423082672</v>
+        <v>16.69772688392814</v>
       </c>
     </row>
     <row r="718">
@@ -5813,7 +5813,7 @@
         <v>35195.0</v>
       </c>
       <c r="B718" t="n">
-        <v>18.795927989969936</v>
+        <v>18.629121759391307</v>
       </c>
     </row>
     <row r="719">
@@ -5821,7 +5821,7 @@
         <v>35198.0</v>
       </c>
       <c r="B719" t="n">
-        <v>17.80302243458925</v>
+        <v>17.628000562243415</v>
       </c>
     </row>
     <row r="720">
@@ -5829,7 +5829,7 @@
         <v>35199.0</v>
       </c>
       <c r="B720" t="n">
-        <v>15.901109999278823</v>
+        <v>15.711316871147556</v>
       </c>
     </row>
     <row r="721">
@@ -5837,7 +5837,7 @@
         <v>35200.0</v>
       </c>
       <c r="B721" t="n">
-        <v>14.510381526219751</v>
+        <v>14.309917270302916</v>
       </c>
     </row>
     <row r="722">
@@ -5845,7 +5845,7 @@
         <v>35202.0</v>
       </c>
       <c r="B722" t="n">
-        <v>14.331783765394013</v>
+        <v>14.12973316660927</v>
       </c>
     </row>
     <row r="723">
@@ -5853,7 +5853,7 @@
         <v>35203.0</v>
       </c>
       <c r="B723" t="n">
-        <v>14.55176840910125</v>
+        <v>14.350910959756474</v>
       </c>
     </row>
     <row r="724">
@@ -5861,7 +5861,7 @@
         <v>35204.0</v>
       </c>
       <c r="B724" t="n">
-        <v>17.08396554138603</v>
+        <v>16.900572639554724</v>
       </c>
     </row>
     <row r="725">
@@ -5869,7 +5869,7 @@
         <v>35207.0</v>
       </c>
       <c r="B725" t="n">
-        <v>25.672935483549132</v>
+        <v>25.56223595088816</v>
       </c>
     </row>
     <row r="726">
@@ -5877,7 +5877,7 @@
         <v>35208.0</v>
       </c>
       <c r="B726" t="n">
-        <v>21.55183760987562</v>
+        <v>21.403530080008228</v>
       </c>
     </row>
     <row r="727">
@@ -5885,7 +5885,7 @@
         <v>35210.0</v>
       </c>
       <c r="B727" t="n">
-        <v>21.62086516990585</v>
+        <v>21.472405201900663</v>
       </c>
     </row>
     <row r="728">
@@ -5893,7 +5893,7 @@
         <v>35212.0</v>
       </c>
       <c r="B728" t="n">
-        <v>26.926602230955297</v>
+        <v>26.82538628098547</v>
       </c>
     </row>
     <row r="729">
@@ -5901,7 +5901,7 @@
         <v>35214.0</v>
       </c>
       <c r="B729" t="n">
-        <v>31.343296253589767</v>
+        <v>31.285059204536267</v>
       </c>
     </row>
     <row r="730">
@@ -5909,7 +5909,7 @@
         <v>35215.0</v>
       </c>
       <c r="B730" t="n">
-        <v>17.729472243991186</v>
+        <v>17.547090682553936</v>
       </c>
     </row>
     <row r="731">
@@ -5917,7 +5917,7 @@
         <v>35218.0</v>
       </c>
       <c r="B731" t="n">
-        <v>15.989496220661739</v>
+        <v>15.793693835068948</v>
       </c>
     </row>
     <row r="732">
@@ -5925,7 +5925,7 @@
         <v>35219.0</v>
       </c>
       <c r="B732" t="n">
-        <v>14.647679505551583</v>
+        <v>14.44196389649984</v>
       </c>
     </row>
     <row r="733">
@@ -5933,7 +5933,7 @@
         <v>35220.0</v>
       </c>
       <c r="B733" t="n">
-        <v>12.73205323710604</v>
+        <v>12.512824898360138</v>
       </c>
     </row>
     <row r="734">
@@ -5941,7 +5941,7 @@
         <v>35222.0</v>
       </c>
       <c r="B734" t="n">
-        <v>13.302599771960775</v>
+        <v>13.08674086268254</v>
       </c>
     </row>
     <row r="735">
@@ -5949,7 +5949,7 @@
         <v>35223.0</v>
       </c>
       <c r="B735" t="n">
-        <v>16.887088680640076</v>
+        <v>16.69613581248953</v>
       </c>
     </row>
     <row r="736">
@@ -5957,7 +5957,7 @@
         <v>35224.0</v>
       </c>
       <c r="B736" t="n">
-        <v>12.479497146036762</v>
+        <v>12.256953058884188</v>
       </c>
     </row>
     <row r="737">
@@ -5965,7 +5965,7 @@
         <v>35227.0</v>
       </c>
       <c r="B737" t="n">
-        <v>13.208289804475728</v>
+        <v>12.99009006116663</v>
       </c>
     </row>
     <row r="738">
@@ -5973,7 +5973,7 @@
         <v>35228.0</v>
       </c>
       <c r="B738" t="n">
-        <v>12.408433594382068</v>
+        <v>12.184415998243571</v>
       </c>
     </row>
     <row r="739">
@@ -5981,7 +5981,7 @@
         <v>35230.0</v>
       </c>
       <c r="B739" t="n">
-        <v>11.149454289525888</v>
+        <v>10.917064953801692</v>
       </c>
     </row>
     <row r="740">
@@ -5989,7 +5989,7 @@
         <v>35232.0</v>
       </c>
       <c r="B740" t="n">
-        <v>10.963804338952523</v>
+        <v>10.729649938434179</v>
       </c>
     </row>
     <row r="741">
@@ -5997,7 +5997,7 @@
         <v>35234.0</v>
       </c>
       <c r="B741" t="n">
-        <v>11.013732875347952</v>
+        <v>10.779534980771045</v>
       </c>
     </row>
     <row r="742">
@@ -6005,7 +6005,7 @@
         <v>35235.0</v>
       </c>
       <c r="B742" t="n">
-        <v>10.733736648525896</v>
+        <v>10.49690200917858</v>
       </c>
     </row>
     <row r="743">
@@ -6013,7 +6013,7 @@
         <v>35238.0</v>
       </c>
       <c r="B743" t="n">
-        <v>10.848712935783995</v>
+        <v>10.612206205572669</v>
       </c>
     </row>
     <row r="744">
@@ -6021,7 +6021,7 @@
         <v>35239.0</v>
       </c>
       <c r="B744" t="n">
-        <v>10.554038810373926</v>
+        <v>10.315502520721102</v>
       </c>
     </row>
     <row r="745">
@@ -6029,7 +6029,7 @@
         <v>35240.0</v>
       </c>
       <c r="B745" t="n">
-        <v>10.35818706614041</v>
+        <v>10.117870594285074</v>
       </c>
     </row>
     <row r="746">
@@ -6037,7 +6037,7 @@
         <v>35242.0</v>
       </c>
       <c r="B746" t="n">
-        <v>10.584229736002804</v>
+        <v>10.344856203485797</v>
       </c>
     </row>
     <row r="747">
@@ -6045,7 +6045,7 @@
         <v>35243.0</v>
       </c>
       <c r="B747" t="n">
-        <v>11.427528425428987</v>
+        <v>11.192718961086499</v>
       </c>
     </row>
     <row r="748">
@@ -6053,7 +6053,7 @@
         <v>35244.0</v>
       </c>
       <c r="B748" t="n">
-        <v>10.898649859016222</v>
+        <v>10.659722173645271</v>
       </c>
     </row>
     <row r="749">
@@ -6061,7 +6061,7 @@
         <v>35247.0</v>
       </c>
       <c r="B749" t="n">
-        <v>11.324414892419897</v>
+        <v>11.08762522848436</v>
       </c>
     </row>
     <row r="750">
@@ -6069,7 +6069,7 @@
         <v>35248.0</v>
       </c>
       <c r="B750" t="n">
-        <v>23.824406355952185</v>
+        <v>23.68053968087309</v>
       </c>
     </row>
     <row r="751">
@@ -6077,7 +6077,7 @@
         <v>35250.0</v>
       </c>
       <c r="B751" t="n">
-        <v>18.71781137767141</v>
+        <v>18.53048984550238</v>
       </c>
     </row>
     <row r="752">
@@ -6085,7 +6085,7 @@
         <v>35252.0</v>
       </c>
       <c r="B752" t="n">
-        <v>13.029953746497153</v>
+        <v>12.801504714702594</v>
       </c>
     </row>
     <row r="753">
@@ -6093,7 +6093,7 @@
         <v>35254.0</v>
       </c>
       <c r="B753" t="n">
-        <v>12.164247938022555</v>
+        <v>11.930060832803825</v>
       </c>
     </row>
     <row r="754">
@@ -6101,7 +6101,7 @@
         <v>35255.0</v>
       </c>
       <c r="B754" t="n">
-        <v>10.58644226686568</v>
+        <v>10.341982878254562</v>
       </c>
     </row>
     <row r="755">
@@ -6109,7 +6109,7 @@
         <v>35258.0</v>
       </c>
       <c r="B755" t="n">
-        <v>10.26106276227949</v>
+        <v>10.014455154520398</v>
       </c>
     </row>
     <row r="756">
@@ -6117,7 +6117,7 @@
         <v>35259.0</v>
       </c>
       <c r="B756" t="n">
-        <v>10.087412486259135</v>
+        <v>9.839514538121193</v>
       </c>
     </row>
     <row r="757">
@@ -6125,7 +6125,7 @@
         <v>35260.0</v>
       </c>
       <c r="B757" t="n">
-        <v>10.104712492627229</v>
+        <v>9.856226606645889</v>
       </c>
     </row>
     <row r="758">
@@ -6133,7 +6133,7 @@
         <v>35262.0</v>
       </c>
       <c r="B758" t="n">
-        <v>9.797814639086438</v>
+        <v>9.547337088278432</v>
       </c>
     </row>
     <row r="759">
@@ -6141,7 +6141,7 @@
         <v>35263.0</v>
       </c>
       <c r="B759" t="n">
-        <v>9.487904142733274</v>
+        <v>9.235452433739505</v>
       </c>
     </row>
     <row r="760">
@@ -6149,7 +6149,7 @@
         <v>35264.0</v>
       </c>
       <c r="B760" t="n">
-        <v>9.05875924506661</v>
+        <v>8.803086882343369</v>
       </c>
     </row>
     <row r="761">
@@ -6157,7 +6157,7 @@
         <v>35267.0</v>
       </c>
       <c r="B761" t="n">
-        <v>9.035275643423</v>
+        <v>8.779147526822475</v>
       </c>
     </row>
     <row r="762">
@@ -6165,7 +6165,7 @@
         <v>35268.0</v>
       </c>
       <c r="B762" t="n">
-        <v>9.883900401573882</v>
+        <v>9.631490374729216</v>
       </c>
     </row>
     <row r="763">
@@ -6173,7 +6173,7 @@
         <v>35270.0</v>
       </c>
       <c r="B763" t="n">
-        <v>9.413070589089616</v>
+        <v>9.157513494699518</v>
       </c>
     </row>
     <row r="764">
@@ -6181,7 +6181,7 @@
         <v>35272.0</v>
       </c>
       <c r="B764" t="n">
-        <v>9.287776421179485</v>
+        <v>9.030895678847846</v>
       </c>
     </row>
     <row r="765">
@@ -6189,7 +6189,7 @@
         <v>35274.0</v>
       </c>
       <c r="B765" t="n">
-        <v>9.902484513805192</v>
+        <v>9.64845264206303</v>
       </c>
     </row>
     <row r="766">
@@ -6197,7 +6197,7 @@
         <v>35275.0</v>
       </c>
       <c r="B766" t="n">
-        <v>11.562418517621953</v>
+        <v>11.316528722873382</v>
       </c>
     </row>
     <row r="767">
@@ -6205,7 +6205,7 @@
         <v>35278.0</v>
       </c>
       <c r="B767" t="n">
-        <v>10.545080095862934</v>
+        <v>10.293112643625125</v>
       </c>
     </row>
     <row r="768">
@@ -6213,7 +6213,7 @@
         <v>35279.0</v>
       </c>
       <c r="B768" t="n">
-        <v>10.047737647046429</v>
+        <v>9.792742714798807</v>
       </c>
     </row>
     <row r="769">
@@ -6221,7 +6221,7 @@
         <v>35280.0</v>
       </c>
       <c r="B769" t="n">
-        <v>9.442720584211463</v>
+        <v>9.183886743452138</v>
       </c>
     </row>
     <row r="770">
@@ -6229,7 +6229,7 @@
         <v>35282.0</v>
       </c>
       <c r="B770" t="n">
-        <v>9.956867453557749</v>
+        <v>9.700348352462441</v>
       </c>
     </row>
     <row r="771">
@@ -6237,7 +6237,7 @@
         <v>35283.0</v>
       </c>
       <c r="B771" t="n">
-        <v>10.766420680399818</v>
+        <v>10.513906791905642</v>
       </c>
     </row>
     <row r="772">
@@ -6245,7 +6245,7 @@
         <v>35284.0</v>
       </c>
       <c r="B772" t="n">
-        <v>10.603372907329204</v>
+        <v>10.348905469199012</v>
       </c>
     </row>
     <row r="773">
@@ -6253,7 +6253,7 @@
         <v>35287.0</v>
       </c>
       <c r="B773" t="n">
-        <v>14.528021656196197</v>
+        <v>14.29682573894163</v>
       </c>
     </row>
     <row r="774">
@@ -6261,7 +6261,7 @@
         <v>35288.0</v>
       </c>
       <c r="B774" t="n">
-        <v>11.870155431642154</v>
+        <v>11.621736291635507</v>
       </c>
     </row>
     <row r="775">
@@ -6269,7 +6269,7 @@
         <v>35290.0</v>
       </c>
       <c r="B775" t="n">
-        <v>10.19734304310161</v>
+        <v>9.938932481953014</v>
       </c>
     </row>
     <row r="776">
@@ -6277,7 +6277,7 @@
         <v>35292.0</v>
       </c>
       <c r="B776" t="n">
-        <v>9.531556561109989</v>
+        <v>9.269005225392304</v>
       </c>
     </row>
     <row r="777">
@@ -6285,7 +6285,7 @@
         <v>35294.0</v>
       </c>
       <c r="B777" t="n">
-        <v>9.154384580168475</v>
+        <v>8.889604715339877</v>
       </c>
     </row>
     <row r="778">
@@ -6293,7 +6293,7 @@
         <v>35295.0</v>
       </c>
       <c r="B778" t="n">
-        <v>8.979436566943004</v>
+        <v>8.712759682684478</v>
       </c>
     </row>
     <row r="779">
@@ -6301,7 +6301,7 @@
         <v>35298.0</v>
       </c>
       <c r="B779" t="n">
-        <v>9.228326938668655</v>
+        <v>8.962515493187464</v>
       </c>
     </row>
     <row r="780">
@@ -6309,7 +6309,7 @@
         <v>35299.0</v>
       </c>
       <c r="B780" t="n">
-        <v>11.139091120552482</v>
+        <v>10.882904380600626</v>
       </c>
     </row>
     <row r="781">
@@ -6317,7 +6317,7 @@
         <v>35300.0</v>
       </c>
       <c r="B781" t="n">
-        <v>15.587899353221399</v>
+        <v>15.358441182084542</v>
       </c>
     </row>
     <row r="782">
@@ -6325,7 +6325,7 @@
         <v>35302.0</v>
       </c>
       <c r="B782" t="n">
-        <v>16.212388670402536</v>
+        <v>15.986835950345046</v>
       </c>
     </row>
     <row r="783">
@@ -6333,7 +6333,7 @@
         <v>35303.0</v>
       </c>
       <c r="B783" t="n">
-        <v>36.926315229555705</v>
+        <v>36.88816814129545</v>
       </c>
     </row>
     <row r="784">
@@ -6341,7 +6341,7 @@
         <v>35305.0</v>
       </c>
       <c r="B784" t="n">
-        <v>15.042778342247855</v>
+        <v>14.807334624630249</v>
       </c>
     </row>
     <row r="785">
@@ -6349,7 +6349,7 @@
         <v>35308.0</v>
       </c>
       <c r="B785" t="n">
-        <v>12.949670206578574</v>
+        <v>12.700611204890341</v>
       </c>
     </row>
     <row r="786">
@@ -6357,7 +6357,7 @@
         <v>35309.0</v>
       </c>
       <c r="B786" t="n">
-        <v>12.139391039048295</v>
+        <v>11.884808562854017</v>
       </c>
     </row>
     <row r="787">
@@ -6365,7 +6365,7 @@
         <v>35311.0</v>
       </c>
       <c r="B787" t="n">
-        <v>11.143055769488278</v>
+        <v>10.882148267897428</v>
       </c>
     </row>
     <row r="788">
@@ -6373,7 +6373,7 @@
         <v>35313.0</v>
       </c>
       <c r="B788" t="n">
-        <v>10.612662130098698</v>
+        <v>10.348182339978008</v>
       </c>
     </row>
     <row r="789">
@@ -6381,7 +6381,7 @@
         <v>35315.0</v>
       </c>
       <c r="B789" t="n">
-        <v>10.436000457149781</v>
+        <v>10.17023184013659</v>
       </c>
     </row>
     <row r="790">
@@ -6389,7 +6389,7 @@
         <v>35316.0</v>
       </c>
       <c r="B790" t="n">
-        <v>10.150023392212901</v>
+        <v>9.881692249720391</v>
       </c>
     </row>
     <row r="791">
@@ -6397,7 +6397,7 @@
         <v>35319.0</v>
       </c>
       <c r="B791" t="n">
-        <v>10.025134771068034</v>
+        <v>9.755807874346024</v>
       </c>
     </row>
     <row r="792">
@@ -6405,7 +6405,7 @@
         <v>35320.0</v>
       </c>
       <c r="B792" t="n">
-        <v>9.742464289020734</v>
+        <v>9.471364110366899</v>
       </c>
     </row>
     <row r="793">
@@ -6413,7 +6413,7 @@
         <v>35321.0</v>
       </c>
       <c r="B793" t="n">
-        <v>9.610522016812139</v>
+        <v>9.338050727585719</v>
       </c>
     </row>
     <row r="794">
@@ -6421,7 +6421,7 @@
         <v>35323.0</v>
       </c>
       <c r="B794" t="n">
-        <v>9.526236919768113</v>
+        <v>9.252994106335162</v>
       </c>
     </row>
     <row r="795">
@@ -6429,7 +6429,7 @@
         <v>35324.0</v>
       </c>
       <c r="B795" t="n">
-        <v>9.455215066372764</v>
+        <v>9.181267746206894</v>
       </c>
     </row>
     <row r="796">
@@ -6437,7 +6437,7 @@
         <v>35325.0</v>
       </c>
       <c r="B796" t="n">
-        <v>9.37573415487997</v>
+        <v>9.100321535023816</v>
       </c>
     </row>
     <row r="797">
@@ -6445,7 +6445,7 @@
         <v>35328.0</v>
       </c>
       <c r="B797" t="n">
-        <v>9.4138010984453</v>
+        <v>9.138208315342315</v>
       </c>
     </row>
     <row r="798">
@@ -6453,7 +6453,7 @@
         <v>35329.0</v>
       </c>
       <c r="B798" t="n">
-        <v>9.325202872490982</v>
+        <v>9.04846385400762</v>
       </c>
     </row>
     <row r="799">
@@ -6461,7 +6461,7 @@
         <v>35331.0</v>
       </c>
       <c r="B799" t="n">
-        <v>9.400635927643133</v>
+        <v>9.123528418363609</v>
       </c>
     </row>
     <row r="800">
@@ -6469,7 +6469,7 @@
         <v>35333.0</v>
       </c>
       <c r="B800" t="n">
-        <v>9.406526227150158</v>
+        <v>9.128718415163434</v>
       </c>
     </row>
     <row r="801">
@@ -6477,7 +6477,7 @@
         <v>35335.0</v>
       </c>
       <c r="B801" t="n">
-        <v>9.948719924808474</v>
+        <v>9.673160761089667</v>
       </c>
     </row>
     <row r="802">
@@ -6485,7 +6485,7 @@
         <v>35336.0</v>
       </c>
       <c r="B802" t="n">
-        <v>29.0538848067645</v>
+        <v>28.92013162739319</v>
       </c>
     </row>
     <row r="803">
@@ -6493,7 +6493,7 @@
         <v>35339.0</v>
       </c>
       <c r="B803" t="n">
-        <v>18.08526669900564</v>
+        <v>17.858048425579916</v>
       </c>
     </row>
     <row r="804">
@@ -6501,7 +6501,7 @@
         <v>35340.0</v>
       </c>
       <c r="B804" t="n">
-        <v>14.817567352672766</v>
+        <v>14.567645681539489</v>
       </c>
     </row>
     <row r="805">
@@ -6509,7 +6509,7 @@
         <v>35341.0</v>
       </c>
       <c r="B805" t="n">
-        <v>32.978851433424</v>
+        <v>32.881935477507774</v>
       </c>
     </row>
     <row r="806">
@@ -6517,7 +6517,7 @@
         <v>35343.0</v>
       </c>
       <c r="B806" t="n">
-        <v>21.319731733707272</v>
+        <v>21.115520534772443</v>
       </c>
     </row>
     <row r="807">
@@ -6525,7 +6525,7 @@
         <v>35344.0</v>
       </c>
       <c r="B807" t="n">
-        <v>16.53173604183402</v>
+        <v>16.29150324744237</v>
       </c>
     </row>
     <row r="808">
@@ -6533,7 +6533,7 @@
         <v>35345.0</v>
       </c>
       <c r="B808" t="n">
-        <v>12.824451016734052</v>
+        <v>12.559668181462442</v>
       </c>
     </row>
     <row r="809">
@@ -6541,7 +6541,7 @@
         <v>35348.0</v>
       </c>
       <c r="B809" t="n">
-        <v>11.842658708278039</v>
+        <v>11.571996313525803</v>
       </c>
     </row>
     <row r="810">
@@ -6549,7 +6549,7 @@
         <v>35349.0</v>
       </c>
       <c r="B810" t="n">
-        <v>10.863271873956606</v>
+        <v>10.586677201994428</v>
       </c>
     </row>
     <row r="811">
@@ -6557,7 +6557,7 @@
         <v>35351.0</v>
       </c>
       <c r="B811" t="n">
-        <v>10.560548414721184</v>
+        <v>10.281663889801548</v>
       </c>
     </row>
     <row r="812">
@@ -6565,7 +6565,7 @@
         <v>35353.0</v>
       </c>
       <c r="B812" t="n">
-        <v>17.62519492656737</v>
+        <v>17.38838109596395</v>
       </c>
     </row>
     <row r="813">
@@ -6573,7 +6573,7 @@
         <v>35355.0</v>
       </c>
       <c r="B813" t="n">
-        <v>16.98677082472473</v>
+        <v>16.745083865636108</v>
       </c>
     </row>
     <row r="814">
@@ -6581,7 +6581,7 @@
         <v>35356.0</v>
       </c>
       <c r="B814" t="n">
-        <v>33.51434838404064</v>
+        <v>33.4152698454162</v>
       </c>
     </row>
     <row r="815">
@@ -6589,7 +6589,7 @@
         <v>35359.0</v>
       </c>
       <c r="B815" t="n">
-        <v>23.32331794496959</v>
+        <v>23.128450110979223</v>
       </c>
     </row>
     <row r="816">
@@ -6597,7 +6597,7 @@
         <v>35360.0</v>
       </c>
       <c r="B816" t="n">
-        <v>16.835381307831376</v>
+        <v>16.590555881833865</v>
       </c>
     </row>
     <row r="817">
@@ -6605,7 +6605,7 @@
         <v>35361.0</v>
       </c>
       <c r="B817" t="n">
-        <v>13.877388262607159</v>
+        <v>13.612800138555508</v>
       </c>
     </row>
     <row r="818">
@@ -6613,7 +6613,7 @@
         <v>35363.0</v>
       </c>
       <c r="B818" t="n">
-        <v>31.35079262475913</v>
+        <v>31.227606335899146</v>
       </c>
     </row>
     <row r="819">
@@ -6621,7 +6621,7 @@
         <v>35364.0</v>
       </c>
       <c r="B819" t="n">
-        <v>77.6204394178649</v>
+        <v>78.03190388837726</v>
       </c>
     </row>
     <row r="820">
@@ -6629,7 +6629,7 @@
         <v>35365.0</v>
       </c>
       <c r="B820" t="n">
-        <v>34.31875766513773</v>
+        <v>34.22356117125288</v>
       </c>
     </row>
     <row r="821">
@@ -6637,7 +6637,7 @@
         <v>35368.0</v>
       </c>
       <c r="B821" t="n">
-        <v>22.988000003913676</v>
+        <v>22.78626232409104</v>
       </c>
     </row>
     <row r="822">
@@ -6645,7 +6645,7 @@
         <v>35369.0</v>
       </c>
       <c r="B822" t="n">
-        <v>33.716784569393084</v>
+        <v>33.613953370736624</v>
       </c>
     </row>
     <row r="823">
@@ -6653,7 +6653,7 @@
         <v>35371.0</v>
       </c>
       <c r="B823" t="n">
-        <v>44.747778639696406</v>
+        <v>44.76392203130903</v>
       </c>
     </row>
     <row r="824">
@@ -6661,7 +6661,7 @@
         <v>35373.0</v>
       </c>
       <c r="B824" t="n">
-        <v>121.33347261600677</v>
+        <v>122.15573727898455</v>
       </c>
     </row>
     <row r="825">
@@ -6669,7 +6669,7 @@
         <v>35376.0</v>
       </c>
       <c r="B825" t="n">
-        <v>55.47283301681412</v>
+        <v>55.61327902163412</v>
       </c>
     </row>
     <row r="826">
@@ -6677,7 +6677,7 @@
         <v>35377.0</v>
       </c>
       <c r="B826" t="n">
-        <v>28.45565482865403</v>
+        <v>28.296990085497978</v>
       </c>
     </row>
     <row r="827">
@@ -6685,7 +6685,7 @@
         <v>35380.0</v>
       </c>
       <c r="B827" t="n">
-        <v>76.28177594029728</v>
+        <v>76.67117350344446</v>
       </c>
     </row>
     <row r="828">
@@ -6693,7 +6693,7 @@
         <v>35381.0</v>
       </c>
       <c r="B828" t="n">
-        <v>78.89966898253957</v>
+        <v>79.31937262299537</v>
       </c>
     </row>
     <row r="829">
@@ -6701,7 +6701,7 @@
         <v>35382.0</v>
       </c>
       <c r="B829" t="n">
-        <v>32.560098063444286</v>
+        <v>32.43919159709325</v>
       </c>
     </row>
     <row r="830">
@@ -6709,7 +6709,7 @@
         <v>35384.0</v>
       </c>
       <c r="B830" t="n">
-        <v>25.588765211988346</v>
+        <v>25.401770191400246</v>
       </c>
     </row>
     <row r="831">
@@ -6717,7 +6717,7 @@
         <v>35385.0</v>
       </c>
       <c r="B831" t="n">
-        <v>24.41253125355114</v>
+        <v>24.214904107323818</v>
       </c>
     </row>
     <row r="832">
@@ -6725,7 +6725,7 @@
         <v>35386.0</v>
       </c>
       <c r="B832" t="n">
-        <v>26.95104479814634</v>
+        <v>26.774252871586746</v>
       </c>
     </row>
     <row r="833">
@@ -6733,7 +6733,7 @@
         <v>35389.0</v>
       </c>
       <c r="B833" t="n">
-        <v>29.15222601083297</v>
+        <v>28.9952483933316</v>
       </c>
     </row>
     <row r="834">
@@ -6741,7 +6741,7 @@
         <v>35390.0</v>
       </c>
       <c r="B834" t="n">
-        <v>27.643071991586893</v>
+        <v>27.47111469556604</v>
       </c>
     </row>
     <row r="835">
@@ -6749,7 +6749,7 @@
         <v>35392.0</v>
       </c>
       <c r="B835" t="n">
-        <v>33.58773901193932</v>
+        <v>33.4721999867837</v>
       </c>
     </row>
     <row r="836">
@@ -6757,7 +6757,7 @@
         <v>35394.0</v>
       </c>
       <c r="B836" t="n">
-        <v>63.188312530171416</v>
+        <v>63.41309534214893</v>
       </c>
     </row>
     <row r="837">
@@ -6765,7 +6765,7 @@
         <v>35396.0</v>
       </c>
       <c r="B837" t="n">
-        <v>35.019259877753605</v>
+        <v>34.91686330772454</v>
       </c>
     </row>
     <row r="838">
@@ -6773,7 +6773,7 @@
         <v>35397.0</v>
       </c>
       <c r="B838" t="n">
-        <v>79.72593924062677</v>
+        <v>80.14806781165896</v>
       </c>
     </row>
     <row r="839">
@@ -6781,7 +6781,7 @@
         <v>35400.0</v>
       </c>
       <c r="B839" t="n">
-        <v>107.0878096799458</v>
+        <v>107.79746598594036</v>
       </c>
     </row>
     <row r="840">
@@ -6789,7 +6789,7 @@
         <v>35401.0</v>
       </c>
       <c r="B840" t="n">
-        <v>87.49887399563801</v>
+        <v>88.00933805698558</v>
       </c>
     </row>
     <row r="841">
@@ -6797,7 +6797,7 @@
         <v>35402.0</v>
       </c>
       <c r="B841" t="n">
-        <v>99.99327587961743</v>
+        <v>100.63528574411518</v>
       </c>
     </row>
     <row r="842">
@@ -6805,7 +6805,7 @@
         <v>35404.0</v>
       </c>
       <c r="B842" t="n">
-        <v>59.21218165384706</v>
+        <v>59.3840146033001</v>
       </c>
     </row>
     <row r="843">
@@ -6813,7 +6813,7 @@
         <v>35405.0</v>
       </c>
       <c r="B843" t="n">
-        <v>40.29660707516435</v>
+        <v>40.24593111528939</v>
       </c>
     </row>
     <row r="844">
@@ -6821,7 +6821,7 @@
         <v>35406.0</v>
       </c>
       <c r="B844" t="n">
-        <v>35.55007568875545</v>
+        <v>35.447044801159954</v>
       </c>
     </row>
     <row r="845">
@@ -6829,7 +6829,7 @@
         <v>35409.0</v>
       </c>
       <c r="B845" t="n">
-        <v>28.334703120360906</v>
+        <v>28.16025866470011</v>
       </c>
     </row>
     <row r="846">
@@ -6837,7 +6837,7 @@
         <v>35410.0</v>
       </c>
       <c r="B846" t="n">
-        <v>23.36607663166218</v>
+        <v>23.147399162194784</v>
       </c>
     </row>
     <row r="847">
@@ -6845,7 +6845,7 @@
         <v>35412.0</v>
       </c>
       <c r="B847" t="n">
-        <v>20.793457350286275</v>
+        <v>20.55358587762154</v>
       </c>
     </row>
     <row r="848">
@@ -6853,7 +6853,7 @@
         <v>35414.0</v>
       </c>
       <c r="B848" t="n">
-        <v>25.725204794781284</v>
+        <v>25.524463573883786</v>
       </c>
     </row>
     <row r="849">
@@ -6861,7 +6861,7 @@
         <v>35416.0</v>
       </c>
       <c r="B849" t="n">
-        <v>24.506571224605494</v>
+        <v>24.294938225051776</v>
       </c>
     </row>
     <row r="850">
@@ -6869,7 +6869,7 @@
         <v>35417.0</v>
       </c>
       <c r="B850" t="n">
-        <v>146.8674280571522</v>
+        <v>147.80098212788192</v>
       </c>
     </row>
     <row r="851">
@@ -6877,7 +6877,7 @@
         <v>35420.0</v>
       </c>
       <c r="B851" t="n">
-        <v>78.19238795594941</v>
+        <v>78.58750693273431</v>
       </c>
     </row>
     <row r="852">
@@ -6885,7 +6885,7 @@
         <v>35421.0</v>
       </c>
       <c r="B852" t="n">
-        <v>54.379084451203575</v>
+        <v>54.48347358282266</v>
       </c>
     </row>
     <row r="853">
@@ -6893,7 +6893,7 @@
         <v>35422.0</v>
       </c>
       <c r="B853" t="n">
-        <v>35.79829794976762</v>
+        <v>35.69003901646157</v>
       </c>
     </row>
     <row r="854">
@@ -6901,7 +6901,7 @@
         <v>35424.0</v>
       </c>
       <c r="B854" t="n">
-        <v>29.88155143385042</v>
+        <v>29.713975522882873</v>
       </c>
     </row>
     <row r="855">
@@ -6909,7 +6909,7 @@
         <v>35425.0</v>
       </c>
       <c r="B855" t="n">
-        <v>26.883656541430575</v>
+        <v>26.688117437606415</v>
       </c>
     </row>
     <row r="856">
@@ -6917,7 +6917,7 @@
         <v>35426.0</v>
       </c>
       <c r="B856" t="n">
-        <v>30.93208493874395</v>
+        <v>30.772465770761794</v>
       </c>
     </row>
     <row r="857">
@@ -6925,7 +6925,7 @@
         <v>35429.0</v>
       </c>
       <c r="B857" t="n">
-        <v>35.492866156958</v>
+        <v>35.37827830998367</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -85,7 +85,7 @@
         <v>33970.0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.878231801254397</v>
+        <v>159.24353781306132</v>
       </c>
     </row>
     <row r="3">
@@ -93,7 +93,7 @@
         <v>33971.0</v>
       </c>
       <c r="B3" t="n">
-        <v>22.87045284765001</v>
+        <v>159.23607396752843</v>
       </c>
     </row>
     <row r="4">
@@ -101,7 +101,7 @@
         <v>33972.0</v>
       </c>
       <c r="B4" t="n">
-        <v>97.9036923055491</v>
+        <v>159.69810274082934</v>
       </c>
     </row>
     <row r="5">
@@ -109,7 +109,7 @@
         <v>33975.0</v>
       </c>
       <c r="B5" t="n">
-        <v>53.21275448894397</v>
+        <v>159.44472535187083</v>
       </c>
     </row>
     <row r="6">
@@ -117,7 +117,7 @@
         <v>33976.0</v>
       </c>
       <c r="B6" t="n">
-        <v>75.58593169022379</v>
+        <v>159.57615670190003</v>
       </c>
     </row>
     <row r="7">
@@ -125,7 +125,7 @@
         <v>33978.0</v>
       </c>
       <c r="B7" t="n">
-        <v>196.21357131469946</v>
+        <v>160.30010376777088</v>
       </c>
     </row>
     <row r="8">
@@ -133,7 +133,7 @@
         <v>33980.0</v>
       </c>
       <c r="B8" t="n">
-        <v>166.2642200263278</v>
+        <v>160.09091255455044</v>
       </c>
     </row>
     <row r="9">
@@ -141,7 +141,7 @@
         <v>33982.0</v>
       </c>
       <c r="B9" t="n">
-        <v>202.37180197840553</v>
+        <v>160.35040236798878</v>
       </c>
     </row>
     <row r="10">
@@ -149,7 +149,7 @@
         <v>33983.0</v>
       </c>
       <c r="B10" t="n">
-        <v>164.934956565676</v>
+        <v>160.08377077193884</v>
       </c>
     </row>
     <row r="11">
@@ -157,7 +157,7 @@
         <v>33986.0</v>
       </c>
       <c r="B11" t="n">
-        <v>104.8455051903448</v>
+        <v>159.74000362231018</v>
       </c>
     </row>
     <row r="12">
@@ -165,7 +165,7 @@
         <v>33987.0</v>
       </c>
       <c r="B12" t="n">
-        <v>140.74473293393646</v>
+        <v>159.93917438692543</v>
       </c>
     </row>
     <row r="13">
@@ -173,7 +173,7 @@
         <v>33988.0</v>
       </c>
       <c r="B13" t="n">
-        <v>127.57403347652327</v>
+        <v>159.86551348125028</v>
       </c>
     </row>
     <row r="14">
@@ -181,7 +181,7 @@
         <v>33990.0</v>
       </c>
       <c r="B14" t="n">
-        <v>179.61511777859172</v>
+        <v>160.18212419518932</v>
       </c>
     </row>
     <row r="15">
@@ -189,7 +189,7 @@
         <v>33991.0</v>
       </c>
       <c r="B15" t="n">
-        <v>131.76735944955644</v>
+        <v>159.88960227345544</v>
       </c>
     </row>
     <row r="16">
@@ -197,7 +197,7 @@
         <v>33992.0</v>
       </c>
       <c r="B16" t="n">
-        <v>118.77769074995676</v>
+        <v>159.8186853542148</v>
       </c>
     </row>
     <row r="17">
@@ -205,7 +205,7 @@
         <v>33995.0</v>
       </c>
       <c r="B17" t="n">
-        <v>91.72924598492408</v>
+        <v>159.671781081555</v>
       </c>
     </row>
     <row r="18">
@@ -213,7 +213,7 @@
         <v>33996.0</v>
       </c>
       <c r="B18" t="n">
-        <v>107.03074218671935</v>
+        <v>159.75568136903834</v>
       </c>
     </row>
     <row r="19">
@@ -221,7 +221,7 @@
         <v>33998.0</v>
       </c>
       <c r="B19" t="n">
-        <v>60.59331832187017</v>
+        <v>159.49771548536856</v>
       </c>
     </row>
     <row r="20">
@@ -229,7 +229,7 @@
         <v>34000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>46.56958621855748</v>
+        <v>159.41261996352435</v>
       </c>
     </row>
     <row r="21">
@@ -237,7 +237,7 @@
         <v>34002.0</v>
       </c>
       <c r="B21" t="n">
-        <v>39.98021816981711</v>
+        <v>159.37012961250053</v>
       </c>
     </row>
     <row r="22">
@@ -245,7 +245,7 @@
         <v>34003.0</v>
       </c>
       <c r="B22" t="n">
-        <v>34.827223796683846</v>
+        <v>159.33622533688433</v>
       </c>
     </row>
     <row r="23">
@@ -253,7 +253,7 @@
         <v>34006.0</v>
       </c>
       <c r="B23" t="n">
-        <v>35.33857648286477</v>
+        <v>159.34012557270736</v>
       </c>
     </row>
     <row r="24">
@@ -261,7 +261,7 @@
         <v>34007.0</v>
       </c>
       <c r="B24" t="n">
-        <v>33.474651745037306</v>
+        <v>159.32751843600104</v>
       </c>
     </row>
     <row r="25">
@@ -269,7 +269,7 @@
         <v>34008.0</v>
       </c>
       <c r="B25" t="n">
-        <v>33.82033051506549</v>
+        <v>159.33066508464643</v>
       </c>
     </row>
     <row r="26">
@@ -277,7 +277,7 @@
         <v>34010.0</v>
       </c>
       <c r="B26" t="n">
-        <v>32.927485578686074</v>
+        <v>159.32475988691908</v>
       </c>
     </row>
     <row r="27">
@@ -285,7 +285,7 @@
         <v>34011.0</v>
       </c>
       <c r="B27" t="n">
-        <v>30.807941394695263</v>
+        <v>159.31004012492716</v>
       </c>
     </row>
     <row r="28">
@@ -293,7 +293,7 @@
         <v>34012.0</v>
       </c>
       <c r="B28" t="n">
-        <v>26.006203677281565</v>
+        <v>159.27580304796678</v>
       </c>
     </row>
     <row r="29">
@@ -301,7 +301,7 @@
         <v>34015.0</v>
       </c>
       <c r="B29" t="n">
-        <v>24.941356001698807</v>
+        <v>159.2680934994262</v>
       </c>
     </row>
     <row r="30">
@@ -309,7 +309,7 @@
         <v>34016.0</v>
       </c>
       <c r="B30" t="n">
-        <v>23.374771478823597</v>
+        <v>159.2567719213077</v>
       </c>
     </row>
     <row r="31">
@@ -317,7 +317,7 @@
         <v>34018.0</v>
       </c>
       <c r="B31" t="n">
-        <v>22.150458004734205</v>
+        <v>159.24793371418482</v>
       </c>
     </row>
     <row r="32">
@@ -325,7 +325,7 @@
         <v>34020.0</v>
       </c>
       <c r="B32" t="n">
-        <v>20.377319098150874</v>
+        <v>159.23455994391387</v>
       </c>
     </row>
     <row r="33">
@@ -333,7 +333,7 @@
         <v>34022.0</v>
       </c>
       <c r="B33" t="n">
-        <v>20.315334272228558</v>
+        <v>159.23442654529114</v>
       </c>
     </row>
     <row r="34">
@@ -341,7 +341,7 @@
         <v>34023.0</v>
       </c>
       <c r="B34" t="n">
-        <v>20.052645582447383</v>
+        <v>159.23340512495506</v>
       </c>
     </row>
     <row r="35">
@@ -349,7 +349,7 @@
         <v>34026.0</v>
       </c>
       <c r="B35" t="n">
-        <v>21.394902059584275</v>
+        <v>159.24451534212076</v>
       </c>
     </row>
     <row r="36">
@@ -357,7 +357,7 @@
         <v>34027.0</v>
       </c>
       <c r="B36" t="n">
-        <v>20.244892838256508</v>
+        <v>159.235685333461</v>
       </c>
     </row>
     <row r="37">
@@ -365,7 +365,7 @@
         <v>34028.0</v>
       </c>
       <c r="B37" t="n">
-        <v>22.878018462971994</v>
+        <v>159.25728291352291</v>
       </c>
     </row>
     <row r="38">
@@ -373,7 +373,7 @@
         <v>34030.0</v>
       </c>
       <c r="B38" t="n">
-        <v>24.86615899500463</v>
+        <v>159.27298579074812</v>
       </c>
     </row>
     <row r="39">
@@ -381,7 +381,7 @@
         <v>34031.0</v>
       </c>
       <c r="B39" t="n">
-        <v>23.316613002532904</v>
+        <v>159.26142570565872</v>
       </c>
     </row>
     <row r="40">
@@ -389,7 +389,7 @@
         <v>34032.0</v>
       </c>
       <c r="B40" t="n">
-        <v>33.32505089642924</v>
+        <v>159.33626717778162</v>
       </c>
     </row>
     <row r="41">
@@ -397,7 +397,7 @@
         <v>34035.0</v>
       </c>
       <c r="B41" t="n">
-        <v>26.441557175988493</v>
+        <v>159.2867245412221</v>
       </c>
     </row>
     <row r="42">
@@ -405,7 +405,7 @@
         <v>34036.0</v>
       </c>
       <c r="B42" t="n">
-        <v>21.596535629563178</v>
+        <v>159.25012902248653</v>
       </c>
     </row>
     <row r="43">
@@ -413,7 +413,7 @@
         <v>34038.0</v>
       </c>
       <c r="B43" t="n">
-        <v>20.05749649621575</v>
+        <v>159.2385572416388</v>
       </c>
     </row>
     <row r="44">
@@ -421,7 +421,7 @@
         <v>34040.0</v>
       </c>
       <c r="B44" t="n">
-        <v>18.494236761913083</v>
+        <v>159.226549326687</v>
       </c>
     </row>
     <row r="45">
@@ -429,7 +429,7 @@
         <v>34042.0</v>
       </c>
       <c r="B45" t="n">
-        <v>18.561975014354278</v>
+        <v>159.2274720658483</v>
       </c>
     </row>
     <row r="46">
@@ -437,7 +437,7 @@
         <v>34043.0</v>
       </c>
       <c r="B46" t="n">
-        <v>21.87787939540503</v>
+        <v>159.25527292682483</v>
       </c>
     </row>
     <row r="47">
@@ -445,7 +445,7 @@
         <v>34046.0</v>
       </c>
       <c r="B47" t="n">
-        <v>24.1987777538887</v>
+        <v>159.2737081494212</v>
       </c>
     </row>
     <row r="48">
@@ -453,7 +453,7 @@
         <v>34047.0</v>
       </c>
       <c r="B48" t="n">
-        <v>20.102024415994915</v>
+        <v>159.24183834522918</v>
       </c>
     </row>
     <row r="49">
@@ -461,7 +461,7 @@
         <v>34048.0</v>
       </c>
       <c r="B49" t="n">
-        <v>21.117099818497042</v>
+        <v>159.25070226595327</v>
       </c>
     </row>
     <row r="50">
@@ -469,7 +469,7 @@
         <v>34050.0</v>
       </c>
       <c r="B50" t="n">
-        <v>18.969220374497034</v>
+        <v>159.2337354543554</v>
       </c>
     </row>
     <row r="51">
@@ -477,7 +477,7 @@
         <v>34051.0</v>
       </c>
       <c r="B51" t="n">
-        <v>18.145444992567302</v>
+        <v>159.2273276453928</v>
       </c>
     </row>
     <row r="52">
@@ -485,7 +485,7 @@
         <v>34052.0</v>
       </c>
       <c r="B52" t="n">
-        <v>16.413557356200776</v>
+        <v>159.21394257348254</v>
       </c>
     </row>
     <row r="53">
@@ -493,7 +493,7 @@
         <v>34055.0</v>
       </c>
       <c r="B53" t="n">
-        <v>15.784420669751075</v>
+        <v>159.20896273555252</v>
       </c>
     </row>
     <row r="54">
@@ -501,7 +501,7 @@
         <v>34056.0</v>
       </c>
       <c r="B54" t="n">
-        <v>15.544020334119262</v>
+        <v>159.20763963577718</v>
       </c>
     </row>
     <row r="55">
@@ -509,7 +509,7 @@
         <v>34058.0</v>
       </c>
       <c r="B55" t="n">
-        <v>18.10595658850357</v>
+        <v>159.22992581920957</v>
       </c>
     </row>
     <row r="56">
@@ -517,7 +517,7 @@
         <v>34060.0</v>
       </c>
       <c r="B56" t="n">
-        <v>16.44847771892827</v>
+        <v>159.21679882671685</v>
       </c>
     </row>
     <row r="57">
@@ -525,7 +525,7 @@
         <v>34062.0</v>
       </c>
       <c r="B57" t="n">
-        <v>20.291629490514758</v>
+        <v>159.24884404583432</v>
       </c>
     </row>
     <row r="58">
@@ -533,7 +533,7 @@
         <v>34063.0</v>
       </c>
       <c r="B58" t="n">
-        <v>35.05417203290457</v>
+        <v>159.35992004903002</v>
       </c>
     </row>
     <row r="59">
@@ -541,7 +541,7 @@
         <v>34067.0</v>
       </c>
       <c r="B59" t="n">
-        <v>92.10380882132243</v>
+        <v>159.69904277958054</v>
       </c>
     </row>
     <row r="60">
@@ -549,7 +549,7 @@
         <v>34068.0</v>
       </c>
       <c r="B60" t="n">
-        <v>153.76542957752238</v>
+        <v>160.04235536553793</v>
       </c>
     </row>
     <row r="61">
@@ -557,7 +557,7 @@
         <v>34069.0</v>
       </c>
       <c r="B61" t="n">
-        <v>59.13886541473066</v>
+        <v>159.51450321909988</v>
       </c>
     </row>
     <row r="62">
@@ -565,7 +565,7 @@
         <v>34071.0</v>
       </c>
       <c r="B62" t="n">
-        <v>69.0344509447701</v>
+        <v>159.572410799466</v>
       </c>
     </row>
     <row r="63">
@@ -573,7 +573,7 @@
         <v>34072.0</v>
       </c>
       <c r="B63" t="n">
-        <v>48.99267839909322</v>
+        <v>159.4534809378608</v>
       </c>
     </row>
     <row r="64">
@@ -581,7 +581,7 @@
         <v>34073.0</v>
       </c>
       <c r="B64" t="n">
-        <v>27.30173540391015</v>
+        <v>159.30771182038325</v>
       </c>
     </row>
     <row r="65">
@@ -589,7 +589,7 @@
         <v>34076.0</v>
       </c>
       <c r="B65" t="n">
-        <v>31.534117799473606</v>
+        <v>159.3388571211327</v>
       </c>
     </row>
     <row r="66">
@@ -597,7 +597,7 @@
         <v>34077.0</v>
       </c>
       <c r="B66" t="n">
-        <v>49.17318742426339</v>
+        <v>159.456770291844</v>
       </c>
     </row>
     <row r="67">
@@ -605,7 +605,7 @@
         <v>34079.0</v>
       </c>
       <c r="B67" t="n">
-        <v>34.58824558459048</v>
+        <v>159.36177528503933</v>
       </c>
     </row>
     <row r="68">
@@ -613,7 +613,7 @@
         <v>34081.0</v>
       </c>
       <c r="B68" t="n">
-        <v>34.070484622786644</v>
+        <v>159.35890320254532</v>
       </c>
     </row>
     <row r="69">
@@ -621,7 +621,7 @@
         <v>34083.0</v>
       </c>
       <c r="B69" t="n">
-        <v>90.02414546915863</v>
+        <v>159.69333182143762</v>
       </c>
     </row>
     <row r="70">
@@ -629,7 +629,7 @@
         <v>34084.0</v>
       </c>
       <c r="B70" t="n">
-        <v>44.57767726237076</v>
+        <v>159.43054535492683</v>
       </c>
     </row>
     <row r="71">
@@ -637,7 +637,7 @@
         <v>34087.0</v>
       </c>
       <c r="B71" t="n">
-        <v>34.284387634193585</v>
+        <v>159.3622066250404</v>
       </c>
     </row>
     <row r="72">
@@ -645,7 +645,7 @@
         <v>34088.0</v>
       </c>
       <c r="B72" t="n">
-        <v>29.224385643341805</v>
+        <v>159.32658370943372</v>
       </c>
     </row>
     <row r="73">
@@ -653,7 +653,7 @@
         <v>34089.0</v>
       </c>
       <c r="B73" t="n">
-        <v>24.64522922115233</v>
+        <v>159.29317202834545</v>
       </c>
     </row>
     <row r="74">
@@ -661,7 +661,7 @@
         <v>34091.0</v>
       </c>
       <c r="B74" t="n">
-        <v>22.23154319052502</v>
+        <v>159.27484725511323</v>
       </c>
     </row>
     <row r="75">
@@ -669,7 +669,7 @@
         <v>34092.0</v>
       </c>
       <c r="B75" t="n">
-        <v>21.201566333929584</v>
+        <v>159.2670761744931</v>
       </c>
     </row>
     <row r="76">
@@ -677,7 +677,7 @@
         <v>34093.0</v>
       </c>
       <c r="B76" t="n">
-        <v>18.609579685278405</v>
+        <v>159.24723753018412</v>
       </c>
     </row>
     <row r="77">
@@ -685,7 +685,7 @@
         <v>34096.0</v>
       </c>
       <c r="B77" t="n">
-        <v>17.86395793492079</v>
+        <v>159.24145197798708</v>
       </c>
     </row>
     <row r="78">
@@ -693,7 +693,7 @@
         <v>34097.0</v>
       </c>
       <c r="B78" t="n">
-        <v>21.14551163506649</v>
+        <v>159.2688219474666</v>
       </c>
     </row>
     <row r="79">
@@ -701,7 +701,7 @@
         <v>34099.0</v>
       </c>
       <c r="B79" t="n">
-        <v>21.567769431019464</v>
+        <v>159.2729018545798</v>
       </c>
     </row>
     <row r="80">
@@ -709,7 +709,7 @@
         <v>34101.0</v>
       </c>
       <c r="B80" t="n">
-        <v>103.88091686882203</v>
+        <v>159.7767786893174</v>
       </c>
     </row>
     <row r="81">
@@ -717,7 +717,7 @@
         <v>34108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>63.88817717591391</v>
+        <v>159.55597514450392</v>
       </c>
     </row>
     <row r="82">
@@ -725,7 +725,7 @@
         <v>34109.0</v>
       </c>
       <c r="B82" t="n">
-        <v>47.81935960700282</v>
+        <v>159.4601775137725</v>
       </c>
     </row>
     <row r="83">
@@ -733,7 +733,7 @@
         <v>34112.0</v>
       </c>
       <c r="B83" t="n">
-        <v>37.82649692076803</v>
+        <v>159.39552597241826</v>
       </c>
     </row>
     <row r="84">
@@ -741,7 +741,7 @@
         <v>34113.0</v>
       </c>
       <c r="B84" t="n">
-        <v>32.16932534137663</v>
+        <v>159.3568169611366</v>
       </c>
     </row>
     <row r="85">
@@ -749,7 +749,7 @@
         <v>34114.0</v>
       </c>
       <c r="B85" t="n">
-        <v>27.815777714458783</v>
+        <v>159.32608625157732</v>
       </c>
     </row>
     <row r="86">
@@ -757,7 +757,7 @@
         <v>34116.0</v>
       </c>
       <c r="B86" t="n">
-        <v>27.43802768930278</v>
+        <v>159.3236568083665</v>
       </c>
     </row>
     <row r="87">
@@ -765,7 +765,7 @@
         <v>34117.0</v>
       </c>
       <c r="B87" t="n">
-        <v>26.090526927837555</v>
+        <v>159.31396606137548</v>
       </c>
     </row>
     <row r="88">
@@ -773,7 +773,7 @@
         <v>34118.0</v>
       </c>
       <c r="B88" t="n">
-        <v>32.519679900750326</v>
+        <v>159.3629274050691</v>
       </c>
     </row>
     <row r="89">
@@ -781,7 +781,7 @@
         <v>34124.0</v>
       </c>
       <c r="B89" t="n">
-        <v>27.043844781796533</v>
+        <v>159.32364506945694</v>
       </c>
     </row>
     <row r="90">
@@ -789,7 +789,7 @@
         <v>34125.0</v>
       </c>
       <c r="B90" t="n">
-        <v>21.1621745580972</v>
+        <v>159.27918273467276</v>
       </c>
     </row>
     <row r="91">
@@ -797,7 +797,7 @@
         <v>34127.0</v>
       </c>
       <c r="B91" t="n">
-        <v>19.177989403954314</v>
+        <v>159.26395172234146</v>
       </c>
     </row>
     <row r="92">
@@ -805,7 +805,7 @@
         <v>34129.0</v>
       </c>
       <c r="B92" t="n">
-        <v>19.421789063397075</v>
+        <v>159.2666656376032</v>
       </c>
     </row>
     <row r="93">
@@ -813,7 +813,7 @@
         <v>34131.0</v>
       </c>
       <c r="B93" t="n">
-        <v>20.62353458393911</v>
+        <v>159.276715407972</v>
       </c>
     </row>
     <row r="94">
@@ -821,7 +821,7 @@
         <v>34132.0</v>
       </c>
       <c r="B94" t="n">
-        <v>21.992521687906027</v>
+        <v>159.28867023497514</v>
       </c>
     </row>
     <row r="95">
@@ -829,7 +829,7 @@
         <v>34135.0</v>
       </c>
       <c r="B95" t="n">
-        <v>20.073168821346314</v>
+        <v>159.27376049533422</v>
       </c>
     </row>
     <row r="96">
@@ -837,7 +837,7 @@
         <v>34136.0</v>
       </c>
       <c r="B96" t="n">
-        <v>18.6287281441259</v>
+        <v>159.2623880774204</v>
       </c>
     </row>
     <row r="97">
@@ -845,7 +845,7 @@
         <v>34137.0</v>
       </c>
       <c r="B97" t="n">
-        <v>26.7081714100878</v>
+        <v>159.32624638404295</v>
       </c>
     </row>
     <row r="98">
@@ -853,7 +853,7 @@
         <v>34139.0</v>
       </c>
       <c r="B98" t="n">
-        <v>23.68887952597889</v>
+        <v>159.30370859411332</v>
       </c>
     </row>
     <row r="99">
@@ -861,7 +861,7 @@
         <v>34140.0</v>
       </c>
       <c r="B99" t="n">
-        <v>19.70253078718985</v>
+        <v>159.27259700582897</v>
       </c>
     </row>
     <row r="100">
@@ -869,7 +869,7 @@
         <v>34141.0</v>
       </c>
       <c r="B100" t="n">
-        <v>16.84556431877707</v>
+        <v>159.2501520724443</v>
       </c>
     </row>
     <row r="101">
@@ -877,7 +877,7 @@
         <v>34144.0</v>
       </c>
       <c r="B101" t="n">
-        <v>15.80250720043188</v>
+        <v>159.24169624844725</v>
       </c>
     </row>
     <row r="102">
@@ -885,7 +885,7 @@
         <v>34145.0</v>
       </c>
       <c r="B102" t="n">
-        <v>15.18483018093935</v>
+        <v>159.23714380144025</v>
       </c>
     </row>
     <row r="103">
@@ -893,7 +893,7 @@
         <v>34147.0</v>
       </c>
       <c r="B103" t="n">
-        <v>14.200895247087251</v>
+        <v>159.22936108707333</v>
       </c>
     </row>
     <row r="104">
@@ -901,7 +901,7 @@
         <v>34149.0</v>
       </c>
       <c r="B104" t="n">
-        <v>13.491265558130094</v>
+        <v>159.22387631561082</v>
       </c>
     </row>
     <row r="105">
@@ -909,7 +909,7 @@
         <v>34151.0</v>
       </c>
       <c r="B105" t="n">
-        <v>13.801973813006539</v>
+        <v>159.22697319603859</v>
       </c>
     </row>
     <row r="106">
@@ -917,7 +917,7 @@
         <v>34152.0</v>
       </c>
       <c r="B106" t="n">
-        <v>13.026050294627781</v>
+        <v>159.22123070548415</v>
       </c>
     </row>
     <row r="107">
@@ -925,7 +925,7 @@
         <v>34155.0</v>
       </c>
       <c r="B107" t="n">
-        <v>12.815920183852866</v>
+        <v>159.21973063456767</v>
       </c>
     </row>
     <row r="108">
@@ -933,7 +933,7 @@
         <v>34156.0</v>
       </c>
       <c r="B108" t="n">
-        <v>12.583488502654227</v>
+        <v>159.21802553499427</v>
       </c>
     </row>
     <row r="109">
@@ -941,7 +941,7 @@
         <v>34157.0</v>
       </c>
       <c r="B109" t="n">
-        <v>14.827657728862988</v>
+        <v>159.23846274798603</v>
       </c>
     </row>
     <row r="110">
@@ -949,7 +949,7 @@
         <v>34159.0</v>
       </c>
       <c r="B110" t="n">
-        <v>15.958343580988801</v>
+        <v>159.24851519305042</v>
       </c>
     </row>
     <row r="111">
@@ -957,7 +957,7 @@
         <v>34160.0</v>
       </c>
       <c r="B111" t="n">
-        <v>14.047433689633051</v>
+        <v>159.23241946848927</v>
       </c>
     </row>
     <row r="112">
@@ -965,7 +965,7 @@
         <v>34161.0</v>
       </c>
       <c r="B112" t="n">
-        <v>13.079061726474675</v>
+        <v>159.22500010234742</v>
       </c>
     </row>
     <row r="113">
@@ -973,7 +973,7 @@
         <v>34164.0</v>
       </c>
       <c r="B113" t="n">
-        <v>14.281187911737977</v>
+        <v>159.23592344616648</v>
       </c>
     </row>
     <row r="114">
@@ -981,7 +981,7 @@
         <v>34165.0</v>
       </c>
       <c r="B114" t="n">
-        <v>22.992767141867667</v>
+        <v>159.3081773209604</v>
       </c>
     </row>
     <row r="115">
@@ -989,7 +989,7 @@
         <v>34167.0</v>
       </c>
       <c r="B115" t="n">
-        <v>34.378275949360265</v>
+        <v>159.3930024817505</v>
       </c>
     </row>
     <row r="116">
@@ -997,7 +997,7 @@
         <v>34171.0</v>
       </c>
       <c r="B116" t="n">
-        <v>19.035777789885934</v>
+        <v>159.2788848756975</v>
       </c>
     </row>
     <row r="117">
@@ -1005,7 +1005,7 @@
         <v>34173.0</v>
       </c>
       <c r="B117" t="n">
-        <v>36.517408695711275</v>
+        <v>159.4087831626275</v>
       </c>
     </row>
     <row r="118">
@@ -1013,7 +1013,7 @@
         <v>34174.0</v>
       </c>
       <c r="B118" t="n">
-        <v>21.642716346904276</v>
+        <v>159.3012579736283</v>
       </c>
     </row>
     <row r="119">
@@ -1021,7 +1021,7 @@
         <v>34177.0</v>
       </c>
       <c r="B119" t="n">
-        <v>23.061812306599762</v>
+        <v>159.3127308373507</v>
       </c>
     </row>
     <row r="120">
@@ -1029,7 +1029,7 @@
         <v>34178.0</v>
       </c>
       <c r="B120" t="n">
-        <v>19.645513282233207</v>
+        <v>159.28603136934072</v>
       </c>
     </row>
     <row r="121">
@@ -1037,7 +1037,7 @@
         <v>34179.0</v>
       </c>
       <c r="B121" t="n">
-        <v>15.166446113057448</v>
+        <v>159.24944105636067</v>
       </c>
     </row>
     <row r="122">
@@ -1045,7 +1045,7 @@
         <v>34181.0</v>
       </c>
       <c r="B122" t="n">
-        <v>14.42546388848469</v>
+        <v>159.2434076937774</v>
       </c>
     </row>
     <row r="123">
@@ -1053,7 +1053,7 @@
         <v>34182.0</v>
       </c>
       <c r="B123" t="n">
-        <v>14.396516371727335</v>
+        <v>159.24352277128614</v>
       </c>
     </row>
     <row r="124">
@@ -1061,7 +1061,7 @@
         <v>34183.0</v>
       </c>
       <c r="B124" t="n">
-        <v>109.76831994171229</v>
+        <v>159.83560321927834</v>
       </c>
     </row>
     <row r="125">
@@ -1069,7 +1069,7 @@
         <v>34186.0</v>
       </c>
       <c r="B125" t="n">
-        <v>29.48282360638045</v>
+        <v>159.3648684054692</v>
       </c>
     </row>
     <row r="126">
@@ -1077,7 +1077,7 @@
         <v>34189.0</v>
       </c>
       <c r="B126" t="n">
-        <v>37.000054645806614</v>
+        <v>159.41859476443975</v>
       </c>
     </row>
     <row r="127">
@@ -1085,7 +1085,7 @@
         <v>34192.0</v>
       </c>
       <c r="B127" t="n">
-        <v>29.327542065538427</v>
+        <v>159.36629210946214</v>
       </c>
     </row>
     <row r="128">
@@ -1093,7 +1093,7 @@
         <v>34196.0</v>
       </c>
       <c r="B128" t="n">
-        <v>23.44909434291132</v>
+        <v>159.32303430024456</v>
       </c>
     </row>
     <row r="129">
@@ -1101,7 +1101,7 @@
         <v>34198.0</v>
       </c>
       <c r="B129" t="n">
-        <v>20.255765686885322</v>
+        <v>159.29826270724888</v>
       </c>
     </row>
     <row r="130">
@@ -1109,7 +1109,7 @@
         <v>34199.0</v>
       </c>
       <c r="B130" t="n">
-        <v>15.885919665150402</v>
+        <v>159.26328321791655</v>
       </c>
     </row>
     <row r="131">
@@ -1117,7 +1117,7 @@
         <v>34202.0</v>
       </c>
       <c r="B131" t="n">
-        <v>15.499499921869303</v>
+        <v>159.26035564019307</v>
       </c>
     </row>
     <row r="132">
@@ -1125,7 +1125,7 @@
         <v>34203.0</v>
       </c>
       <c r="B132" t="n">
-        <v>15.34675461843683</v>
+        <v>159.2594150611197</v>
       </c>
     </row>
     <row r="133">
@@ -1133,7 +1133,7 @@
         <v>34204.0</v>
       </c>
       <c r="B133" t="n">
-        <v>14.667902439953883</v>
+        <v>159.25430479377428</v>
       </c>
     </row>
     <row r="134">
@@ -1141,7 +1141,7 @@
         <v>34206.0</v>
       </c>
       <c r="B134" t="n">
-        <v>14.34522042872725</v>
+        <v>159.25187376673537</v>
       </c>
     </row>
     <row r="135">
@@ -1149,7 +1149,7 @@
         <v>34207.0</v>
       </c>
       <c r="B135" t="n">
-        <v>14.116565946685482</v>
+        <v>159.2502500045303</v>
       </c>
     </row>
     <row r="136">
@@ -1157,7 +1157,7 @@
         <v>34208.0</v>
       </c>
       <c r="B136" t="n">
-        <v>13.273160093024407</v>
+        <v>159.24395016530963</v>
       </c>
     </row>
     <row r="137">
@@ -1165,7 +1165,7 @@
         <v>34211.0</v>
       </c>
       <c r="B137" t="n">
-        <v>13.062100393452697</v>
+        <v>159.24245049771466</v>
       </c>
     </row>
     <row r="138">
@@ -1173,7 +1173,7 @@
         <v>34212.0</v>
       </c>
       <c r="B138" t="n">
-        <v>12.89329012141776</v>
+        <v>159.2416869608533</v>
       </c>
     </row>
     <row r="139">
@@ -1181,7 +1181,7 @@
         <v>34214.0</v>
       </c>
       <c r="B139" t="n">
-        <v>12.683055490604447</v>
+        <v>159.2405507798929</v>
       </c>
     </row>
     <row r="140">
@@ -1189,7 +1189,7 @@
         <v>34216.0</v>
       </c>
       <c r="B140" t="n">
-        <v>12.622381305089451</v>
+        <v>159.24074368570294</v>
       </c>
     </row>
     <row r="141">
@@ -1197,7 +1197,7 @@
         <v>34218.0</v>
       </c>
       <c r="B141" t="n">
-        <v>12.661030394288169</v>
+        <v>159.24145499287044</v>
       </c>
     </row>
     <row r="142">
@@ -1205,7 +1205,7 @@
         <v>34219.0</v>
       </c>
       <c r="B142" t="n">
-        <v>51.38355003916426</v>
+        <v>159.52198671468523</v>
       </c>
     </row>
     <row r="143">
@@ -1213,7 +1213,7 @@
         <v>34222.0</v>
       </c>
       <c r="B143" t="n">
-        <v>58.2792020031001</v>
+        <v>159.56391978850397</v>
       </c>
     </row>
     <row r="144">
@@ -1221,7 +1221,7 @@
         <v>34223.0</v>
       </c>
       <c r="B144" t="n">
-        <v>32.30454887759421</v>
+        <v>159.39777983821693</v>
       </c>
     </row>
     <row r="145">
@@ -1229,7 +1229,7 @@
         <v>34224.0</v>
       </c>
       <c r="B145" t="n">
-        <v>158.9224646590733</v>
+        <v>160.126292590473</v>
       </c>
     </row>
     <row r="146">
@@ -1237,7 +1237,7 @@
         <v>34229.0</v>
       </c>
       <c r="B146" t="n">
-        <v>92.76339393571814</v>
+        <v>159.75948937054943</v>
       </c>
     </row>
     <row r="147">
@@ -1245,7 +1245,7 @@
         <v>34230.0</v>
       </c>
       <c r="B147" t="n">
-        <v>58.76300532272761</v>
+        <v>159.56965641475918</v>
       </c>
     </row>
     <row r="148">
@@ -1253,7 +1253,7 @@
         <v>34231.0</v>
       </c>
       <c r="B148" t="n">
-        <v>35.28762046452894</v>
+        <v>159.422169840972</v>
       </c>
     </row>
     <row r="149">
@@ -1261,7 +1261,7 @@
         <v>34234.0</v>
       </c>
       <c r="B149" t="n">
-        <v>29.773360894701625</v>
+        <v>159.38372821972868</v>
       </c>
     </row>
     <row r="150">
@@ -1269,7 +1269,7 @@
         <v>34235.0</v>
       </c>
       <c r="B150" t="n">
-        <v>27.320727805909858</v>
+        <v>159.36653292787628</v>
       </c>
     </row>
     <row r="151">
@@ -1277,7 +1277,7 @@
         <v>34237.0</v>
       </c>
       <c r="B151" t="n">
-        <v>22.637199928394086</v>
+        <v>159.33171564089025</v>
       </c>
     </row>
     <row r="152">
@@ -1285,7 +1285,7 @@
         <v>34239.0</v>
       </c>
       <c r="B152" t="n">
-        <v>20.242184314441865</v>
+        <v>159.31351668870053</v>
       </c>
     </row>
     <row r="153">
@@ -1293,7 +1293,7 @@
         <v>34241.0</v>
       </c>
       <c r="B153" t="n">
-        <v>20.32700540320663</v>
+        <v>159.3145624446483</v>
       </c>
     </row>
     <row r="154">
@@ -1301,7 +1301,7 @@
         <v>34242.0</v>
       </c>
       <c r="B154" t="n">
-        <v>105.7720491923121</v>
+        <v>159.83464309821315</v>
       </c>
     </row>
     <row r="155">
@@ -1309,7 +1309,7 @@
         <v>34245.0</v>
       </c>
       <c r="B155" t="n">
-        <v>64.9177533249393</v>
+        <v>159.61092751855517</v>
       </c>
     </row>
     <row r="156">
@@ -1317,7 +1317,7 @@
         <v>34246.0</v>
       </c>
       <c r="B156" t="n">
-        <v>66.70574987103738</v>
+        <v>159.62154482247297</v>
       </c>
     </row>
     <row r="157">
@@ -1325,7 +1325,7 @@
         <v>34247.0</v>
       </c>
       <c r="B157" t="n">
-        <v>156.46533226184874</v>
+        <v>160.1184921238327</v>
       </c>
     </row>
     <row r="158">
@@ -1333,7 +1333,7 @@
         <v>34250.0</v>
       </c>
       <c r="B158" t="n">
-        <v>89.64645052826714</v>
+        <v>159.75003886907226</v>
       </c>
     </row>
     <row r="159">
@@ -1341,7 +1341,7 @@
         <v>34251.0</v>
       </c>
       <c r="B159" t="n">
-        <v>68.24701073999408</v>
+        <v>159.63212164738613</v>
       </c>
     </row>
     <row r="160">
@@ -1349,7 +1349,7 @@
         <v>34252.0</v>
       </c>
       <c r="B160" t="n">
-        <v>98.84775324900919</v>
+        <v>159.80100209742736</v>
       </c>
     </row>
     <row r="161">
@@ -1357,7 +1357,7 @@
         <v>34255.0</v>
       </c>
       <c r="B161" t="n">
-        <v>72.00877185069162</v>
+        <v>159.6548084755632</v>
       </c>
     </row>
     <row r="162">
@@ -1365,7 +1365,7 @@
         <v>34256.0</v>
       </c>
       <c r="B162" t="n">
-        <v>39.565115856041515</v>
+        <v>159.45973802240565</v>
       </c>
     </row>
     <row r="163">
@@ -1373,7 +1373,7 @@
         <v>34258.0</v>
       </c>
       <c r="B163" t="n">
-        <v>30.18928406459066</v>
+        <v>159.3958338721038</v>
       </c>
     </row>
     <row r="164">
@@ -1381,7 +1381,7 @@
         <v>34260.0</v>
       </c>
       <c r="B164" t="n">
-        <v>27.473392644073787</v>
+        <v>159.3767816081392</v>
       </c>
     </row>
     <row r="165">
@@ -1389,7 +1389,7 @@
         <v>34262.0</v>
       </c>
       <c r="B165" t="n">
-        <v>26.520496023782176</v>
+        <v>159.3700753493466</v>
       </c>
     </row>
     <row r="166">
@@ -1397,7 +1397,7 @@
         <v>34263.0</v>
       </c>
       <c r="B166" t="n">
-        <v>23.662053048225676</v>
+        <v>159.34951906883447</v>
       </c>
     </row>
     <row r="167">
@@ -1405,7 +1405,7 @@
         <v>34266.0</v>
       </c>
       <c r="B167" t="n">
-        <v>22.580327306710696</v>
+        <v>159.34150788719555</v>
       </c>
     </row>
     <row r="168">
@@ -1413,7 +1413,7 @@
         <v>34267.0</v>
       </c>
       <c r="B168" t="n">
-        <v>21.685150043851188</v>
+        <v>159.33486080343013</v>
       </c>
     </row>
     <row r="169">
@@ -1421,7 +1421,7 @@
         <v>34268.0</v>
       </c>
       <c r="B169" t="n">
-        <v>20.224357014408508</v>
+        <v>159.32398493916276</v>
       </c>
     </row>
     <row r="170">
@@ -1429,7 +1429,7 @@
         <v>34270.0</v>
       </c>
       <c r="B170" t="n">
-        <v>19.753317252036677</v>
+        <v>159.32056311497576</v>
       </c>
     </row>
     <row r="171">
@@ -1437,7 +1437,7 @@
         <v>34271.0</v>
       </c>
       <c r="B171" t="n">
-        <v>19.38452363836378</v>
+        <v>159.31794782541786</v>
       </c>
     </row>
     <row r="172">
@@ -1445,7 +1445,7 @@
         <v>34272.0</v>
       </c>
       <c r="B172" t="n">
-        <v>18.719996083606787</v>
+        <v>159.31363865020222</v>
       </c>
     </row>
     <row r="173">
@@ -1453,7 +1453,7 @@
         <v>34275.0</v>
       </c>
       <c r="B173" t="n">
-        <v>18.446747808620238</v>
+        <v>159.3117678324387</v>
       </c>
     </row>
     <row r="174">
@@ -1461,7 +1461,7 @@
         <v>34276.0</v>
       </c>
       <c r="B174" t="n">
-        <v>18.29481430009455</v>
+        <v>159.31125302421617</v>
       </c>
     </row>
     <row r="175">
@@ -1469,7 +1469,7 @@
         <v>34278.0</v>
       </c>
       <c r="B175" t="n">
-        <v>17.804767500105992</v>
+        <v>159.30794567087528</v>
       </c>
     </row>
     <row r="176">
@@ -1477,7 +1477,7 @@
         <v>34280.0</v>
       </c>
       <c r="B176" t="n">
-        <v>18.217818973106723</v>
+        <v>159.31208506074563</v>
       </c>
     </row>
     <row r="177">
@@ -1485,7 +1485,7 @@
         <v>34282.0</v>
       </c>
       <c r="B177" t="n">
-        <v>23.825874300095453</v>
+        <v>159.35699118935844</v>
       </c>
     </row>
     <row r="178">
@@ -1493,7 +1493,7 @@
         <v>34283.0</v>
       </c>
       <c r="B178" t="n">
-        <v>25.011941097622135</v>
+        <v>159.3671342100544</v>
       </c>
     </row>
     <row r="179">
@@ -1501,7 +1501,7 @@
         <v>34286.0</v>
       </c>
       <c r="B179" t="n">
-        <v>117.88053552354613</v>
+        <v>159.91424702235844</v>
       </c>
     </row>
     <row r="180">
@@ -1509,7 +1509,7 @@
         <v>34287.0</v>
       </c>
       <c r="B180" t="n">
-        <v>97.57090702294663</v>
+        <v>159.80572225688599</v>
       </c>
     </row>
     <row r="181">
@@ -1517,7 +1517,7 @@
         <v>34288.0</v>
       </c>
       <c r="B181" t="n">
-        <v>36.30354772073944</v>
+        <v>159.4494665602828</v>
       </c>
     </row>
     <row r="182">
@@ -1525,7 +1525,7 @@
         <v>34290.0</v>
       </c>
       <c r="B182" t="n">
-        <v>33.25406401669225</v>
+        <v>159.42882712681862</v>
       </c>
     </row>
     <row r="183">
@@ -1533,7 +1533,7 @@
         <v>34291.0</v>
       </c>
       <c r="B183" t="n">
-        <v>28.945795591318422</v>
+        <v>159.39851252482524</v>
       </c>
     </row>
     <row r="184">
@@ -1541,7 +1541,7 @@
         <v>34292.0</v>
       </c>
       <c r="B184" t="n">
-        <v>23.515363383068642</v>
+        <v>159.35898910315677</v>
       </c>
     </row>
     <row r="185">
@@ -1549,7 +1549,7 @@
         <v>34295.0</v>
       </c>
       <c r="B185" t="n">
-        <v>23.442596275373894</v>
+        <v>159.35879381970324</v>
       </c>
     </row>
     <row r="186">
@@ -1557,7 +1557,7 @@
         <v>34296.0</v>
       </c>
       <c r="B186" t="n">
-        <v>21.124759538662484</v>
+        <v>159.34140839192222</v>
       </c>
     </row>
     <row r="187">
@@ -1565,7 +1565,7 @@
         <v>34298.0</v>
       </c>
       <c r="B187" t="n">
-        <v>28.45008150077469</v>
+        <v>159.3978184769383</v>
       </c>
     </row>
     <row r="188">
@@ -1573,7 +1573,7 @@
         <v>34300.0</v>
       </c>
       <c r="B188" t="n">
-        <v>31.05370477136108</v>
+        <v>159.4173231163842</v>
       </c>
     </row>
     <row r="189">
@@ -1581,7 +1581,7 @@
         <v>34302.0</v>
       </c>
       <c r="B189" t="n">
-        <v>41.88960063510462</v>
+        <v>159.49132918588342</v>
       </c>
     </row>
     <row r="190">
@@ -1589,7 +1589,7 @@
         <v>34303.0</v>
       </c>
       <c r="B190" t="n">
-        <v>99.80550509223019</v>
+        <v>159.8240055207055</v>
       </c>
     </row>
     <row r="191">
@@ -1597,7 +1597,7 @@
         <v>34306.0</v>
       </c>
       <c r="B191" t="n">
-        <v>116.32947341811764</v>
+        <v>159.91281568662987</v>
       </c>
     </row>
     <row r="192">
@@ -1605,7 +1605,7 @@
         <v>34307.0</v>
       </c>
       <c r="B192" t="n">
-        <v>95.2602984943291</v>
+        <v>159.8003530969494</v>
       </c>
     </row>
     <row r="193">
@@ -1613,7 +1613,7 @@
         <v>34308.0</v>
       </c>
       <c r="B193" t="n">
-        <v>78.27584775619614</v>
+        <v>159.70889542146872</v>
       </c>
     </row>
     <row r="194">
@@ -1621,7 +1621,7 @@
         <v>34310.0</v>
       </c>
       <c r="B194" t="n">
-        <v>97.77911734898743</v>
+        <v>159.81491036033367</v>
       </c>
     </row>
     <row r="195">
@@ -1629,7 +1629,7 @@
         <v>34311.0</v>
       </c>
       <c r="B195" t="n">
-        <v>227.04029225354236</v>
+        <v>160.67691823908143</v>
       </c>
     </row>
     <row r="196">
@@ -1637,7 +1637,7 @@
         <v>34312.0</v>
       </c>
       <c r="B196" t="n">
-        <v>101.99419007303831</v>
+        <v>159.83886440726712</v>
       </c>
     </row>
     <row r="197">
@@ -1645,7 +1645,7 @@
         <v>34315.0</v>
       </c>
       <c r="B197" t="n">
-        <v>160.68629661630553</v>
+        <v>160.1657697404502</v>
       </c>
     </row>
     <row r="198">
@@ -1653,7 +1653,7 @@
         <v>34316.0</v>
       </c>
       <c r="B198" t="n">
-        <v>183.57931871017925</v>
+        <v>160.31379217846313</v>
       </c>
     </row>
     <row r="199">
@@ -1661,7 +1661,7 @@
         <v>34318.0</v>
       </c>
       <c r="B199" t="n">
-        <v>156.53209030204374</v>
+        <v>160.14217090020117</v>
       </c>
     </row>
     <row r="200">
@@ -1669,7 +1669,7 @@
         <v>34320.0</v>
       </c>
       <c r="B200" t="n">
-        <v>240.42236031766552</v>
+        <v>160.83675901026947</v>
       </c>
     </row>
     <row r="201">
@@ -1677,7 +1677,7 @@
         <v>34323.0</v>
       </c>
       <c r="B201" t="n">
-        <v>143.0503591325899</v>
+        <v>160.06537593145748</v>
       </c>
     </row>
     <row r="202">
@@ -1685,7 +1685,7 @@
         <v>34324.0</v>
       </c>
       <c r="B202" t="n">
-        <v>105.35256512887844</v>
+        <v>159.86100392465985</v>
       </c>
     </row>
     <row r="203">
@@ -1693,7 +1693,7 @@
         <v>34327.0</v>
       </c>
       <c r="B203" t="n">
-        <v>87.84116492311185</v>
+        <v>159.76745756328725</v>
       </c>
     </row>
     <row r="204">
@@ -1701,7 +1701,7 @@
         <v>34328.0</v>
       </c>
       <c r="B204" t="n">
-        <v>65.48598463314558</v>
+        <v>159.64391758485357</v>
       </c>
     </row>
     <row r="205">
@@ -1709,7 +1709,7 @@
         <v>34329.0</v>
       </c>
       <c r="B205" t="n">
-        <v>49.249963553829474</v>
+        <v>159.54817622659516</v>
       </c>
     </row>
     <row r="206">
@@ -1717,7 +1717,7 @@
         <v>34331.0</v>
       </c>
       <c r="B206" t="n">
-        <v>130.64695545618906</v>
+        <v>159.99904929049927</v>
       </c>
     </row>
     <row r="207">
@@ -1725,7 +1725,7 @@
         <v>34332.0</v>
       </c>
       <c r="B207" t="n">
-        <v>193.9969217644983</v>
+        <v>160.39308577281176</v>
       </c>
     </row>
     <row r="208">
@@ -1733,7 +1733,7 @@
         <v>34333.0</v>
       </c>
       <c r="B208" t="n">
-        <v>125.60278079015713</v>
+        <v>159.97289703822216</v>
       </c>
     </row>
     <row r="209">
@@ -1741,7 +1741,7 @@
         <v>34336.0</v>
       </c>
       <c r="B209" t="n">
-        <v>203.7703631362196</v>
+        <v>160.47011911964367</v>
       </c>
     </row>
     <row r="210">
@@ -1749,7 +1749,7 @@
         <v>34337.0</v>
       </c>
       <c r="B210" t="n">
-        <v>190.5565537495724</v>
+        <v>160.36974560842583</v>
       </c>
     </row>
     <row r="211">
@@ -1757,7 +1757,7 @@
         <v>34339.0</v>
       </c>
       <c r="B211" t="n">
-        <v>132.12245183539832</v>
+        <v>160.01022869573677</v>
       </c>
     </row>
     <row r="212">
@@ -1765,7 +1765,7 @@
         <v>34341.0</v>
       </c>
       <c r="B212" t="n">
-        <v>85.53683256155256</v>
+        <v>159.76028755186132</v>
       </c>
     </row>
     <row r="213">
@@ -1773,7 +1773,7 @@
         <v>34343.0</v>
       </c>
       <c r="B213" t="n">
-        <v>151.5333755036639</v>
+        <v>160.12078714809778</v>
       </c>
     </row>
     <row r="214">
@@ -1781,7 +1781,7 @@
         <v>34344.0</v>
       </c>
       <c r="B214" t="n">
-        <v>190.42758653736874</v>
+        <v>160.37135177742587</v>
       </c>
     </row>
     <row r="215">
@@ -1789,7 +1789,7 @@
         <v>34347.0</v>
       </c>
       <c r="B215" t="n">
-        <v>192.34776735270052</v>
+        <v>160.38564337063787</v>
       </c>
     </row>
     <row r="216">
@@ -1797,7 +1797,7 @@
         <v>34348.0</v>
       </c>
       <c r="B216" t="n">
-        <v>163.61987613587888</v>
+        <v>160.19455949886574</v>
       </c>
     </row>
     <row r="217">
@@ -1805,7 +1805,7 @@
         <v>34349.0</v>
       </c>
       <c r="B217" t="n">
-        <v>78.1863765833584</v>
+        <v>159.72298631215648</v>
       </c>
     </row>
     <row r="218">
@@ -1813,7 +1813,7 @@
         <v>34351.0</v>
       </c>
       <c r="B218" t="n">
-        <v>72.56987863581989</v>
+        <v>159.69220415346226</v>
       </c>
     </row>
     <row r="219">
@@ -1821,7 +1821,7 @@
         <v>34352.0</v>
       </c>
       <c r="B219" t="n">
-        <v>121.90635040716788</v>
+        <v>159.9587411085485</v>
       </c>
     </row>
     <row r="220">
@@ -1829,7 +1829,7 @@
         <v>34353.0</v>
       </c>
       <c r="B220" t="n">
-        <v>65.2815147633721</v>
+        <v>159.65242472355268</v>
       </c>
     </row>
     <row r="221">
@@ -1837,7 +1837,7 @@
         <v>34356.0</v>
       </c>
       <c r="B221" t="n">
-        <v>115.5233677610543</v>
+        <v>159.925813908794</v>
       </c>
     </row>
     <row r="222">
@@ -1845,7 +1845,7 @@
         <v>34357.0</v>
       </c>
       <c r="B222" t="n">
-        <v>114.26645969616428</v>
+        <v>159.91977804072792</v>
       </c>
     </row>
     <row r="223">
@@ -1853,7 +1853,7 @@
         <v>34359.0</v>
       </c>
       <c r="B223" t="n">
-        <v>221.5948599139605</v>
+        <v>160.63573799682692</v>
       </c>
     </row>
     <row r="224">
@@ -1861,7 +1861,7 @@
         <v>34361.0</v>
       </c>
       <c r="B224" t="n">
-        <v>159.55339734189405</v>
+        <v>160.1745331677868</v>
       </c>
     </row>
     <row r="225">
@@ -1869,7 +1869,7 @@
         <v>34363.0</v>
       </c>
       <c r="B225" t="n">
-        <v>164.07679439639776</v>
+        <v>160.2023187020829</v>
       </c>
     </row>
     <row r="226">
@@ -1877,7 +1877,7 @@
         <v>34364.0</v>
       </c>
       <c r="B226" t="n">
-        <v>145.5597837726366</v>
+        <v>160.09414910925446</v>
       </c>
     </row>
     <row r="227">
@@ -1885,7 +1885,7 @@
         <v>34367.0</v>
       </c>
       <c r="B227" t="n">
-        <v>103.34883605122683</v>
+        <v>159.86464966796683</v>
       </c>
     </row>
     <row r="228">
@@ -1893,7 +1893,7 @@
         <v>34368.0</v>
       </c>
       <c r="B228" t="n">
-        <v>151.20046381554533</v>
+        <v>160.12723812929892</v>
       </c>
     </row>
     <row r="229">
@@ -1901,7 +1901,7 @@
         <v>34369.0</v>
       </c>
       <c r="B229" t="n">
-        <v>100.22942643638821</v>
+        <v>159.84906664069987</v>
       </c>
     </row>
     <row r="230">
@@ -1909,7 +1909,7 @@
         <v>34371.0</v>
       </c>
       <c r="B230" t="n">
-        <v>88.48330078923358</v>
+        <v>159.78648422068466</v>
       </c>
     </row>
     <row r="231">
@@ -1917,7 +1917,7 @@
         <v>34372.0</v>
       </c>
       <c r="B231" t="n">
-        <v>67.89904879907839</v>
+        <v>159.67343048677677</v>
       </c>
     </row>
     <row r="232">
@@ -1925,7 +1925,7 @@
         <v>34373.0</v>
       </c>
       <c r="B232" t="n">
-        <v>52.93518419926889</v>
+        <v>159.58700750438305</v>
       </c>
     </row>
     <row r="233">
@@ -1933,7 +1933,7 @@
         <v>34376.0</v>
       </c>
       <c r="B233" t="n">
-        <v>46.8588954144309</v>
+        <v>159.5499056584106</v>
       </c>
     </row>
     <row r="234">
@@ -1941,7 +1941,7 @@
         <v>34377.0</v>
       </c>
       <c r="B234" t="n">
-        <v>38.595105936625735</v>
+        <v>159.4972390762424</v>
       </c>
     </row>
     <row r="235">
@@ -1949,7 +1949,7 @@
         <v>34379.0</v>
       </c>
       <c r="B235" t="n">
-        <v>32.42369459749188</v>
+        <v>159.45580214707542</v>
       </c>
     </row>
     <row r="236">
@@ -1957,7 +1957,7 @@
         <v>34381.0</v>
       </c>
       <c r="B236" t="n">
-        <v>31.159618939345663</v>
+        <v>159.44760831751813</v>
       </c>
     </row>
     <row r="237">
@@ -1965,7 +1965,7 @@
         <v>34383.0</v>
       </c>
       <c r="B237" t="n">
-        <v>29.47197234238023</v>
+        <v>159.435891961498</v>
       </c>
     </row>
     <row r="238">
@@ -1973,7 +1973,7 @@
         <v>34384.0</v>
       </c>
       <c r="B238" t="n">
-        <v>26.245081759180437</v>
+        <v>159.41331177043008</v>
       </c>
     </row>
     <row r="239">
@@ -1981,7 +1981,7 @@
         <v>34387.0</v>
       </c>
       <c r="B239" t="n">
-        <v>29.290422151330848</v>
+        <v>159.43604061152394</v>
       </c>
     </row>
     <row r="240">
@@ -1989,7 +1989,7 @@
         <v>34388.0</v>
       </c>
       <c r="B240" t="n">
-        <v>28.317990505736198</v>
+        <v>159.4293407540775</v>
       </c>
     </row>
     <row r="241">
@@ -1997,7 +1997,7 @@
         <v>34389.0</v>
       </c>
       <c r="B241" t="n">
-        <v>85.83478779982724</v>
+        <v>159.7789084740036</v>
       </c>
     </row>
     <row r="242">
@@ -2005,7 +2005,7 @@
         <v>34391.0</v>
       </c>
       <c r="B242" t="n">
-        <v>196.8671960368207</v>
+        <v>160.43320452559823</v>
       </c>
     </row>
     <row r="243">
@@ -2013,7 +2013,7 @@
         <v>34392.0</v>
       </c>
       <c r="B243" t="n">
-        <v>247.53664407256042</v>
+        <v>160.95408276115919</v>
       </c>
     </row>
     <row r="244">
@@ -2021,7 +2021,7 @@
         <v>34393.0</v>
       </c>
       <c r="B244" t="n">
-        <v>155.3701252818982</v>
+        <v>160.16099300590466</v>
       </c>
     </row>
     <row r="245">
@@ -2029,7 +2029,7 @@
         <v>34397.0</v>
       </c>
       <c r="B245" t="n">
-        <v>114.57447957125336</v>
+        <v>159.93497053302727</v>
       </c>
     </row>
     <row r="246">
@@ -2037,7 +2037,7 @@
         <v>34398.0</v>
       </c>
       <c r="B246" t="n">
-        <v>120.41887212850104</v>
+        <v>159.96696718822284</v>
       </c>
     </row>
     <row r="247">
@@ -2045,7 +2045,7 @@
         <v>34400.0</v>
       </c>
       <c r="B247" t="n">
-        <v>144.48680764184545</v>
+        <v>160.09988970704296</v>
       </c>
     </row>
     <row r="248">
@@ -2053,7 +2053,7 @@
         <v>34402.0</v>
       </c>
       <c r="B248" t="n">
-        <v>56.31325267354398</v>
+        <v>159.6173853069825</v>
       </c>
     </row>
     <row r="249">
@@ -2061,7 +2061,7 @@
         <v>34404.0</v>
       </c>
       <c r="B249" t="n">
-        <v>74.56198638766917</v>
+        <v>159.72221381066572</v>
       </c>
     </row>
     <row r="250">
@@ -2069,7 +2069,7 @@
         <v>34405.0</v>
       </c>
       <c r="B250" t="n">
-        <v>124.98711045235433</v>
+        <v>159.9943428873608</v>
       </c>
     </row>
     <row r="251">
@@ -2077,7 +2077,7 @@
         <v>34408.0</v>
       </c>
       <c r="B251" t="n">
-        <v>67.29307383000643</v>
+        <v>159.68289290888455</v>
       </c>
     </row>
     <row r="252">
@@ -2085,7 +2085,7 @@
         <v>34409.0</v>
       </c>
       <c r="B252" t="n">
-        <v>55.99198555081521</v>
+        <v>159.61763683825424</v>
       </c>
     </row>
     <row r="253">
@@ -2093,7 +2093,7 @@
         <v>34410.0</v>
       </c>
       <c r="B253" t="n">
-        <v>54.854578579763306</v>
+        <v>159.61156450551937</v>
       </c>
     </row>
     <row r="254">
@@ -2101,7 +2101,7 @@
         <v>34412.0</v>
       </c>
       <c r="B254" t="n">
-        <v>42.588873452275244</v>
+        <v>159.53577444667548</v>
       </c>
     </row>
     <row r="255">
@@ -2109,7 +2109,7 @@
         <v>34413.0</v>
       </c>
       <c r="B255" t="n">
-        <v>36.43780294802518</v>
+        <v>159.49548754694612</v>
       </c>
     </row>
     <row r="256">
@@ -2117,7 +2117,7 @@
         <v>34414.0</v>
       </c>
       <c r="B256" t="n">
-        <v>128.51473794679455</v>
+        <v>160.01690211755735</v>
       </c>
     </row>
     <row r="257">
@@ -2125,7 +2125,7 @@
         <v>34418.0</v>
       </c>
       <c r="B257" t="n">
-        <v>84.3245840785906</v>
+        <v>159.7806648455058</v>
       </c>
     </row>
     <row r="258">
@@ -2133,7 +2133,7 @@
         <v>34419.0</v>
       </c>
       <c r="B258" t="n">
-        <v>61.00942039217095</v>
+        <v>159.6511210013708</v>
       </c>
     </row>
     <row r="259">
@@ -2141,7 +2141,7 @@
         <v>34421.0</v>
       </c>
       <c r="B259" t="n">
-        <v>47.08039605008067</v>
+        <v>159.56795707585076</v>
       </c>
     </row>
     <row r="260">
@@ -2149,7 +2149,7 @@
         <v>34423.0</v>
       </c>
       <c r="B260" t="n">
-        <v>145.2051332677235</v>
+        <v>160.11174174037205</v>
       </c>
     </row>
     <row r="261">
@@ -2157,7 +2157,7 @@
         <v>34425.0</v>
       </c>
       <c r="B261" t="n">
-        <v>103.78562246919219</v>
+        <v>159.8872930541659</v>
       </c>
     </row>
     <row r="262">
@@ -2165,7 +2165,7 @@
         <v>34426.0</v>
       </c>
       <c r="B262" t="n">
-        <v>70.85643979538186</v>
+        <v>159.7101438865921</v>
       </c>
     </row>
     <row r="263">
@@ -2173,7 +2173,7 @@
         <v>34429.0</v>
       </c>
       <c r="B263" t="n">
-        <v>77.52419632670745</v>
+        <v>159.74748358297538</v>
       </c>
     </row>
     <row r="264">
@@ -2181,7 +2181,7 @@
         <v>34430.0</v>
       </c>
       <c r="B264" t="n">
-        <v>70.13161207916492</v>
+        <v>159.70679498553702</v>
       </c>
     </row>
     <row r="265">
@@ -2189,7 +2189,7 @@
         <v>34431.0</v>
       </c>
       <c r="B265" t="n">
-        <v>127.76151189632432</v>
+        <v>160.01797133572583</v>
       </c>
     </row>
     <row r="266">
@@ -2197,7 +2197,7 @@
         <v>34433.0</v>
       </c>
       <c r="B266" t="n">
-        <v>75.3797395753998</v>
+        <v>159.73709309838577</v>
       </c>
     </row>
     <row r="267">
@@ -2205,7 +2205,7 @@
         <v>34434.0</v>
       </c>
       <c r="B267" t="n">
-        <v>57.85883584325842</v>
+        <v>159.6377142527989</v>
       </c>
     </row>
     <row r="268">
@@ -2213,7 +2213,7 @@
         <v>34435.0</v>
       </c>
       <c r="B268" t="n">
-        <v>44.018159391989165</v>
+        <v>159.55402874310047</v>
       </c>
     </row>
     <row r="269">
@@ -2221,7 +2221,7 @@
         <v>34438.0</v>
       </c>
       <c r="B269" t="n">
-        <v>36.759401892728626</v>
+        <v>159.5067635248568</v>
       </c>
     </row>
     <row r="270">
@@ -2229,7 +2229,7 @@
         <v>34439.0</v>
       </c>
       <c r="B270" t="n">
-        <v>29.854131116002616</v>
+        <v>159.45945395111798</v>
       </c>
     </row>
     <row r="271">
@@ -2237,7 +2237,7 @@
         <v>34441.0</v>
       </c>
       <c r="B271" t="n">
-        <v>24.901398543782623</v>
+        <v>159.42369757811775</v>
       </c>
     </row>
     <row r="272">
@@ -2245,7 +2245,7 @@
         <v>34443.0</v>
       </c>
       <c r="B272" t="n">
-        <v>27.399400225929455</v>
+        <v>159.44306762621358</v>
       </c>
     </row>
     <row r="273">
@@ -2253,7 +2253,7 @@
         <v>34445.0</v>
       </c>
       <c r="B273" t="n">
-        <v>36.25377556905447</v>
+        <v>159.5058935056849</v>
       </c>
     </row>
     <row r="274">
@@ -2261,7 +2261,7 @@
         <v>34446.0</v>
       </c>
       <c r="B274" t="n">
-        <v>44.71429024333255</v>
+        <v>159.56245658864904</v>
       </c>
     </row>
     <row r="275">
@@ -2269,7 +2269,7 @@
         <v>34449.0</v>
       </c>
       <c r="B275" t="n">
-        <v>45.83666760968455</v>
+        <v>159.56992681301347</v>
       </c>
     </row>
     <row r="276">
@@ -2277,7 +2277,7 @@
         <v>34450.0</v>
       </c>
       <c r="B276" t="n">
-        <v>36.535471197469704</v>
+        <v>159.50962098698972</v>
       </c>
     </row>
     <row r="277">
@@ -2285,7 +2285,7 @@
         <v>34451.0</v>
       </c>
       <c r="B277" t="n">
-        <v>49.172835776287506</v>
+        <v>159.5918373235196</v>
       </c>
     </row>
     <row r="278">
@@ -2293,7 +2293,7 @@
         <v>34453.0</v>
       </c>
       <c r="B278" t="n">
-        <v>31.719223878933057</v>
+        <v>159.477473027407</v>
       </c>
     </row>
     <row r="279">
@@ -2301,7 +2301,7 @@
         <v>34454.0</v>
       </c>
       <c r="B279" t="n">
-        <v>25.669133667422855</v>
+        <v>159.43386967165512</v>
       </c>
     </row>
     <row r="280">
@@ -2309,7 +2309,7 @@
         <v>34455.0</v>
       </c>
       <c r="B280" t="n">
-        <v>20.88373839002342</v>
+        <v>159.39809173017952</v>
       </c>
     </row>
     <row r="281">
@@ -2317,7 +2317,7 @@
         <v>34458.0</v>
       </c>
       <c r="B281" t="n">
-        <v>23.262412159069104</v>
+        <v>159.4170440371446</v>
       </c>
     </row>
     <row r="282">
@@ -2325,7 +2325,7 @@
         <v>34459.0</v>
       </c>
       <c r="B282" t="n">
-        <v>29.200948566503925</v>
+        <v>159.4620540482702</v>
       </c>
     </row>
     <row r="283">
@@ -2333,7 +2333,7 @@
         <v>34461.0</v>
       </c>
       <c r="B283" t="n">
-        <v>20.522414609855524</v>
+        <v>159.39705396139297</v>
       </c>
     </row>
     <row r="284">
@@ -2341,7 +2341,7 @@
         <v>34463.0</v>
       </c>
       <c r="B284" t="n">
-        <v>18.30318680534827</v>
+        <v>159.3798665822671</v>
       </c>
     </row>
     <row r="285">
@@ -2349,7 +2349,7 @@
         <v>34465.0</v>
       </c>
       <c r="B285" t="n">
-        <v>17.51978683665886</v>
+        <v>159.37378222423388</v>
       </c>
     </row>
     <row r="286">
@@ -2357,7 +2357,7 @@
         <v>34466.0</v>
       </c>
       <c r="B286" t="n">
-        <v>19.721632367333346</v>
+        <v>159.39284617240347</v>
       </c>
     </row>
     <row r="287">
@@ -2365,7 +2365,7 @@
         <v>34469.0</v>
       </c>
       <c r="B287" t="n">
-        <v>24.308959010008834</v>
+        <v>159.42908470435142</v>
       </c>
     </row>
     <row r="288">
@@ -2373,7 +2373,7 @@
         <v>34470.0</v>
       </c>
       <c r="B288" t="n">
-        <v>21.465798145212467</v>
+        <v>159.40745293479569</v>
       </c>
     </row>
     <row r="289">
@@ -2381,7 +2381,7 @@
         <v>34471.0</v>
       </c>
       <c r="B289" t="n">
-        <v>17.2769603960335</v>
+        <v>159.37433769719058</v>
       </c>
     </row>
     <row r="290">
@@ -2389,7 +2389,7 @@
         <v>34473.0</v>
       </c>
       <c r="B290" t="n">
-        <v>16.681678702930316</v>
+        <v>159.36974088837914</v>
       </c>
     </row>
     <row r="291">
@@ -2397,7 +2397,7 @@
         <v>34474.0</v>
       </c>
       <c r="B291" t="n">
-        <v>16.592364175691436</v>
+        <v>159.3693597060228</v>
       </c>
     </row>
     <row r="292">
@@ -2405,7 +2405,7 @@
         <v>34475.0</v>
       </c>
       <c r="B292" t="n">
-        <v>24.9340539755197</v>
+        <v>159.4367533160944</v>
       </c>
     </row>
     <row r="293">
@@ -2413,7 +2413,7 @@
         <v>34478.0</v>
       </c>
       <c r="B293" t="n">
-        <v>20.242374171638414</v>
+        <v>159.40068651274177</v>
       </c>
     </row>
     <row r="294">
@@ -2421,7 +2421,7 @@
         <v>34479.0</v>
       </c>
       <c r="B294" t="n">
-        <v>16.737321569834357</v>
+        <v>159.37277621085633</v>
       </c>
     </row>
     <row r="295">
@@ -2429,7 +2429,7 @@
         <v>34481.0</v>
       </c>
       <c r="B295" t="n">
-        <v>15.647763465947962</v>
+        <v>159.3643262350168</v>
       </c>
     </row>
     <row r="296">
@@ -2437,7 +2437,7 @@
         <v>34483.0</v>
       </c>
       <c r="B296" t="n">
-        <v>14.94947243168916</v>
+        <v>159.35909965571886</v>
       </c>
     </row>
     <row r="297">
@@ -2445,7 +2445,7 @@
         <v>34485.0</v>
       </c>
       <c r="B297" t="n">
-        <v>14.797351363090531</v>
+        <v>159.3581603961306</v>
       </c>
     </row>
     <row r="298">
@@ -2453,7 +2453,7 @@
         <v>34486.0</v>
       </c>
       <c r="B298" t="n">
-        <v>16.047215829123623</v>
+        <v>159.36991284539994</v>
       </c>
     </row>
     <row r="299">
@@ -2461,7 +2461,7 @@
         <v>34489.0</v>
       </c>
       <c r="B299" t="n">
-        <v>18.829514019228842</v>
+        <v>159.393334150594</v>
       </c>
     </row>
     <row r="300">
@@ -2469,7 +2469,7 @@
         <v>34490.0</v>
       </c>
       <c r="B300" t="n">
-        <v>16.532283360894574</v>
+        <v>159.37472991080492</v>
       </c>
     </row>
     <row r="301">
@@ -2477,7 +2477,7 @@
         <v>34491.0</v>
       </c>
       <c r="B301" t="n">
-        <v>15.788651212076427</v>
+        <v>159.36919409923144</v>
       </c>
     </row>
     <row r="302">
@@ -2485,7 +2485,7 @@
         <v>34493.0</v>
       </c>
       <c r="B302" t="n">
-        <v>14.55559002477557</v>
+        <v>159.35901695795346</v>
       </c>
     </row>
     <row r="303">
@@ -2493,7 +2493,7 @@
         <v>34494.0</v>
       </c>
       <c r="B303" t="n">
-        <v>13.854427479115191</v>
+        <v>159.3533032158492</v>
       </c>
     </row>
     <row r="304">
@@ -2501,7 +2501,7 @@
         <v>34495.0</v>
       </c>
       <c r="B304" t="n">
-        <v>13.356809906728186</v>
+        <v>159.35005118153822</v>
       </c>
     </row>
     <row r="305">
@@ -2509,7 +2509,7 @@
         <v>34498.0</v>
       </c>
       <c r="B305" t="n">
-        <v>13.025298040502467</v>
+        <v>159.34749952522486</v>
       </c>
     </row>
     <row r="306">
@@ -2517,7 +2517,7 @@
         <v>34499.0</v>
       </c>
       <c r="B306" t="n">
-        <v>12.548307217425743</v>
+        <v>159.34400839460866</v>
       </c>
     </row>
     <row r="307">
@@ -2525,7 +2525,7 @@
         <v>34501.0</v>
       </c>
       <c r="B307" t="n">
-        <v>12.651931614534595</v>
+        <v>159.34566444538538</v>
       </c>
     </row>
     <row r="308">
@@ -2533,7 +2533,7 @@
         <v>34503.0</v>
       </c>
       <c r="B308" t="n">
-        <v>15.105305393808308</v>
+        <v>159.36778183338387</v>
       </c>
     </row>
     <row r="309">
@@ -2541,7 +2541,7 @@
         <v>34505.0</v>
       </c>
       <c r="B309" t="n">
-        <v>15.511622534485522</v>
+        <v>159.37161628033206</v>
       </c>
     </row>
     <row r="310">
@@ -2549,7 +2549,7 @@
         <v>34506.0</v>
       </c>
       <c r="B310" t="n">
-        <v>15.19014113848725</v>
+        <v>159.3699768665518</v>
       </c>
     </row>
     <row r="311">
@@ -2557,7 +2557,7 @@
         <v>34509.0</v>
       </c>
       <c r="B311" t="n">
-        <v>14.288842686183454</v>
+        <v>159.3625900600137</v>
       </c>
     </row>
     <row r="312">
@@ -2565,7 +2565,7 @@
         <v>34510.0</v>
       </c>
       <c r="B312" t="n">
-        <v>14.474692527033994</v>
+        <v>159.36456483631738</v>
       </c>
     </row>
     <row r="313">
@@ -2573,7 +2573,7 @@
         <v>34511.0</v>
       </c>
       <c r="B313" t="n">
-        <v>16.683314995030443</v>
+        <v>159.38407326678907</v>
       </c>
     </row>
     <row r="314">
@@ -2581,7 +2581,7 @@
         <v>34513.0</v>
       </c>
       <c r="B314" t="n">
-        <v>14.336815593408925</v>
+        <v>159.36447527034147</v>
       </c>
     </row>
     <row r="315">
@@ -2589,7 +2589,7 @@
         <v>34514.0</v>
       </c>
       <c r="B315" t="n">
-        <v>12.974611432843318</v>
+        <v>159.35293360561928</v>
       </c>
     </row>
     <row r="316">
@@ -2597,7 +2597,7 @@
         <v>34515.0</v>
       </c>
       <c r="B316" t="n">
-        <v>11.983062673862076</v>
+        <v>159.34521061809957</v>
       </c>
     </row>
     <row r="317">
@@ -2605,7 +2605,7 @@
         <v>34518.0</v>
       </c>
       <c r="B317" t="n">
-        <v>11.631617940293097</v>
+        <v>159.34241700932463</v>
       </c>
     </row>
     <row r="318">
@@ -2613,7 +2613,7 @@
         <v>34519.0</v>
       </c>
       <c r="B318" t="n">
-        <v>11.988356823421809</v>
+        <v>159.34636135138928</v>
       </c>
     </row>
     <row r="319">
@@ -2621,7 +2621,7 @@
         <v>34521.0</v>
       </c>
       <c r="B319" t="n">
-        <v>12.050220627790875</v>
+        <v>159.3476514547204</v>
       </c>
     </row>
     <row r="320">
@@ -2629,7 +2629,7 @@
         <v>34523.0</v>
       </c>
       <c r="B320" t="n">
-        <v>11.421783690598243</v>
+        <v>159.3427279060153</v>
       </c>
     </row>
     <row r="321">
@@ -2637,7 +2637,7 @@
         <v>34525.0</v>
       </c>
       <c r="B321" t="n">
-        <v>11.350703504225239</v>
+        <v>159.3424520778147</v>
       </c>
     </row>
     <row r="322">
@@ -2645,7 +2645,7 @@
         <v>34526.0</v>
       </c>
       <c r="B322" t="n">
-        <v>10.95267444534096</v>
+        <v>159.3399377573799</v>
       </c>
     </row>
     <row r="323">
@@ -2653,7 +2653,7 @@
         <v>34529.0</v>
       </c>
       <c r="B323" t="n">
-        <v>10.890953527408213</v>
+        <v>159.33974254616882</v>
       </c>
     </row>
     <row r="324">
@@ -2661,7 +2661,7 @@
         <v>34530.0</v>
       </c>
       <c r="B324" t="n">
-        <v>10.747218879170289</v>
+        <v>159.3387969278733</v>
       </c>
     </row>
     <row r="325">
@@ -2669,7 +2669,7 @@
         <v>34531.0</v>
       </c>
       <c r="B325" t="n">
-        <v>10.536361117209784</v>
+        <v>159.33760027109915</v>
       </c>
     </row>
     <row r="326">
@@ -2677,7 +2677,7 @@
         <v>34533.0</v>
       </c>
       <c r="B326" t="n">
-        <v>10.19831788477183</v>
+        <v>159.3348560638572</v>
       </c>
     </row>
     <row r="327">
@@ -2685,7 +2685,7 @@
         <v>34534.0</v>
       </c>
       <c r="B327" t="n">
-        <v>9.979840665966258</v>
+        <v>159.33320335420862</v>
       </c>
     </row>
     <row r="328">
@@ -2693,7 +2693,7 @@
         <v>34535.0</v>
       </c>
       <c r="B328" t="n">
-        <v>9.70374059267436</v>
+        <v>159.33174318728803</v>
       </c>
     </row>
     <row r="329">
@@ -2701,7 +2701,7 @@
         <v>34538.0</v>
       </c>
       <c r="B329" t="n">
-        <v>10.85752121234003</v>
+        <v>159.34274845242058</v>
       </c>
     </row>
     <row r="330">
@@ -2709,7 +2709,7 @@
         <v>34539.0</v>
       </c>
       <c r="B330" t="n">
-        <v>11.57427568679556</v>
+        <v>159.3499915842924</v>
       </c>
     </row>
     <row r="331">
@@ -2717,7 +2717,7 @@
         <v>34541.0</v>
       </c>
       <c r="B331" t="n">
-        <v>11.585538515835829</v>
+        <v>159.3508289487461</v>
       </c>
     </row>
     <row r="332">
@@ -2725,7 +2725,7 @@
         <v>34543.0</v>
       </c>
       <c r="B332" t="n">
-        <v>10.994274712078086</v>
+        <v>159.34620336281458</v>
       </c>
     </row>
     <row r="333">
@@ -2733,7 +2733,7 @@
         <v>34545.0</v>
       </c>
       <c r="B333" t="n">
-        <v>12.10545070489986</v>
+        <v>159.35660506004666</v>
       </c>
     </row>
     <row r="334">
@@ -2741,7 +2741,7 @@
         <v>34546.0</v>
       </c>
       <c r="B334" t="n">
-        <v>11.244400450002797</v>
+        <v>159.34994924602248</v>
       </c>
     </row>
     <row r="335">
@@ -2749,7 +2749,7 @@
         <v>34549.0</v>
       </c>
       <c r="B335" t="n">
-        <v>11.621520122081897</v>
+        <v>159.3537286274408</v>
       </c>
     </row>
     <row r="336">
@@ -2757,7 +2757,7 @@
         <v>34550.0</v>
       </c>
       <c r="B336" t="n">
-        <v>15.421263154086335</v>
+        <v>159.38738014784025</v>
       </c>
     </row>
     <row r="337">
@@ -2765,7 +2765,7 @@
         <v>34551.0</v>
       </c>
       <c r="B337" t="n">
-        <v>12.356978210136392</v>
+        <v>159.3614264209474</v>
       </c>
     </row>
     <row r="338">
@@ -2773,7 +2773,7 @@
         <v>34553.0</v>
       </c>
       <c r="B338" t="n">
-        <v>11.77347491087154</v>
+        <v>159.35656887514648</v>
       </c>
     </row>
     <row r="339">
@@ -2781,7 +2781,7 @@
         <v>34554.0</v>
       </c>
       <c r="B339" t="n">
-        <v>11.445721149526747</v>
+        <v>159.35398039612224</v>
       </c>
     </row>
     <row r="340">
@@ -2789,7 +2789,7 @@
         <v>34555.0</v>
       </c>
       <c r="B340" t="n">
-        <v>10.876224477158116</v>
+        <v>159.34991015771644</v>
       </c>
     </row>
     <row r="341">
@@ -2797,7 +2797,7 @@
         <v>34558.0</v>
       </c>
       <c r="B341" t="n">
-        <v>10.673550308185211</v>
+        <v>159.34842522050354</v>
       </c>
     </row>
     <row r="342">
@@ -2805,7 +2805,7 @@
         <v>34559.0</v>
       </c>
       <c r="B342" t="n">
-        <v>10.274233696550203</v>
+        <v>159.34549247649915</v>
       </c>
     </row>
     <row r="343">
@@ -2813,7 +2813,7 @@
         <v>34561.0</v>
       </c>
       <c r="B343" t="n">
-        <v>10.542797211073946</v>
+        <v>159.34869860655058</v>
       </c>
     </row>
     <row r="344">
@@ -2821,7 +2821,7 @@
         <v>34563.0</v>
       </c>
       <c r="B344" t="n">
-        <v>14.358557927043904</v>
+        <v>159.38340873982858</v>
       </c>
     </row>
     <row r="345">
@@ -2829,7 +2829,7 @@
         <v>34565.0</v>
       </c>
       <c r="B345" t="n">
-        <v>12.15797349853278</v>
+        <v>159.36443171005942</v>
       </c>
     </row>
     <row r="346">
@@ -2837,7 +2837,7 @@
         <v>34566.0</v>
       </c>
       <c r="B346" t="n">
-        <v>10.540104595419681</v>
+        <v>159.35088205380964</v>
       </c>
     </row>
     <row r="347">
@@ -2845,7 +2845,7 @@
         <v>34569.0</v>
       </c>
       <c r="B347" t="n">
-        <v>12.684836110793775</v>
+        <v>159.3705941478257</v>
       </c>
     </row>
     <row r="348">
@@ -2853,7 +2853,7 @@
         <v>34570.0</v>
       </c>
       <c r="B348" t="n">
-        <v>35.472616681317575</v>
+        <v>159.54616049562955</v>
       </c>
     </row>
     <row r="349">
@@ -2861,7 +2861,7 @@
         <v>34571.0</v>
       </c>
       <c r="B349" t="n">
-        <v>18.87517138806052</v>
+        <v>159.42416699432067</v>
       </c>
     </row>
     <row r="350">
@@ -2869,7 +2869,7 @@
         <v>34573.0</v>
       </c>
       <c r="B350" t="n">
-        <v>18.213575361461494</v>
+        <v>159.41914025198</v>
       </c>
     </row>
     <row r="351">
@@ -2877,7 +2877,7 @@
         <v>34574.0</v>
       </c>
       <c r="B351" t="n">
-        <v>16.893273576011858</v>
+        <v>159.4085992942007</v>
       </c>
     </row>
     <row r="352">
@@ -2885,7 +2885,7 @@
         <v>34575.0</v>
       </c>
       <c r="B352" t="n">
-        <v>25.945240570667618</v>
+        <v>159.48095950316247</v>
       </c>
     </row>
     <row r="353">
@@ -2893,7 +2893,7 @@
         <v>34578.0</v>
       </c>
       <c r="B353" t="n">
-        <v>27.500821885668874</v>
+        <v>159.4928317720974</v>
       </c>
     </row>
     <row r="354">
@@ -2901,7 +2901,7 @@
         <v>34579.0</v>
       </c>
       <c r="B354" t="n">
-        <v>13.80665573090279</v>
+        <v>159.38450114841856</v>
       </c>
     </row>
     <row r="355">
@@ -2909,7 +2909,7 @@
         <v>34581.0</v>
       </c>
       <c r="B355" t="n">
-        <v>14.58509836217375</v>
+        <v>159.39198149652327</v>
       </c>
     </row>
     <row r="356">
@@ -2917,7 +2917,7 @@
         <v>34583.0</v>
       </c>
       <c r="B356" t="n">
-        <v>19.434863823592927</v>
+        <v>159.43309898585989</v>
       </c>
     </row>
     <row r="357">
@@ -2925,7 +2925,7 @@
         <v>34585.0</v>
       </c>
       <c r="B357" t="n">
-        <v>17.881918510116076</v>
+        <v>159.42082586509855</v>
       </c>
     </row>
     <row r="358">
@@ -2933,7 +2933,7 @@
         <v>34586.0</v>
       </c>
       <c r="B358" t="n">
-        <v>54.66163256277427</v>
+        <v>159.67437540372336</v>
       </c>
     </row>
     <row r="359">
@@ -2941,7 +2941,7 @@
         <v>34589.0</v>
       </c>
       <c r="B359" t="n">
-        <v>76.25948416780554</v>
+        <v>159.79769504616561</v>
       </c>
     </row>
     <row r="360">
@@ -2949,7 +2949,7 @@
         <v>34590.0</v>
       </c>
       <c r="B360" t="n">
-        <v>43.708346788322025</v>
+        <v>159.60763885720922</v>
       </c>
     </row>
     <row r="361">
@@ -2957,7 +2957,7 @@
         <v>34591.0</v>
       </c>
       <c r="B361" t="n">
-        <v>65.39107871428165</v>
+        <v>159.73819639217083</v>
       </c>
     </row>
     <row r="362">
@@ -2965,7 +2965,7 @@
         <v>34593.0</v>
       </c>
       <c r="B362" t="n">
-        <v>32.145561609625545</v>
+        <v>159.53159994842912</v>
       </c>
     </row>
     <row r="363">
@@ -2973,7 +2973,7 @@
         <v>34594.0</v>
       </c>
       <c r="B363" t="n">
-        <v>22.18142091303857</v>
+        <v>159.45851790214337</v>
       </c>
     </row>
     <row r="364">
@@ -2981,7 +2981,7 @@
         <v>34595.0</v>
       </c>
       <c r="B364" t="n">
-        <v>22.986655381682432</v>
+        <v>159.46585680377427</v>
       </c>
     </row>
     <row r="365">
@@ -2989,7 +2989,7 @@
         <v>34598.0</v>
       </c>
       <c r="B365" t="n">
-        <v>24.672174813420714</v>
+        <v>159.47909313128923</v>
       </c>
     </row>
     <row r="366">
@@ -2997,7 +2997,7 @@
         <v>34599.0</v>
       </c>
       <c r="B366" t="n">
-        <v>16.197334059590066</v>
+        <v>159.41232455193938</v>
       </c>
     </row>
     <row r="367">
@@ -3005,7 +3005,7 @@
         <v>34601.0</v>
       </c>
       <c r="B367" t="n">
-        <v>55.85130897804068</v>
+        <v>159.6865136834727</v>
       </c>
     </row>
     <row r="368">
@@ -3013,7 +3013,7 @@
         <v>34603.0</v>
       </c>
       <c r="B368" t="n">
-        <v>21.202956222100756</v>
+        <v>159.45452483055894</v>
       </c>
     </row>
     <row r="369">
@@ -3021,7 +3021,7 @@
         <v>34605.0</v>
       </c>
       <c r="B369" t="n">
-        <v>18.111333790279</v>
+        <v>159.43005591948543</v>
       </c>
     </row>
     <row r="370">
@@ -3029,7 +3029,7 @@
         <v>34606.0</v>
       </c>
       <c r="B370" t="n">
-        <v>20.185127610306726</v>
+        <v>159.4479248081534</v>
       </c>
     </row>
     <row r="371">
@@ -3037,7 +3037,7 @@
         <v>34609.0</v>
       </c>
       <c r="B371" t="n">
-        <v>61.952373277172065</v>
+        <v>159.72466280972273</v>
       </c>
     </row>
     <row r="372">
@@ -3045,7 +3045,7 @@
         <v>34610.0</v>
       </c>
       <c r="B372" t="n">
-        <v>51.36449620555122</v>
+        <v>159.66250623447203</v>
       </c>
     </row>
     <row r="373">
@@ -3053,7 +3053,7 @@
         <v>34611.0</v>
       </c>
       <c r="B373" t="n">
-        <v>22.513206515783665</v>
+        <v>159.46769837391284</v>
       </c>
     </row>
     <row r="374">
@@ -3061,7 +3061,7 @@
         <v>34613.0</v>
       </c>
       <c r="B374" t="n">
-        <v>19.586660740349053</v>
+        <v>159.4449683371526</v>
       </c>
     </row>
     <row r="375">
@@ -3069,7 +3069,7 @@
         <v>34614.0</v>
       </c>
       <c r="B375" t="n">
-        <v>17.96993865131449</v>
+        <v>159.43220235594436</v>
       </c>
     </row>
     <row r="376">
@@ -3077,7 +3077,7 @@
         <v>34615.0</v>
       </c>
       <c r="B376" t="n">
-        <v>15.527516648574522</v>
+        <v>159.41291123106532</v>
       </c>
     </row>
     <row r="377">
@@ -3085,7 +3085,7 @@
         <v>34618.0</v>
       </c>
       <c r="B377" t="n">
-        <v>14.837438972315011</v>
+        <v>159.4073883531132</v>
       </c>
     </row>
     <row r="378">
@@ -3093,7 +3093,7 @@
         <v>34619.0</v>
       </c>
       <c r="B378" t="n">
-        <v>13.960821043641914</v>
+        <v>159.40055471039997</v>
       </c>
     </row>
     <row r="379">
@@ -3101,7 +3101,7 @@
         <v>34621.0</v>
       </c>
       <c r="B379" t="n">
-        <v>13.469487013914216</v>
+        <v>159.3970045297906</v>
       </c>
     </row>
     <row r="380">
@@ -3109,7 +3109,7 @@
         <v>34623.0</v>
       </c>
       <c r="B380" t="n">
-        <v>13.631238463651412</v>
+        <v>159.39915478306267</v>
       </c>
     </row>
     <row r="381">
@@ -3117,7 +3117,7 @@
         <v>34625.0</v>
       </c>
       <c r="B381" t="n">
-        <v>14.129082232046487</v>
+        <v>159.40385441750627</v>
       </c>
     </row>
     <row r="382">
@@ -3125,7 +3125,7 @@
         <v>34626.0</v>
       </c>
       <c r="B382" t="n">
-        <v>38.09963201454394</v>
+        <v>159.58498166156556</v>
       </c>
     </row>
     <row r="383">
@@ -3133,7 +3133,7 @@
         <v>34629.0</v>
       </c>
       <c r="B383" t="n">
-        <v>102.29885982011409</v>
+        <v>159.9511380057683</v>
       </c>
     </row>
     <row r="384">
@@ -3141,7 +3141,7 @@
         <v>34630.0</v>
       </c>
       <c r="B384" t="n">
-        <v>81.038047481791</v>
+        <v>159.83836906712256</v>
       </c>
     </row>
     <row r="385">
@@ -3149,7 +3149,7 @@
         <v>34631.0</v>
       </c>
       <c r="B385" t="n">
-        <v>60.24205628942651</v>
+        <v>159.72308502737292</v>
       </c>
     </row>
     <row r="386">
@@ -3157,7 +3157,7 @@
         <v>34633.0</v>
       </c>
       <c r="B386" t="n">
-        <v>46.49646854736541</v>
+        <v>159.64087603767814</v>
       </c>
     </row>
     <row r="387">
@@ -3165,7 +3165,7 @@
         <v>34634.0</v>
       </c>
       <c r="B387" t="n">
-        <v>37.47514312972563</v>
+        <v>159.58300994415572</v>
       </c>
     </row>
     <row r="388">
@@ -3173,7 +3173,7 @@
         <v>34635.0</v>
       </c>
       <c r="B388" t="n">
-        <v>51.52808201865803</v>
+        <v>159.6732892418819</v>
       </c>
     </row>
     <row r="389">
@@ -3181,7 +3181,7 @@
         <v>34638.0</v>
       </c>
       <c r="B389" t="n">
-        <v>80.89279012114496</v>
+        <v>159.84044117357902</v>
       </c>
     </row>
     <row r="390">
@@ -3189,7 +3189,7 @@
         <v>34639.0</v>
       </c>
       <c r="B390" t="n">
-        <v>40.239947883115214</v>
+        <v>159.60346001334764</v>
       </c>
     </row>
     <row r="391">
@@ -3197,7 +3197,7 @@
         <v>34641.0</v>
       </c>
       <c r="B391" t="n">
-        <v>110.80603294138425</v>
+        <v>160.00050387361253</v>
       </c>
     </row>
     <row r="392">
@@ -3205,7 +3205,7 @@
         <v>34643.0</v>
       </c>
       <c r="B392" t="n">
-        <v>59.07307601280423</v>
+        <v>159.72062779054835</v>
       </c>
     </row>
     <row r="393">
@@ -3213,7 +3213,7 @@
         <v>34645.0</v>
       </c>
       <c r="B393" t="n">
-        <v>42.33310697060875</v>
+        <v>159.61884935152398</v>
       </c>
     </row>
     <row r="394">
@@ -3221,7 +3221,7 @@
         <v>34646.0</v>
       </c>
       <c r="B394" t="n">
-        <v>61.8072252565158</v>
+        <v>159.73790022665224</v>
       </c>
     </row>
     <row r="395">
@@ -3229,7 +3229,7 @@
         <v>34649.0</v>
       </c>
       <c r="B395" t="n">
-        <v>63.009136621638866</v>
+        <v>159.74515809474207</v>
       </c>
     </row>
     <row r="396">
@@ -3237,7 +3237,7 @@
         <v>34650.0</v>
       </c>
       <c r="B396" t="n">
-        <v>135.00262399764782</v>
+        <v>160.1323014666286</v>
       </c>
     </row>
     <row r="397">
@@ -3245,7 +3245,7 @@
         <v>34651.0</v>
       </c>
       <c r="B397" t="n">
-        <v>90.4015204035256</v>
+        <v>159.89709352394325</v>
       </c>
     </row>
     <row r="398">
@@ -3253,7 +3253,7 @@
         <v>34655.0</v>
       </c>
       <c r="B398" t="n">
-        <v>87.06055221719551</v>
+        <v>159.87964925433974</v>
       </c>
     </row>
     <row r="399">
@@ -3261,7 +3261,7 @@
         <v>34656.0</v>
       </c>
       <c r="B399" t="n">
-        <v>135.68759507944335</v>
+        <v>160.13809365802018</v>
       </c>
     </row>
     <row r="400">
@@ -3269,7 +3269,7 @@
         <v>34657.0</v>
       </c>
       <c r="B400" t="n">
-        <v>54.75476031112177</v>
+        <v>159.70099936001253</v>
       </c>
     </row>
     <row r="401">
@@ -3277,7 +3277,7 @@
         <v>34661.0</v>
       </c>
       <c r="B401" t="n">
-        <v>46.108911022890815</v>
+        <v>159.64863145939745</v>
       </c>
     </row>
     <row r="402">
@@ -3285,7 +3285,7 @@
         <v>34662.0</v>
       </c>
       <c r="B402" t="n">
-        <v>36.54627164179639</v>
+        <v>159.58736960855924</v>
       </c>
     </row>
     <row r="403">
@@ -3293,7 +3293,7 @@
         <v>34664.0</v>
       </c>
       <c r="B403" t="n">
-        <v>29.779524330297654</v>
+        <v>159.54118918611695</v>
       </c>
     </row>
     <row r="404">
@@ -3301,7 +3301,7 @@
         <v>34666.0</v>
       </c>
       <c r="B404" t="n">
-        <v>25.815619354481434</v>
+        <v>159.51297372004836</v>
       </c>
     </row>
     <row r="405">
@@ -3309,7 +3309,7 @@
         <v>34668.0</v>
       </c>
       <c r="B405" t="n">
-        <v>24.915420948195393</v>
+        <v>159.50659358215174</v>
       </c>
     </row>
     <row r="406">
@@ -3317,7 +3317,7 @@
         <v>34669.0</v>
       </c>
       <c r="B406" t="n">
-        <v>90.30636204128307</v>
+        <v>159.90263109648194</v>
       </c>
     </row>
     <row r="407">
@@ -3325,7 +3325,7 @@
         <v>34672.0</v>
       </c>
       <c r="B407" t="n">
-        <v>159.258300008559</v>
+        <v>160.27644864107765</v>
       </c>
     </row>
     <row r="408">
@@ -3333,7 +3333,7 @@
         <v>34673.0</v>
       </c>
       <c r="B408" t="n">
-        <v>143.92378139673536</v>
+        <v>160.1892271933818</v>
       </c>
     </row>
     <row r="409">
@@ -3341,7 +3341,7 @@
         <v>34674.0</v>
       </c>
       <c r="B409" t="n">
-        <v>184.4716105885817</v>
+        <v>160.43561475979863</v>
       </c>
     </row>
     <row r="410">
@@ -3349,7 +3349,7 @@
         <v>34676.0</v>
       </c>
       <c r="B410" t="n">
-        <v>163.9700133049801</v>
+        <v>160.30578661092164</v>
       </c>
     </row>
     <row r="411">
@@ -3357,7 +3357,7 @@
         <v>34677.0</v>
       </c>
       <c r="B411" t="n">
-        <v>137.07353256858602</v>
+        <v>160.15287126621303</v>
       </c>
     </row>
     <row r="412">
@@ -3365,7 +3365,7 @@
         <v>34678.0</v>
       </c>
       <c r="B412" t="n">
-        <v>163.77999555693916</v>
+        <v>160.30598517016668</v>
       </c>
     </row>
     <row r="413">
@@ -3373,7 +3373,7 @@
         <v>34681.0</v>
       </c>
       <c r="B413" t="n">
-        <v>159.697143050021</v>
+        <v>160.28205851836486</v>
       </c>
     </row>
     <row r="414">
@@ -3381,7 +3381,7 @@
         <v>34682.0</v>
       </c>
       <c r="B414" t="n">
-        <v>81.40483675542873</v>
+        <v>159.85928909708647</v>
       </c>
     </row>
     <row r="415">
@@ -3389,7 +3389,7 @@
         <v>34684.0</v>
       </c>
       <c r="B415" t="n">
-        <v>142.52434508769875</v>
+        <v>160.18556676523772</v>
       </c>
     </row>
     <row r="416">
@@ -3397,7 +3397,7 @@
         <v>34686.0</v>
       </c>
       <c r="B416" t="n">
-        <v>86.38343597559377</v>
+        <v>159.8874345662579</v>
       </c>
     </row>
     <row r="417">
@@ -3405,7 +3405,7 @@
         <v>34688.0</v>
       </c>
       <c r="B417" t="n">
-        <v>59.792726921932626</v>
+        <v>159.74071591303218</v>
       </c>
     </row>
     <row r="418">
@@ -3413,7 +3413,7 @@
         <v>34689.0</v>
       </c>
       <c r="B418" t="n">
-        <v>37.970779371843776</v>
+        <v>159.60711514956643</v>
       </c>
     </row>
     <row r="419">
@@ -3421,7 +3421,7 @@
         <v>34692.0</v>
       </c>
       <c r="B419" t="n">
-        <v>45.424649916612225</v>
+        <v>159.6556163402838</v>
       </c>
     </row>
     <row r="420">
@@ -3429,7 +3429,7 @@
         <v>34693.0</v>
       </c>
       <c r="B420" t="n">
-        <v>68.48592421113504</v>
+        <v>159.79200160517846</v>
       </c>
     </row>
     <row r="421">
@@ -3437,7 +3437,7 @@
         <v>34694.0</v>
       </c>
       <c r="B421" t="n">
-        <v>212.22621636795256</v>
+        <v>160.65142489623486</v>
       </c>
     </row>
     <row r="422">
@@ -3445,7 +3445,7 @@
         <v>34696.0</v>
       </c>
       <c r="B422" t="n">
-        <v>237.089322129878</v>
+        <v>160.90052401477877</v>
       </c>
     </row>
     <row r="423">
@@ -3453,7 +3453,7 @@
         <v>34699.0</v>
       </c>
       <c r="B423" t="n">
-        <v>187.57290945820202</v>
+        <v>160.46456472029183</v>
       </c>
     </row>
     <row r="424">
@@ -3461,7 +3461,7 @@
         <v>34700.0</v>
       </c>
       <c r="B424" t="n">
-        <v>60.4267849198959</v>
+        <v>159.74944784537013</v>
       </c>
     </row>
     <row r="425">
@@ -3469,7 +3469,7 @@
         <v>34703.0</v>
       </c>
       <c r="B425" t="n">
-        <v>111.92432192462901</v>
+        <v>160.0277831334812</v>
       </c>
     </row>
     <row r="426">
@@ -3477,7 +3477,7 @@
         <v>34704.0</v>
       </c>
       <c r="B426" t="n">
-        <v>98.93867733923531</v>
+        <v>159.9602976614481</v>
       </c>
     </row>
     <row r="427">
@@ -3485,7 +3485,7 @@
         <v>34706.0</v>
       </c>
       <c r="B427" t="n">
-        <v>86.0565588982939</v>
+        <v>159.8928209357402</v>
       </c>
     </row>
     <row r="428">
@@ -3493,7 +3493,7 @@
         <v>34708.0</v>
       </c>
       <c r="B428" t="n">
-        <v>145.21000638126503</v>
+        <v>160.20868662156857</v>
       </c>
     </row>
     <row r="429">
@@ -3501,7 +3501,7 @@
         <v>34710.0</v>
       </c>
       <c r="B429" t="n">
-        <v>82.68795451637291</v>
+        <v>159.8758484476529</v>
       </c>
     </row>
     <row r="430">
@@ -3509,7 +3509,7 @@
         <v>34711.0</v>
       </c>
       <c r="B430" t="n">
-        <v>67.37435290532741</v>
+        <v>159.7929751866135</v>
       </c>
     </row>
     <row r="431">
@@ -3517,7 +3517,7 @@
         <v>34714.0</v>
       </c>
       <c r="B431" t="n">
-        <v>59.76324182573449</v>
+        <v>159.7499474032478</v>
       </c>
     </row>
     <row r="432">
@@ -3525,7 +3525,7 @@
         <v>34715.0</v>
       </c>
       <c r="B432" t="n">
-        <v>68.46078461945366</v>
+        <v>159.79978315879822</v>
       </c>
     </row>
     <row r="433">
@@ -3533,7 +3533,7 @@
         <v>34716.0</v>
       </c>
       <c r="B433" t="n">
-        <v>91.33389704073033</v>
+        <v>159.92443909174307</v>
       </c>
     </row>
     <row r="434">
@@ -3541,7 +3541,7 @@
         <v>34718.0</v>
       </c>
       <c r="B434" t="n">
-        <v>111.00883260818762</v>
+        <v>160.02824079964518</v>
       </c>
     </row>
     <row r="435">
@@ -3549,7 +3549,7 @@
         <v>34719.0</v>
       </c>
       <c r="B435" t="n">
-        <v>130.5044599208584</v>
+        <v>160.1318181449347</v>
       </c>
     </row>
     <row r="436">
@@ -3557,7 +3557,7 @@
         <v>34720.0</v>
       </c>
       <c r="B436" t="n">
-        <v>159.60661715047564</v>
+        <v>160.2953280542838</v>
       </c>
     </row>
     <row r="437">
@@ -3565,7 +3565,7 @@
         <v>34723.0</v>
       </c>
       <c r="B437" t="n">
-        <v>115.32015145597755</v>
+        <v>160.05264674763012</v>
       </c>
     </row>
     <row r="438">
@@ -3573,7 +3573,7 @@
         <v>34724.0</v>
       </c>
       <c r="B438" t="n">
-        <v>117.99187330678961</v>
+        <v>160.06741485722597</v>
       </c>
     </row>
     <row r="439">
@@ -3581,7 +3581,7 @@
         <v>34726.0</v>
       </c>
       <c r="B439" t="n">
-        <v>241.01596744494205</v>
+        <v>160.956991390925</v>
       </c>
     </row>
     <row r="440">
@@ -3589,7 +3589,7 @@
         <v>34729.0</v>
       </c>
       <c r="B440" t="n">
-        <v>242.92687408445423</v>
+        <v>160.98259621169967</v>
       </c>
     </row>
     <row r="441">
@@ -3597,7 +3597,7 @@
         <v>34733.0</v>
       </c>
       <c r="B441" t="n">
-        <v>217.97072701839733</v>
+        <v>160.71368629114377</v>
       </c>
     </row>
     <row r="442">
@@ -3605,7 +3605,7 @@
         <v>34734.0</v>
       </c>
       <c r="B442" t="n">
-        <v>84.20371610554123</v>
+        <v>159.89326867844798</v>
       </c>
     </row>
     <row r="443">
@@ -3613,7 +3613,7 @@
         <v>34737.0</v>
       </c>
       <c r="B443" t="n">
-        <v>89.21246603028278</v>
+        <v>159.92031379117375</v>
       </c>
     </row>
     <row r="444">
@@ -3621,7 +3621,7 @@
         <v>34738.0</v>
       </c>
       <c r="B444" t="n">
-        <v>74.77069634291618</v>
+        <v>159.84295758262445</v>
       </c>
     </row>
     <row r="445">
@@ -3629,7 +3629,7 @@
         <v>34739.0</v>
       </c>
       <c r="B445" t="n">
-        <v>143.41511381324617</v>
+        <v>160.20932754153594</v>
       </c>
     </row>
     <row r="446">
@@ -3637,7 +3637,7 @@
         <v>34741.0</v>
       </c>
       <c r="B446" t="n">
-        <v>242.6048145112173</v>
+        <v>160.9809380038984</v>
       </c>
     </row>
     <row r="447">
@@ -3645,7 +3645,7 @@
         <v>34742.0</v>
       </c>
       <c r="B447" t="n">
-        <v>219.05807683458295</v>
+        <v>160.72636300940795</v>
       </c>
     </row>
     <row r="448">
@@ -3653,7 +3653,7 @@
         <v>34743.0</v>
       </c>
       <c r="B448" t="n">
-        <v>206.05324649595477</v>
+        <v>160.61603630489688</v>
       </c>
     </row>
     <row r="449">
@@ -3661,7 +3661,7 @@
         <v>34746.0</v>
       </c>
       <c r="B449" t="n">
-        <v>210.89019159474663</v>
+        <v>160.65595609555322</v>
       </c>
     </row>
     <row r="450">
@@ -3669,7 +3669,7 @@
         <v>34747.0</v>
       </c>
       <c r="B450" t="n">
-        <v>196.24689416101853</v>
+        <v>160.54197198571387</v>
       </c>
     </row>
     <row r="451">
@@ -3677,7 +3677,7 @@
         <v>34749.0</v>
       </c>
       <c r="B451" t="n">
-        <v>167.00512454227362</v>
+        <v>160.34886100904063</v>
       </c>
     </row>
     <row r="452">
@@ -3685,7 +3685,7 @@
         <v>34751.0</v>
       </c>
       <c r="B452" t="n">
-        <v>221.47927906955556</v>
+        <v>160.75225922717073</v>
       </c>
     </row>
     <row r="453">
@@ -3693,7 +3693,7 @@
         <v>34754.0</v>
       </c>
       <c r="B453" t="n">
-        <v>146.18402822322224</v>
+        <v>160.2294933029611</v>
       </c>
     </row>
     <row r="454">
@@ -3701,7 +3701,7 @@
         <v>34755.0</v>
       </c>
       <c r="B454" t="n">
-        <v>94.25242868419711</v>
+        <v>159.95407437747028</v>
       </c>
     </row>
     <row r="455">
@@ -3709,7 +3709,7 @@
         <v>34758.0</v>
       </c>
       <c r="B455" t="n">
-        <v>181.32279581534962</v>
+        <v>160.4417926819871</v>
       </c>
     </row>
     <row r="456">
@@ -3717,7 +3717,7 @@
         <v>34759.0</v>
       </c>
       <c r="B456" t="n">
-        <v>126.57314102572553</v>
+        <v>160.124688772663</v>
       </c>
     </row>
     <row r="457">
@@ -3725,7 +3725,7 @@
         <v>34760.0</v>
       </c>
       <c r="B457" t="n">
-        <v>67.2866769969875</v>
+        <v>159.80978771326969</v>
       </c>
     </row>
     <row r="458">
@@ -3733,7 +3733,7 @@
         <v>34762.0</v>
       </c>
       <c r="B458" t="n">
-        <v>79.28661112617975</v>
+        <v>159.8761310192847</v>
       </c>
     </row>
     <row r="459">
@@ -3741,7 +3741,7 @@
         <v>34763.0</v>
       </c>
       <c r="B459" t="n">
-        <v>101.07609049427965</v>
+        <v>159.99204676406177</v>
       </c>
     </row>
     <row r="460">
@@ -3749,7 +3749,7 @@
         <v>34764.0</v>
       </c>
       <c r="B460" t="n">
-        <v>57.71092509887518</v>
+        <v>159.7568318143657</v>
       </c>
     </row>
     <row r="461">
@@ -3757,7 +3757,7 @@
         <v>34767.0</v>
       </c>
       <c r="B461" t="n">
-        <v>68.38372868448846</v>
+        <v>159.81809010696801</v>
       </c>
     </row>
     <row r="462">
@@ -3765,7 +3765,7 @@
         <v>34768.0</v>
       </c>
       <c r="B462" t="n">
-        <v>114.55680208848159</v>
+        <v>160.0647602633097</v>
       </c>
     </row>
     <row r="463">
@@ -3773,7 +3773,7 @@
         <v>34770.0</v>
       </c>
       <c r="B463" t="n">
-        <v>58.57433290087184</v>
+        <v>159.7636770550196</v>
       </c>
     </row>
     <row r="464">
@@ -3781,7 +3781,7 @@
         <v>34772.0</v>
       </c>
       <c r="B464" t="n">
-        <v>45.73123292645355</v>
+        <v>159.68703386435206</v>
       </c>
     </row>
     <row r="465">
@@ -3789,7 +3789,7 @@
         <v>34774.0</v>
       </c>
       <c r="B465" t="n">
-        <v>58.245237986967375</v>
+        <v>159.76284791317195</v>
       </c>
     </row>
     <row r="466">
@@ -3797,7 +3797,7 @@
         <v>34775.0</v>
       </c>
       <c r="B466" t="n">
-        <v>54.185667886918736</v>
+        <v>159.74004138181053</v>
       </c>
     </row>
     <row r="467">
@@ -3805,7 +3805,7 @@
         <v>34778.0</v>
       </c>
       <c r="B467" t="n">
-        <v>42.41785469312652</v>
+        <v>159.66787328839908</v>
       </c>
     </row>
     <row r="468">
@@ -3813,7 +3813,7 @@
         <v>34779.0</v>
       </c>
       <c r="B468" t="n">
-        <v>37.4391326433618</v>
+        <v>159.63572583610193</v>
       </c>
     </row>
     <row r="469">
@@ -3821,7 +3821,7 @@
         <v>34780.0</v>
       </c>
       <c r="B469" t="n">
-        <v>37.03994608756554</v>
+        <v>159.63379404634912</v>
       </c>
     </row>
     <row r="470">
@@ -3829,7 +3829,7 @@
         <v>34782.0</v>
       </c>
       <c r="B470" t="n">
-        <v>61.21995409379185</v>
+        <v>159.78295292858994</v>
       </c>
     </row>
     <row r="471">
@@ -3837,7 +3837,7 @@
         <v>34783.0</v>
       </c>
       <c r="B471" t="n">
-        <v>59.36383308122951</v>
+        <v>159.7726069833138</v>
       </c>
     </row>
     <row r="472">
@@ -3845,7 +3845,7 @@
         <v>34784.0</v>
       </c>
       <c r="B472" t="n">
-        <v>46.43344944911705</v>
+        <v>159.69615515164205</v>
       </c>
     </row>
     <row r="473">
@@ -3853,7 +3853,7 @@
         <v>34787.0</v>
       </c>
       <c r="B473" t="n">
-        <v>48.56426842330859</v>
+        <v>159.7097023711335</v>
       </c>
     </row>
     <row r="474">
@@ -3861,7 +3861,7 @@
         <v>34788.0</v>
       </c>
       <c r="B474" t="n">
-        <v>59.23361293445017</v>
+        <v>159.77402554764225</v>
       </c>
     </row>
     <row r="475">
@@ -3869,7 +3869,7 @@
         <v>34790.0</v>
       </c>
       <c r="B475" t="n">
-        <v>37.06959522028187</v>
+        <v>159.6376484244093</v>
       </c>
     </row>
     <row r="476">
@@ -3877,7 +3877,7 @@
         <v>34792.0</v>
       </c>
       <c r="B476" t="n">
-        <v>29.241264987278083</v>
+        <v>159.58423189437227</v>
       </c>
     </row>
     <row r="477">
@@ -3885,7 +3885,7 @@
         <v>34794.0</v>
       </c>
       <c r="B477" t="n">
-        <v>27.424448421508473</v>
+        <v>159.57143638967807</v>
       </c>
     </row>
     <row r="478">
@@ -3893,7 +3893,7 @@
         <v>34795.0</v>
       </c>
       <c r="B478" t="n">
-        <v>23.034755079745647</v>
+        <v>159.53964679086192</v>
       </c>
     </row>
     <row r="479">
@@ -3901,7 +3901,7 @@
         <v>34798.0</v>
       </c>
       <c r="B479" t="n">
-        <v>22.648645172332635</v>
+        <v>159.53704139705954</v>
       </c>
     </row>
     <row r="480">
@@ -3909,7 +3909,7 @@
         <v>34799.0</v>
       </c>
       <c r="B480" t="n">
-        <v>21.763484147599264</v>
+        <v>159.530541404561</v>
       </c>
     </row>
     <row r="481">
@@ -3917,7 +3917,7 @@
         <v>34800.0</v>
       </c>
       <c r="B481" t="n">
-        <v>19.565024293308767</v>
+        <v>159.51389107461026</v>
       </c>
     </row>
     <row r="482">
@@ -3925,7 +3925,7 @@
         <v>34802.0</v>
       </c>
       <c r="B482" t="n">
-        <v>19.34864879146523</v>
+        <v>159.51252136703175</v>
       </c>
     </row>
     <row r="483">
@@ -3933,7 +3933,7 @@
         <v>34803.0</v>
       </c>
       <c r="B483" t="n">
-        <v>19.201918053256044</v>
+        <v>159.5117081826925</v>
       </c>
     </row>
     <row r="484">
@@ -3941,7 +3941,7 @@
         <v>34804.0</v>
       </c>
       <c r="B484" t="n">
-        <v>19.453310489585554</v>
+        <v>159.514834001873</v>
       </c>
     </row>
     <row r="485">
@@ -3949,7 +3949,7 @@
         <v>34807.0</v>
       </c>
       <c r="B485" t="n">
-        <v>19.452541317485668</v>
+        <v>159.51519572210947</v>
       </c>
     </row>
     <row r="486">
@@ -3957,7 +3957,7 @@
         <v>34808.0</v>
       </c>
       <c r="B486" t="n">
-        <v>19.05162643396148</v>
+        <v>159.51270371115618</v>
       </c>
     </row>
     <row r="487">
@@ -3965,7 +3965,7 @@
         <v>34810.0</v>
       </c>
       <c r="B487" t="n">
-        <v>29.874736323182784</v>
+        <v>159.59536393471592</v>
       </c>
     </row>
     <row r="488">
@@ -3973,7 +3973,7 @@
         <v>34812.0</v>
       </c>
       <c r="B488" t="n">
-        <v>25.329577226471784</v>
+        <v>159.56291833081443</v>
       </c>
     </row>
     <row r="489">
@@ -3981,7 +3981,7 @@
         <v>34814.0</v>
       </c>
       <c r="B489" t="n">
-        <v>21.490713075205644</v>
+        <v>159.53392529676077</v>
       </c>
     </row>
     <row r="490">
@@ -3989,7 +3989,7 @@
         <v>34815.0</v>
       </c>
       <c r="B490" t="n">
-        <v>17.371219417378676</v>
+        <v>159.50193076943918</v>
       </c>
     </row>
     <row r="491">
@@ -3997,7 +3997,7 @@
         <v>34818.0</v>
       </c>
       <c r="B491" t="n">
-        <v>16.833068065207414</v>
+        <v>159.4978394323915</v>
       </c>
     </row>
     <row r="492">
@@ -4005,7 +4005,7 @@
         <v>34819.0</v>
       </c>
       <c r="B492" t="n">
-        <v>16.43186766485999</v>
+        <v>159.4948612228245</v>
       </c>
     </row>
     <row r="493">
@@ -4013,7 +4013,7 @@
         <v>34820.0</v>
       </c>
       <c r="B493" t="n">
-        <v>14.850894340602167</v>
+        <v>159.48222310771098</v>
       </c>
     </row>
     <row r="494">
@@ -4021,7 +4021,7 @@
         <v>34822.0</v>
       </c>
       <c r="B494" t="n">
-        <v>14.130978910897829</v>
+        <v>159.47639808911333</v>
       </c>
     </row>
     <row r="495">
@@ -4029,7 +4029,7 @@
         <v>34823.0</v>
       </c>
       <c r="B495" t="n">
-        <v>13.666865618101868</v>
+        <v>159.47273825164984</v>
       </c>
     </row>
     <row r="496">
@@ -4037,7 +4037,7 @@
         <v>34824.0</v>
       </c>
       <c r="B496" t="n">
-        <v>13.942252356507263</v>
+        <v>159.4762373939469</v>
       </c>
     </row>
     <row r="497">
@@ -4045,7 +4045,7 @@
         <v>34827.0</v>
       </c>
       <c r="B497" t="n">
-        <v>13.82746541865356</v>
+        <v>159.47560942832249</v>
       </c>
     </row>
     <row r="498">
@@ -4053,7 +4053,7 @@
         <v>34828.0</v>
       </c>
       <c r="B498" t="n">
-        <v>13.733455305750365</v>
+        <v>159.4755290841941</v>
       </c>
     </row>
     <row r="499">
@@ -4061,7 +4061,7 @@
         <v>34830.0</v>
       </c>
       <c r="B499" t="n">
-        <v>13.370279302940945</v>
+        <v>159.47309752158498</v>
       </c>
     </row>
     <row r="500">
@@ -4069,7 +4069,7 @@
         <v>34832.0</v>
       </c>
       <c r="B500" t="n">
-        <v>13.347568294717268</v>
+        <v>159.473635933097</v>
       </c>
     </row>
     <row r="501">
@@ -4077,7 +4077,7 @@
         <v>34834.0</v>
       </c>
       <c r="B501" t="n">
-        <v>13.751032524260035</v>
+        <v>159.47752467928305</v>
       </c>
     </row>
     <row r="502">
@@ -4085,7 +4085,7 @@
         <v>34835.0</v>
       </c>
       <c r="B502" t="n">
-        <v>14.954511349474602</v>
+        <v>159.48900381387497</v>
       </c>
     </row>
     <row r="503">
@@ -4093,7 +4093,7 @@
         <v>34838.0</v>
       </c>
       <c r="B503" t="n">
-        <v>14.924787163638985</v>
+        <v>159.48911828265025</v>
       </c>
     </row>
     <row r="504">
@@ -4101,7 +4101,7 @@
         <v>34839.0</v>
       </c>
       <c r="B504" t="n">
-        <v>14.175399702022752</v>
+        <v>159.48304658383174</v>
       </c>
     </row>
     <row r="505">
@@ -4109,7 +4109,7 @@
         <v>34840.0</v>
       </c>
       <c r="B505" t="n">
-        <v>13.58234771700285</v>
+        <v>159.47863555574008</v>
       </c>
     </row>
     <row r="506">
@@ -4117,7 +4117,7 @@
         <v>34842.0</v>
       </c>
       <c r="B506" t="n">
-        <v>13.83038779118614</v>
+        <v>159.4811628960072</v>
       </c>
     </row>
     <row r="507">
@@ -4125,7 +4125,7 @@
         <v>34843.0</v>
       </c>
       <c r="B507" t="n">
-        <v>17.666270928407368</v>
+        <v>159.51393400473424</v>
       </c>
     </row>
     <row r="508">
@@ -4133,7 +4133,7 @@
         <v>34844.0</v>
       </c>
       <c r="B508" t="n">
-        <v>16.98256389873061</v>
+        <v>159.50939221939785</v>
       </c>
     </row>
     <row r="509">
@@ -4141,7 +4141,7 @@
         <v>34847.0</v>
       </c>
       <c r="B509" t="n">
-        <v>20.647038033646087</v>
+        <v>159.53942819435318</v>
       </c>
     </row>
     <row r="510">
@@ -4149,7 +4149,7 @@
         <v>34848.0</v>
       </c>
       <c r="B510" t="n">
-        <v>17.40621984475583</v>
+        <v>159.51400200742282</v>
       </c>
     </row>
     <row r="511">
@@ -4157,7 +4157,7 @@
         <v>34850.0</v>
       </c>
       <c r="B511" t="n">
-        <v>14.661929497308837</v>
+        <v>159.49165789813466</v>
       </c>
     </row>
     <row r="512">
@@ -4165,7 +4165,7 @@
         <v>34852.0</v>
       </c>
       <c r="B512" t="n">
-        <v>13.7508117907507</v>
+        <v>159.48452566888744</v>
       </c>
     </row>
     <row r="513">
@@ -4173,7 +4173,7 @@
         <v>34854.0</v>
       </c>
       <c r="B513" t="n">
-        <v>15.676543283674231</v>
+        <v>159.50140243559485</v>
       </c>
     </row>
     <row r="514">
@@ -4181,7 +4181,7 @@
         <v>34855.0</v>
       </c>
       <c r="B514" t="n">
-        <v>13.378877894768221</v>
+        <v>159.4827565573988</v>
       </c>
     </row>
     <row r="515">
@@ -4189,7 +4189,7 @@
         <v>34858.0</v>
       </c>
       <c r="B515" t="n">
-        <v>12.772598510634756</v>
+        <v>159.4777980404588</v>
       </c>
     </row>
     <row r="516">
@@ -4197,7 +4197,7 @@
         <v>34859.0</v>
       </c>
       <c r="B516" t="n">
-        <v>12.408446045840588</v>
+        <v>159.4749427976488</v>
       </c>
     </row>
     <row r="517">
@@ -4205,7 +4205,7 @@
         <v>34860.0</v>
       </c>
       <c r="B517" t="n">
-        <v>12.511538558042448</v>
+        <v>159.4765948429194</v>
       </c>
     </row>
     <row r="518">
@@ -4213,7 +4213,7 @@
         <v>34862.0</v>
       </c>
       <c r="B518" t="n">
-        <v>12.357407482910219</v>
+        <v>159.47559569712456</v>
       </c>
     </row>
     <row r="519">
@@ -4221,7 +4221,7 @@
         <v>34863.0</v>
       </c>
       <c r="B519" t="n">
-        <v>12.091911064176664</v>
+        <v>159.47360040234875</v>
       </c>
     </row>
     <row r="520">
@@ -4229,7 +4229,7 @@
         <v>34864.0</v>
       </c>
       <c r="B520" t="n">
-        <v>11.604065042167505</v>
+        <v>159.47033673847838</v>
       </c>
     </row>
     <row r="521">
@@ -4237,7 +4237,7 @@
         <v>34867.0</v>
       </c>
       <c r="B521" t="n">
-        <v>11.57304334474247</v>
+        <v>159.47042651952935</v>
       </c>
     </row>
     <row r="522">
@@ -4245,7 +4245,7 @@
         <v>34868.0</v>
       </c>
       <c r="B522" t="n">
-        <v>11.318975419482614</v>
+        <v>159.4688735633697</v>
       </c>
     </row>
     <row r="523">
@@ -4253,7 +4253,7 @@
         <v>34870.0</v>
       </c>
       <c r="B523" t="n">
-        <v>13.290324438784983</v>
+        <v>159.48714307973103</v>
       </c>
     </row>
     <row r="524">
@@ -4261,7 +4261,7 @@
         <v>34872.0</v>
       </c>
       <c r="B524" t="n">
-        <v>11.220146470113477</v>
+        <v>159.4694554571383</v>
       </c>
     </row>
     <row r="525">
@@ -4269,7 +4269,7 @@
         <v>34874.0</v>
       </c>
       <c r="B525" t="n">
-        <v>11.060270498827622</v>
+        <v>159.46837578487768</v>
       </c>
     </row>
     <row r="526">
@@ -4277,7 +4277,7 @@
         <v>34875.0</v>
       </c>
       <c r="B526" t="n">
-        <v>10.431052314806792</v>
+        <v>159.46374436847077</v>
       </c>
     </row>
     <row r="527">
@@ -4285,7 +4285,7 @@
         <v>34878.0</v>
       </c>
       <c r="B527" t="n">
-        <v>9.958968358004316</v>
+        <v>159.45976847040475</v>
       </c>
     </row>
     <row r="528">
@@ -4293,7 +4293,7 @@
         <v>34879.0</v>
       </c>
       <c r="B528" t="n">
-        <v>9.954205336828648</v>
+        <v>159.46009344289263</v>
       </c>
     </row>
     <row r="529">
@@ -4301,7 +4301,7 @@
         <v>34880.0</v>
       </c>
       <c r="B529" t="n">
-        <v>9.974146953738366</v>
+        <v>159.46101566830012</v>
       </c>
     </row>
     <row r="530">
@@ -4309,7 +4309,7 @@
         <v>34882.0</v>
       </c>
       <c r="B530" t="n">
-        <v>9.902433574762647</v>
+        <v>159.46072180003623</v>
       </c>
     </row>
     <row r="531">
@@ -4317,7 +4317,7 @@
         <v>34883.0</v>
       </c>
       <c r="B531" t="n">
-        <v>9.881617671337963</v>
+        <v>159.46089824605554</v>
       </c>
     </row>
     <row r="532">
@@ -4325,7 +4325,7 @@
         <v>34884.0</v>
       </c>
       <c r="B532" t="n">
-        <v>9.723740079735997</v>
+        <v>159.46054265369966</v>
       </c>
     </row>
     <row r="533">
@@ -4333,7 +4333,7 @@
         <v>34887.0</v>
       </c>
       <c r="B533" t="n">
-        <v>9.657655979654521</v>
+        <v>159.46029829380416</v>
       </c>
     </row>
     <row r="534">
@@ -4341,7 +4341,7 @@
         <v>34888.0</v>
       </c>
       <c r="B534" t="n">
-        <v>10.414590406152842</v>
+        <v>159.46802102621274</v>
       </c>
     </row>
     <row r="535">
@@ -4349,7 +4349,7 @@
         <v>34890.0</v>
       </c>
       <c r="B535" t="n">
-        <v>9.882312316051953</v>
+        <v>159.4638568015602</v>
       </c>
     </row>
     <row r="536">
@@ -4357,7 +4357,7 @@
         <v>34892.0</v>
       </c>
       <c r="B536" t="n">
-        <v>11.361659563297255</v>
+        <v>159.4781123729415</v>
       </c>
     </row>
     <row r="537">
@@ -4365,7 +4365,7 @@
         <v>34894.0</v>
       </c>
       <c r="B537" t="n">
-        <v>10.956469715702248</v>
+        <v>159.47481183176748</v>
       </c>
     </row>
     <row r="538">
@@ -4373,7 +4373,7 @@
         <v>34895.0</v>
       </c>
       <c r="B538" t="n">
-        <v>10.717003247479598</v>
+        <v>159.47373859774996</v>
       </c>
     </row>
     <row r="539">
@@ -4381,7 +4381,7 @@
         <v>34898.0</v>
       </c>
       <c r="B539" t="n">
-        <v>12.260733728123151</v>
+        <v>159.48801335109914</v>
       </c>
     </row>
     <row r="540">
@@ -4389,7 +4389,7 @@
         <v>34899.0</v>
       </c>
       <c r="B540" t="n">
-        <v>11.597360545776297</v>
+        <v>159.48244930249504</v>
       </c>
     </row>
     <row r="541">
@@ -4397,7 +4397,7 @@
         <v>34900.0</v>
       </c>
       <c r="B541" t="n">
-        <v>10.272009216767016</v>
+        <v>159.47114030506125</v>
       </c>
     </row>
     <row r="542">
@@ -4405,7 +4405,7 @@
         <v>34902.0</v>
       </c>
       <c r="B542" t="n">
-        <v>10.015286036281333</v>
+        <v>159.46914498341857</v>
       </c>
     </row>
     <row r="543">
@@ -4413,7 +4413,7 @@
         <v>34903.0</v>
       </c>
       <c r="B543" t="n">
-        <v>9.793715576308523</v>
+        <v>159.46746516727453</v>
       </c>
     </row>
     <row r="544">
@@ -4421,7 +4421,7 @@
         <v>34904.0</v>
       </c>
       <c r="B544" t="n">
-        <v>9.235746154170124</v>
+        <v>159.46337841816708</v>
       </c>
     </row>
     <row r="545">
@@ -4429,7 +4429,7 @@
         <v>34907.0</v>
       </c>
       <c r="B545" t="n">
-        <v>9.145752181482408</v>
+        <v>159.46290512357587</v>
       </c>
     </row>
     <row r="546">
@@ -4437,7 +4437,7 @@
         <v>34908.0</v>
       </c>
       <c r="B546" t="n">
-        <v>9.008997863317186</v>
+        <v>159.4623607479421</v>
       </c>
     </row>
     <row r="547">
@@ -4445,7 +4445,7 @@
         <v>34910.0</v>
       </c>
       <c r="B547" t="n">
-        <v>9.198907005339978</v>
+        <v>159.46487936491062</v>
       </c>
     </row>
     <row r="548">
@@ -4453,7 +4453,7 @@
         <v>34912.0</v>
       </c>
       <c r="B548" t="n">
-        <v>8.751536909838473</v>
+        <v>159.46141431886196</v>
       </c>
     </row>
     <row r="549">
@@ -4461,7 +4461,7 @@
         <v>34914.0</v>
       </c>
       <c r="B549" t="n">
-        <v>8.501383151137416</v>
+        <v>159.45941873141842</v>
       </c>
     </row>
     <row r="550">
@@ -4469,7 +4469,7 @@
         <v>34915.0</v>
       </c>
       <c r="B550" t="n">
-        <v>8.605698036157623</v>
+        <v>159.46151366993072</v>
       </c>
     </row>
     <row r="551">
@@ -4477,7 +4477,7 @@
         <v>34918.0</v>
       </c>
       <c r="B551" t="n">
-        <v>8.670419576217181</v>
+        <v>159.46249454536496</v>
       </c>
     </row>
     <row r="552">
@@ -4485,7 +4485,7 @@
         <v>34919.0</v>
       </c>
       <c r="B552" t="n">
-        <v>8.594379550084433</v>
+        <v>159.46214501398376</v>
       </c>
     </row>
     <row r="553">
@@ -4493,7 +4493,7 @@
         <v>34920.0</v>
       </c>
       <c r="B553" t="n">
-        <v>8.308346210000009</v>
+        <v>159.46017121262364</v>
       </c>
     </row>
     <row r="554">
@@ -4501,7 +4501,7 @@
         <v>34922.0</v>
       </c>
       <c r="B554" t="n">
-        <v>8.311501910359564</v>
+        <v>159.4605704324173</v>
       </c>
     </row>
     <row r="555">
@@ -4509,7 +4509,7 @@
         <v>34923.0</v>
       </c>
       <c r="B555" t="n">
-        <v>8.503769109433602</v>
+        <v>159.46276414541322</v>
       </c>
     </row>
     <row r="556">
@@ -4517,7 +4517,7 @@
         <v>34924.0</v>
       </c>
       <c r="B556" t="n">
-        <v>8.259044663764843</v>
+        <v>159.46154848891337</v>
       </c>
     </row>
     <row r="557">
@@ -4525,7 +4525,7 @@
         <v>34927.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8.117337277309232</v>
+        <v>159.46056778446297</v>
       </c>
     </row>
     <row r="558">
@@ -4533,7 +4533,7 @@
         <v>34928.0</v>
       </c>
       <c r="B558" t="n">
-        <v>8.321858650640737</v>
+        <v>159.46325349932204</v>
       </c>
     </row>
     <row r="559">
@@ -4541,7 +4541,7 @@
         <v>34930.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8.183784817965725</v>
+        <v>159.46267821325816</v>
       </c>
     </row>
     <row r="560">
@@ -4549,7 +4549,7 @@
         <v>34932.0</v>
       </c>
       <c r="B560" t="n">
-        <v>8.006536824901863</v>
+        <v>159.46172546776793</v>
       </c>
     </row>
     <row r="561">
@@ -4557,7 +4557,7 @@
         <v>34934.0</v>
       </c>
       <c r="B561" t="n">
-        <v>8.046588568572286</v>
+        <v>159.46247737673065</v>
       </c>
     </row>
     <row r="562">
@@ -4565,7 +4565,7 @@
         <v>34935.0</v>
       </c>
       <c r="B562" t="n">
-        <v>8.560464731989478</v>
+        <v>159.46847019142896</v>
       </c>
     </row>
     <row r="563">
@@ -4573,7 +4573,7 @@
         <v>34938.0</v>
       </c>
       <c r="B563" t="n">
-        <v>8.558393776318791</v>
+        <v>159.46881984656352</v>
       </c>
     </row>
     <row r="564">
@@ -4581,7 +4581,7 @@
         <v>34939.0</v>
       </c>
       <c r="B564" t="n">
-        <v>8.47987979885645</v>
+        <v>159.46844560819596</v>
       </c>
     </row>
     <row r="565">
@@ -4589,7 +4589,7 @@
         <v>34940.0</v>
       </c>
       <c r="B565" t="n">
-        <v>8.611699547315567</v>
+        <v>159.4704318088358</v>
       </c>
     </row>
     <row r="566">
@@ -4597,7 +4597,7 @@
         <v>34942.0</v>
       </c>
       <c r="B566" t="n">
-        <v>8.646282598368892</v>
+        <v>159.47112791389193</v>
       </c>
     </row>
     <row r="567">
@@ -4605,7 +4605,7 @@
         <v>34943.0</v>
       </c>
       <c r="B567" t="n">
-        <v>8.70120134071041</v>
+        <v>159.47201579903432</v>
       </c>
     </row>
     <row r="568">
@@ -4613,7 +4613,7 @@
         <v>34944.0</v>
       </c>
       <c r="B568" t="n">
-        <v>9.073045055761368</v>
+        <v>159.47662188152043</v>
       </c>
     </row>
     <row r="569">
@@ -4621,7 +4621,7 @@
         <v>34947.0</v>
       </c>
       <c r="B569" t="n">
-        <v>9.01424539067205</v>
+        <v>159.47643946125146</v>
       </c>
     </row>
     <row r="570">
@@ -4629,7 +4629,7 @@
         <v>34948.0</v>
       </c>
       <c r="B570" t="n">
-        <v>21.740941008936602</v>
+        <v>159.5855500734311</v>
       </c>
     </row>
     <row r="571">
@@ -4637,7 +4637,7 @@
         <v>34950.0</v>
       </c>
       <c r="B571" t="n">
-        <v>13.14140112809675</v>
+        <v>159.51534479945786</v>
       </c>
     </row>
     <row r="572">
@@ -4645,7 +4645,7 @@
         <v>34952.0</v>
       </c>
       <c r="B572" t="n">
-        <v>18.573450423162992</v>
+        <v>159.56185934744866</v>
       </c>
     </row>
     <row r="573">
@@ -4653,7 +4653,7 @@
         <v>34954.0</v>
       </c>
       <c r="B573" t="n">
-        <v>15.178934870970124</v>
+        <v>159.53404604953056</v>
       </c>
     </row>
     <row r="574">
@@ -4661,7 +4661,7 @@
         <v>34955.0</v>
       </c>
       <c r="B574" t="n">
-        <v>11.069720756800807</v>
+        <v>159.499089807505</v>
       </c>
     </row>
     <row r="575">
@@ -4669,7 +4669,7 @@
         <v>34958.0</v>
       </c>
       <c r="B575" t="n">
-        <v>10.57700290234605</v>
+        <v>159.4949743573931</v>
       </c>
     </row>
     <row r="576">
@@ -4677,7 +4677,7 @@
         <v>34959.0</v>
       </c>
       <c r="B576" t="n">
-        <v>10.517356420263722</v>
+        <v>159.4947981588491</v>
       </c>
     </row>
     <row r="577">
@@ -4685,7 +4685,7 @@
         <v>34960.0</v>
       </c>
       <c r="B577" t="n">
-        <v>10.057816461966885</v>
+        <v>159.4913164183747</v>
       </c>
     </row>
     <row r="578">
@@ -4693,7 +4693,7 @@
         <v>34962.0</v>
       </c>
       <c r="B578" t="n">
-        <v>9.888872572140283</v>
+        <v>159.4901259248613</v>
       </c>
     </row>
     <row r="579">
@@ -4701,7 +4701,7 @@
         <v>34963.0</v>
       </c>
       <c r="B579" t="n">
-        <v>9.68239906657322</v>
+        <v>159.4885828727799</v>
       </c>
     </row>
     <row r="580">
@@ -4709,7 +4709,7 @@
         <v>34964.0</v>
       </c>
       <c r="B580" t="n">
-        <v>14.474596195804105</v>
+        <v>159.5324515703485</v>
       </c>
     </row>
     <row r="581">
@@ -4717,7 +4717,7 @@
         <v>34967.0</v>
       </c>
       <c r="B581" t="n">
-        <v>18.52289980489816</v>
+        <v>159.566608703211</v>
       </c>
     </row>
     <row r="582">
@@ -4725,7 +4725,7 @@
         <v>34968.0</v>
       </c>
       <c r="B582" t="n">
-        <v>13.713932621738998</v>
+        <v>159.52698491610244</v>
       </c>
     </row>
     <row r="583">
@@ -4733,7 +4733,7 @@
         <v>34970.0</v>
       </c>
       <c r="B583" t="n">
-        <v>11.81525647972718</v>
+        <v>159.51097446798354</v>
       </c>
     </row>
     <row r="584">
@@ -4741,7 +4741,7 @@
         <v>34972.0</v>
       </c>
       <c r="B584" t="n">
-        <v>11.953219402206786</v>
+        <v>159.51294671831474</v>
       </c>
     </row>
     <row r="585">
@@ -4749,7 +4749,7 @@
         <v>34974.0</v>
       </c>
       <c r="B585" t="n">
-        <v>13.044634939532486</v>
+        <v>159.52298279598628</v>
       </c>
     </row>
     <row r="586">
@@ -4757,7 +4757,7 @@
         <v>34975.0</v>
       </c>
       <c r="B586" t="n">
-        <v>29.426729495078614</v>
+        <v>159.65310029546475</v>
       </c>
     </row>
     <row r="587">
@@ -4765,7 +4765,7 @@
         <v>34978.0</v>
       </c>
       <c r="B587" t="n">
-        <v>52.732605551864204</v>
+        <v>159.8044800011055</v>
       </c>
     </row>
     <row r="588">
@@ -4773,7 +4773,7 @@
         <v>34979.0</v>
       </c>
       <c r="B588" t="n">
-        <v>26.532461141558564</v>
+        <v>159.63285217115023</v>
       </c>
     </row>
     <row r="589">
@@ -4781,7 +4781,7 @@
         <v>34980.0</v>
       </c>
       <c r="B589" t="n">
-        <v>14.188943559930497</v>
+        <v>159.53552618955732</v>
       </c>
     </row>
     <row r="590">
@@ -4789,7 +4789,7 @@
         <v>34982.0</v>
       </c>
       <c r="B590" t="n">
-        <v>13.38363657582296</v>
+        <v>159.5289041792024</v>
       </c>
     </row>
     <row r="591">
@@ -4797,7 +4797,7 @@
         <v>34983.0</v>
       </c>
       <c r="B591" t="n">
-        <v>12.022405322428032</v>
+        <v>159.5172558913518</v>
       </c>
     </row>
     <row r="592">
@@ -4805,7 +4805,7 @@
         <v>34984.0</v>
       </c>
       <c r="B592" t="n">
-        <v>10.883882294555606</v>
+        <v>159.50810942766302</v>
       </c>
     </row>
     <row r="593">
@@ -4813,7 +4813,7 @@
         <v>34987.0</v>
       </c>
       <c r="B593" t="n">
-        <v>10.851098721342035</v>
+        <v>159.50818057172734</v>
       </c>
     </row>
     <row r="594">
@@ -4821,7 +4821,7 @@
         <v>34988.0</v>
       </c>
       <c r="B594" t="n">
-        <v>17.384939920700532</v>
+        <v>159.5654157421017</v>
       </c>
     </row>
     <row r="595">
@@ -4829,7 +4829,7 @@
         <v>34990.0</v>
       </c>
       <c r="B595" t="n">
-        <v>13.19927030297166</v>
+        <v>159.5306131715984</v>
       </c>
     </row>
     <row r="596">
@@ -4837,7 +4837,7 @@
         <v>34992.0</v>
       </c>
       <c r="B596" t="n">
-        <v>12.516746066322842</v>
+        <v>159.52534123498373</v>
       </c>
     </row>
     <row r="597">
@@ -4845,7 +4845,7 @@
         <v>34994.0</v>
       </c>
       <c r="B597" t="n">
-        <v>11.669142661681946</v>
+        <v>159.51815565942138</v>
       </c>
     </row>
     <row r="598">
@@ -4853,7 +4853,7 @@
         <v>34995.0</v>
       </c>
       <c r="B598" t="n">
-        <v>21.759919282953497</v>
+        <v>159.60337430155462</v>
       </c>
     </row>
     <row r="599">
@@ -4861,7 +4861,7 @@
         <v>34998.0</v>
       </c>
       <c r="B599" t="n">
-        <v>16.327384156245106</v>
+        <v>159.5599583614151</v>
       </c>
     </row>
     <row r="600">
@@ -4869,7 +4869,7 @@
         <v>34999.0</v>
       </c>
       <c r="B600" t="n">
-        <v>14.597083623023133</v>
+        <v>159.54567852174628</v>
       </c>
     </row>
     <row r="601">
@@ -4877,7 +4877,7 @@
         <v>35000.0</v>
       </c>
       <c r="B601" t="n">
-        <v>12.36347073345994</v>
+        <v>159.52693601811052</v>
       </c>
     </row>
     <row r="602">
@@ -4885,7 +4885,7 @@
         <v>35002.0</v>
       </c>
       <c r="B602" t="n">
-        <v>11.727157213403522</v>
+        <v>159.52162980718367</v>
       </c>
     </row>
     <row r="603">
@@ -4893,7 +4893,7 @@
         <v>35003.0</v>
       </c>
       <c r="B603" t="n">
-        <v>11.216816735047908</v>
+        <v>159.51740490321225</v>
       </c>
     </row>
     <row r="604">
@@ -4901,7 +4901,7 @@
         <v>35004.0</v>
       </c>
       <c r="B604" t="n">
-        <v>10.22336463398231</v>
+        <v>159.50945811903432</v>
       </c>
     </row>
     <row r="605">
@@ -4909,7 +4909,7 @@
         <v>35007.0</v>
       </c>
       <c r="B605" t="n">
-        <v>10.066000260924058</v>
+        <v>159.5083793343215</v>
       </c>
     </row>
     <row r="606">
@@ -4917,7 +4917,7 @@
         <v>35008.0</v>
       </c>
       <c r="B606" t="n">
-        <v>9.777214237303964</v>
+        <v>159.50645047357145</v>
       </c>
     </row>
     <row r="607">
@@ -4925,7 +4925,7 @@
         <v>35010.0</v>
       </c>
       <c r="B607" t="n">
-        <v>9.979546222218396</v>
+        <v>159.50905959536723</v>
       </c>
     </row>
     <row r="608">
@@ -4933,7 +4933,7 @@
         <v>35012.0</v>
       </c>
       <c r="B608" t="n">
-        <v>12.618311447935966</v>
+        <v>159.5336231386388</v>
       </c>
     </row>
     <row r="609">
@@ -4941,7 +4941,7 @@
         <v>35014.0</v>
       </c>
       <c r="B609" t="n">
-        <v>55.73493069090115</v>
+        <v>159.83534203081305</v>
       </c>
     </row>
     <row r="610">
@@ -4949,7 +4949,7 @@
         <v>35015.0</v>
       </c>
       <c r="B610" t="n">
-        <v>17.441784542618148</v>
+        <v>159.57620966710095</v>
       </c>
     </row>
     <row r="611">
@@ -4957,7 +4957,7 @@
         <v>35018.0</v>
       </c>
       <c r="B611" t="n">
-        <v>74.76551234340994</v>
+        <v>159.94374262916946</v>
       </c>
     </row>
     <row r="612">
@@ -4965,7 +4965,7 @@
         <v>35019.0</v>
       </c>
       <c r="B612" t="n">
-        <v>63.31610040567006</v>
+        <v>159.88077724100452</v>
       </c>
     </row>
     <row r="613">
@@ -4973,7 +4973,7 @@
         <v>35020.0</v>
       </c>
       <c r="B613" t="n">
-        <v>20.798414308988004</v>
+        <v>159.6046928972478</v>
       </c>
     </row>
     <row r="614">
@@ -4981,7 +4981,7 @@
         <v>35022.0</v>
       </c>
       <c r="B614" t="n">
-        <v>18.092834637838344</v>
+        <v>159.58338727376463</v>
       </c>
     </row>
     <row r="615">
@@ -4989,7 +4989,7 @@
         <v>35023.0</v>
       </c>
       <c r="B615" t="n">
-        <v>17.039611125397943</v>
+        <v>159.57510408656987</v>
       </c>
     </row>
     <row r="616">
@@ -4997,7 +4997,7 @@
         <v>35024.0</v>
       </c>
       <c r="B616" t="n">
-        <v>33.724572983057605</v>
+        <v>159.70113962598285</v>
       </c>
     </row>
     <row r="617">
@@ -5005,7 +5005,7 @@
         <v>35027.0</v>
       </c>
       <c r="B617" t="n">
-        <v>88.01279854477275</v>
+        <v>160.01763385988374</v>
       </c>
     </row>
     <row r="618">
@@ -5013,7 +5013,7 @@
         <v>35028.0</v>
       </c>
       <c r="B618" t="n">
-        <v>30.34668616869704</v>
+        <v>159.6787463942796</v>
       </c>
     </row>
     <row r="619">
@@ -5021,7 +5021,7 @@
         <v>35030.0</v>
       </c>
       <c r="B619" t="n">
-        <v>21.806489122188125</v>
+        <v>159.61626232943772</v>
       </c>
     </row>
     <row r="620">
@@ -5029,7 +5029,7 @@
         <v>35032.0</v>
       </c>
       <c r="B620" t="n">
-        <v>18.614204690095313</v>
+        <v>159.5916807671672</v>
       </c>
     </row>
     <row r="621">
@@ -5037,7 +5037,7 @@
         <v>35034.0</v>
       </c>
       <c r="B621" t="n">
-        <v>17.051730990154617</v>
+        <v>159.57926228044593</v>
       </c>
     </row>
     <row r="622">
@@ -5045,7 +5045,7 @@
         <v>35035.0</v>
       </c>
       <c r="B622" t="n">
-        <v>32.85279134081171</v>
+        <v>159.69918736756526</v>
       </c>
     </row>
     <row r="623">
@@ -5053,7 +5053,7 @@
         <v>35038.0</v>
       </c>
       <c r="B623" t="n">
-        <v>25.57393205605401</v>
+        <v>159.6474696074616</v>
       </c>
     </row>
     <row r="624">
@@ -5061,7 +5061,7 @@
         <v>35039.0</v>
       </c>
       <c r="B624" t="n">
-        <v>26.74998231109244</v>
+        <v>159.6565238417961</v>
       </c>
     </row>
     <row r="625">
@@ -5069,7 +5069,7 @@
         <v>35040.0</v>
       </c>
       <c r="B625" t="n">
-        <v>21.32960705092774</v>
+        <v>159.6162304633841</v>
       </c>
     </row>
     <row r="626">
@@ -5077,7 +5077,7 @@
         <v>35042.0</v>
       </c>
       <c r="B626" t="n">
-        <v>23.682367583072505</v>
+        <v>159.6347278961346</v>
       </c>
     </row>
     <row r="627">
@@ -5085,7 +5085,7 @@
         <v>35043.0</v>
       </c>
       <c r="B627" t="n">
-        <v>32.9537131855116</v>
+        <v>159.70208708283613</v>
       </c>
     </row>
     <row r="628">
@@ -5093,7 +5093,7 @@
         <v>35044.0</v>
       </c>
       <c r="B628" t="n">
-        <v>19.467988892772578</v>
+        <v>159.60334850731826</v>
       </c>
     </row>
     <row r="629">
@@ -5101,7 +5101,7 @@
         <v>35047.0</v>
       </c>
       <c r="B629" t="n">
-        <v>19.00583669056298</v>
+        <v>159.6000064506572</v>
       </c>
     </row>
     <row r="630">
@@ -5109,7 +5109,7 @@
         <v>35048.0</v>
       </c>
       <c r="B630" t="n">
-        <v>18.3477262123074</v>
+        <v>159.59542039793936</v>
       </c>
     </row>
     <row r="631">
@@ -5117,7 +5117,7 @@
         <v>35050.0</v>
       </c>
       <c r="B631" t="n">
-        <v>16.43373726426421</v>
+        <v>159.5804007005596</v>
       </c>
     </row>
     <row r="632">
@@ -5125,7 +5125,7 @@
         <v>35052.0</v>
       </c>
       <c r="B632" t="n">
-        <v>15.564028984436023</v>
+        <v>159.57383712904013</v>
       </c>
     </row>
     <row r="633">
@@ -5133,7 +5133,7 @@
         <v>35054.0</v>
       </c>
       <c r="B633" t="n">
-        <v>32.4517624794464</v>
+        <v>159.70266029916635</v>
       </c>
     </row>
     <row r="634">
@@ -5141,7 +5141,7 @@
         <v>35055.0</v>
       </c>
       <c r="B634" t="n">
-        <v>34.89524145744637</v>
+        <v>159.72049005475748</v>
       </c>
     </row>
     <row r="635">
@@ -5149,7 +5149,7 @@
         <v>35058.0</v>
       </c>
       <c r="B635" t="n">
-        <v>24.179098672278315</v>
+        <v>159.64438348977825</v>
       </c>
     </row>
     <row r="636">
@@ -5157,7 +5157,7 @@
         <v>35059.0</v>
       </c>
       <c r="B636" t="n">
-        <v>19.439846736229104</v>
+        <v>159.60791723387533</v>
       </c>
     </row>
     <row r="637">
@@ -5165,7 +5165,7 @@
         <v>35060.0</v>
       </c>
       <c r="B637" t="n">
-        <v>16.899368910948205</v>
+        <v>159.58796297055338</v>
       </c>
     </row>
     <row r="638">
@@ -5173,7 +5173,7 @@
         <v>35062.0</v>
       </c>
       <c r="B638" t="n">
-        <v>16.297620866990457</v>
+        <v>159.583323587158</v>
       </c>
     </row>
     <row r="639">
@@ -5181,7 +5181,7 @@
         <v>35063.0</v>
       </c>
       <c r="B639" t="n">
-        <v>17.84960068647516</v>
+        <v>159.5965243442023</v>
       </c>
     </row>
     <row r="640">
@@ -5189,7 +5189,7 @@
         <v>35064.0</v>
       </c>
       <c r="B640" t="n">
-        <v>21.7557363437956</v>
+        <v>159.6287666510119</v>
       </c>
     </row>
     <row r="641">
@@ -5197,7 +5197,7 @@
         <v>35067.0</v>
       </c>
       <c r="B641" t="n">
-        <v>28.270901644194144</v>
+        <v>159.67789450919156</v>
       </c>
     </row>
     <row r="642">
@@ -5205,7 +5205,7 @@
         <v>35068.0</v>
       </c>
       <c r="B642" t="n">
-        <v>66.72857350645033</v>
+        <v>159.9180561187747</v>
       </c>
     </row>
     <row r="643">
@@ -5213,7 +5213,7 @@
         <v>35070.0</v>
       </c>
       <c r="B643" t="n">
-        <v>115.22259972735233</v>
+        <v>160.17454365400175</v>
       </c>
     </row>
     <row r="644">
@@ -5221,7 +5221,7 @@
         <v>35072.0</v>
       </c>
       <c r="B644" t="n">
-        <v>83.11488736054531</v>
+        <v>160.00830532288603</v>
       </c>
     </row>
     <row r="645">
@@ -5229,7 +5229,7 @@
         <v>35074.0</v>
       </c>
       <c r="B645" t="n">
-        <v>54.747249940109285</v>
+        <v>159.8513975288028</v>
       </c>
     </row>
     <row r="646">
@@ -5237,7 +5237,7 @@
         <v>35075.0</v>
       </c>
       <c r="B646" t="n">
-        <v>102.49385019562932</v>
+        <v>160.1108942619966</v>
       </c>
     </row>
     <row r="647">
@@ -5245,7 +5245,7 @@
         <v>35078.0</v>
       </c>
       <c r="B647" t="n">
-        <v>57.464254719884295</v>
+        <v>159.86872657330196</v>
       </c>
     </row>
     <row r="648">
@@ -5253,7 +5253,7 @@
         <v>35079.0</v>
       </c>
       <c r="B648" t="n">
-        <v>42.70300255187212</v>
+        <v>159.77971537712764</v>
       </c>
     </row>
     <row r="649">
@@ -5261,7 +5261,7 @@
         <v>35080.0</v>
       </c>
       <c r="B649" t="n">
-        <v>29.90914282295614</v>
+        <v>159.69476677098763</v>
       </c>
     </row>
     <row r="650">
@@ -5269,7 +5269,7 @@
         <v>35082.0</v>
       </c>
       <c r="B650" t="n">
-        <v>26.78915450420453</v>
+        <v>159.67263819858437</v>
       </c>
     </row>
     <row r="651">
@@ -5277,7 +5277,7 @@
         <v>35083.0</v>
       </c>
       <c r="B651" t="n">
-        <v>25.560480973234416</v>
+        <v>159.6639385861361</v>
       </c>
     </row>
     <row r="652">
@@ -5285,7 +5285,7 @@
         <v>35084.0</v>
       </c>
       <c r="B652" t="n">
-        <v>22.532526369932118</v>
+        <v>159.64214746907956</v>
       </c>
     </row>
     <row r="653">
@@ -5293,7 +5293,7 @@
         <v>35087.0</v>
       </c>
       <c r="B653" t="n">
-        <v>21.086289135250155</v>
+        <v>159.63128395894793</v>
       </c>
     </row>
     <row r="654">
@@ -5301,7 +5301,7 @@
         <v>35088.0</v>
       </c>
       <c r="B654" t="n">
-        <v>18.33884452488429</v>
+        <v>159.61010543173708</v>
       </c>
     </row>
     <row r="655">
@@ -5309,7 +5309,7 @@
         <v>35090.0</v>
       </c>
       <c r="B655" t="n">
-        <v>17.935324771258664</v>
+        <v>159.6075568898931</v>
       </c>
     </row>
     <row r="656">
@@ -5317,7 +5317,7 @@
         <v>35092.0</v>
       </c>
       <c r="B656" t="n">
-        <v>17.99379769355713</v>
+        <v>159.60877233624416</v>
       </c>
     </row>
     <row r="657">
@@ -5325,7 +5325,7 @@
         <v>35094.0</v>
       </c>
       <c r="B657" t="n">
-        <v>19.32785179340551</v>
+        <v>159.61993025842528</v>
       </c>
     </row>
     <row r="658">
@@ -5333,7 +5333,7 @@
         <v>35095.0</v>
       </c>
       <c r="B658" t="n">
-        <v>20.74613174734889</v>
+        <v>159.63230053174198</v>
       </c>
     </row>
     <row r="659">
@@ -5341,7 +5341,7 @@
         <v>35098.0</v>
       </c>
       <c r="B659" t="n">
-        <v>23.486717743036643</v>
+        <v>159.65387297078638</v>
       </c>
     </row>
     <row r="660">
@@ -5349,7 +5349,7 @@
         <v>35099.0</v>
       </c>
       <c r="B660" t="n">
-        <v>22.86407970458717</v>
+        <v>159.64948631637614</v>
       </c>
     </row>
     <row r="661">
@@ -5357,7 +5357,7 @@
         <v>35100.0</v>
       </c>
       <c r="B661" t="n">
-        <v>18.654114849756596</v>
+        <v>159.6170887282083</v>
       </c>
     </row>
     <row r="662">
@@ -5365,7 +5365,7 @@
         <v>35102.0</v>
       </c>
       <c r="B662" t="n">
-        <v>17.322437089093942</v>
+        <v>159.60659043559153</v>
       </c>
     </row>
     <row r="663">
@@ -5373,7 +5373,7 @@
         <v>35103.0</v>
       </c>
       <c r="B663" t="n">
-        <v>19.859277143614232</v>
+        <v>159.62749517709207</v>
       </c>
     </row>
     <row r="664">
@@ -5381,7 +5381,7 @@
         <v>35104.0</v>
       </c>
       <c r="B664" t="n">
-        <v>219.12034432180909</v>
+        <v>160.839344162078</v>
       </c>
     </row>
     <row r="665">
@@ -5389,7 +5389,7 @@
         <v>35107.0</v>
       </c>
       <c r="B665" t="n">
-        <v>227.107495310302</v>
+        <v>160.9143556064283</v>
       </c>
     </row>
     <row r="666">
@@ -5397,7 +5397,7 @@
         <v>35108.0</v>
       </c>
       <c r="B666" t="n">
-        <v>118.52130917846732</v>
+        <v>160.20504016802366</v>
       </c>
     </row>
     <row r="667">
@@ -5405,7 +5405,7 @@
         <v>35110.0</v>
       </c>
       <c r="B667" t="n">
-        <v>132.69754152574282</v>
+        <v>160.27981907036516</v>
       </c>
     </row>
     <row r="668">
@@ -5413,7 +5413,7 @@
         <v>35112.0</v>
       </c>
       <c r="B668" t="n">
-        <v>114.87843934969275</v>
+        <v>160.18760872223123</v>
       </c>
     </row>
     <row r="669">
@@ -5421,7 +5421,7 @@
         <v>35114.0</v>
       </c>
       <c r="B669" t="n">
-        <v>66.39078637227223</v>
+        <v>159.93250036692314</v>
       </c>
     </row>
     <row r="670">
@@ -5429,7 +5429,7 @@
         <v>35115.0</v>
       </c>
       <c r="B670" t="n">
-        <v>62.511486620336306</v>
+        <v>159.91182227760697</v>
       </c>
     </row>
     <row r="671">
@@ -5437,7 +5437,7 @@
         <v>35118.0</v>
       </c>
       <c r="B671" t="n">
-        <v>91.33363009331198</v>
+        <v>160.06765355069174</v>
       </c>
     </row>
     <row r="672">
@@ -5445,7 +5445,7 @@
         <v>35119.0</v>
       </c>
       <c r="B672" t="n">
-        <v>106.97477789507379</v>
+        <v>160.14896516199533</v>
       </c>
     </row>
     <row r="673">
@@ -5453,7 +5453,7 @@
         <v>35120.0</v>
       </c>
       <c r="B673" t="n">
-        <v>55.04271150004078</v>
+        <v>159.87027023125322</v>
       </c>
     </row>
     <row r="674">
@@ -5461,7 +5461,7 @@
         <v>35122.0</v>
       </c>
       <c r="B674" t="n">
-        <v>46.30254023042532</v>
+        <v>159.818018904158</v>
       </c>
     </row>
     <row r="675">
@@ -5469,7 +5469,7 @@
         <v>35123.0</v>
       </c>
       <c r="B675" t="n">
-        <v>40.59771227985937</v>
+        <v>159.78236724801985</v>
       </c>
     </row>
     <row r="676">
@@ -5477,7 +5477,7 @@
         <v>35124.0</v>
       </c>
       <c r="B676" t="n">
-        <v>45.486032987082716</v>
+        <v>159.81441743337032</v>
       </c>
     </row>
     <row r="677">
@@ -5485,7 +5485,7 @@
         <v>35127.0</v>
       </c>
       <c r="B677" t="n">
-        <v>48.5470985588751</v>
+        <v>159.83363137373013</v>
       </c>
     </row>
     <row r="678">
@@ -5493,7 +5493,7 @@
         <v>35128.0</v>
       </c>
       <c r="B678" t="n">
-        <v>33.43257978117885</v>
+        <v>159.73697875739384</v>
       </c>
     </row>
     <row r="679">
@@ -5501,7 +5501,7 @@
         <v>35130.0</v>
       </c>
       <c r="B679" t="n">
-        <v>28.654388739785055</v>
+        <v>159.7042099133367</v>
       </c>
     </row>
     <row r="680">
@@ -5509,7 +5509,7 @@
         <v>35132.0</v>
       </c>
       <c r="B680" t="n">
-        <v>24.763062526912893</v>
+        <v>159.676409771482</v>
       </c>
     </row>
     <row r="681">
@@ -5517,7 +5517,7 @@
         <v>35134.0</v>
       </c>
       <c r="B681" t="n">
-        <v>24.049453368783897</v>
+        <v>159.6714091318181</v>
       </c>
     </row>
     <row r="682">
@@ -5525,7 +5525,7 @@
         <v>35135.0</v>
       </c>
       <c r="B682" t="n">
-        <v>25.228583747026793</v>
+        <v>159.68136281264083</v>
       </c>
     </row>
     <row r="683">
@@ -5533,7 +5533,7 @@
         <v>35138.0</v>
       </c>
       <c r="B683" t="n">
-        <v>24.527591840177244</v>
+        <v>159.6764859446463</v>
       </c>
     </row>
     <row r="684">
@@ -5541,7 +5541,7 @@
         <v>35139.0</v>
       </c>
       <c r="B684" t="n">
-        <v>27.088738332890067</v>
+        <v>159.69582015803718</v>
       </c>
     </row>
     <row r="685">
@@ -5549,7 +5549,7 @@
         <v>35140.0</v>
       </c>
       <c r="B685" t="n">
-        <v>36.07221381916028</v>
+        <v>159.75925862649038</v>
       </c>
     </row>
     <row r="686">
@@ -5557,7 +5557,7 @@
         <v>35142.0</v>
       </c>
       <c r="B686" t="n">
-        <v>35.76804846378744</v>
+        <v>159.757588376689</v>
       </c>
     </row>
     <row r="687">
@@ -5565,7 +5565,7 @@
         <v>35143.0</v>
       </c>
       <c r="B687" t="n">
-        <v>37.085497275143695</v>
+        <v>159.76674269632443</v>
       </c>
     </row>
     <row r="688">
@@ -5573,7 +5573,7 @@
         <v>35144.0</v>
       </c>
       <c r="B688" t="n">
-        <v>42.317477797355856</v>
+        <v>159.8018141656134</v>
       </c>
     </row>
     <row r="689">
@@ -5581,7 +5581,7 @@
         <v>35147.0</v>
       </c>
       <c r="B689" t="n">
-        <v>45.66913873511704</v>
+        <v>159.8232440451969</v>
       </c>
     </row>
     <row r="690">
@@ -5589,7 +5589,7 @@
         <v>35148.0</v>
       </c>
       <c r="B690" t="n">
-        <v>35.31136420299027</v>
+        <v>159.7570910487458</v>
       </c>
     </row>
     <row r="691">
@@ -5597,7 +5597,7 @@
         <v>35150.0</v>
       </c>
       <c r="B691" t="n">
-        <v>27.68445470748028</v>
+        <v>159.70457506762415</v>
       </c>
     </row>
     <row r="692">
@@ -5605,7 +5605,7 @@
         <v>35152.0</v>
       </c>
       <c r="B692" t="n">
-        <v>23.370367407833474</v>
+        <v>159.67326396848028</v>
       </c>
     </row>
     <row r="693">
@@ -5613,7 +5613,7 @@
         <v>35154.0</v>
       </c>
       <c r="B693" t="n">
-        <v>21.948937742492625</v>
+        <v>159.66271660701966</v>
       </c>
     </row>
     <row r="694">
@@ -5621,7 +5621,7 @@
         <v>35155.0</v>
       </c>
       <c r="B694" t="n">
-        <v>18.909252025265612</v>
+        <v>159.63981771528276</v>
       </c>
     </row>
     <row r="695">
@@ -5629,7 +5629,7 @@
         <v>35158.0</v>
       </c>
       <c r="B695" t="n">
-        <v>18.13139134349006</v>
+        <v>159.63388862454119</v>
       </c>
     </row>
     <row r="696">
@@ -5637,7 +5637,7 @@
         <v>35159.0</v>
       </c>
       <c r="B696" t="n">
-        <v>17.65457793693405</v>
+        <v>159.63036411177453</v>
       </c>
     </row>
     <row r="697">
@@ -5645,7 +5645,7 @@
         <v>35160.0</v>
       </c>
       <c r="B697" t="n">
-        <v>17.03038898691692</v>
+        <v>159.62596656239768</v>
       </c>
     </row>
     <row r="698">
@@ -5653,7 +5653,7 @@
         <v>35162.0</v>
       </c>
       <c r="B698" t="n">
-        <v>16.716589189011675</v>
+        <v>159.62373681551674</v>
       </c>
     </row>
     <row r="699">
@@ -5661,7 +5661,7 @@
         <v>35163.0</v>
       </c>
       <c r="B699" t="n">
-        <v>16.57451390979035</v>
+        <v>159.62292564907025</v>
       </c>
     </row>
     <row r="700">
@@ -5669,7 +5669,7 @@
         <v>35164.0</v>
       </c>
       <c r="B700" t="n">
-        <v>17.00277509768544</v>
+        <v>159.62758515616127</v>
       </c>
     </row>
     <row r="701">
@@ -5677,7 +5677,7 @@
         <v>35167.0</v>
       </c>
       <c r="B701" t="n">
-        <v>16.629695792258754</v>
+        <v>159.624862077603</v>
       </c>
     </row>
     <row r="702">
@@ -5685,7 +5685,7 @@
         <v>35168.0</v>
       </c>
       <c r="B702" t="n">
-        <v>15.457429062993244</v>
+        <v>159.61577601252014</v>
       </c>
     </row>
     <row r="703">
@@ -5693,7 +5693,7 @@
         <v>35170.0</v>
       </c>
       <c r="B703" t="n">
-        <v>15.49917324414286</v>
+        <v>159.61686776572932</v>
       </c>
     </row>
     <row r="704">
@@ -5701,7 +5701,7 @@
         <v>35172.0</v>
       </c>
       <c r="B704" t="n">
-        <v>31.088655738458407</v>
+        <v>159.73692987774098</v>
       </c>
     </row>
     <row r="705">
@@ -5709,7 +5709,7 @@
         <v>35174.0</v>
       </c>
       <c r="B705" t="n">
-        <v>22.76625907898946</v>
+        <v>159.67639382222993</v>
       </c>
     </row>
     <row r="706">
@@ -5717,7 +5717,7 @@
         <v>35175.0</v>
       </c>
       <c r="B706" t="n">
-        <v>27.03663796461968</v>
+        <v>159.70944003686205</v>
       </c>
     </row>
     <row r="707">
@@ -5725,7 +5725,7 @@
         <v>35178.0</v>
       </c>
       <c r="B707" t="n">
-        <v>46.69389463440165</v>
+        <v>159.84093494943102</v>
       </c>
     </row>
     <row r="708">
@@ -5733,7 +5733,7 @@
         <v>35179.0</v>
       </c>
       <c r="B708" t="n">
-        <v>44.6056859907176</v>
+        <v>159.82833926586093</v>
       </c>
     </row>
     <row r="709">
@@ -5741,7 +5741,7 @@
         <v>35180.0</v>
       </c>
       <c r="B709" t="n">
-        <v>24.47085203128449</v>
+        <v>159.6919133598309</v>
       </c>
     </row>
     <row r="710">
@@ -5749,7 +5749,7 @@
         <v>35182.0</v>
       </c>
       <c r="B710" t="n">
-        <v>22.292501301380913</v>
+        <v>159.6757025197073</v>
       </c>
     </row>
     <row r="711">
@@ -5757,7 +5757,7 @@
         <v>35183.0</v>
       </c>
       <c r="B711" t="n">
-        <v>19.157253796497194</v>
+        <v>159.65141165641472</v>
       </c>
     </row>
     <row r="712">
@@ -5765,7 +5765,7 @@
         <v>35184.0</v>
       </c>
       <c r="B712" t="n">
-        <v>122.6409941408182</v>
+        <v>160.25354054151325</v>
       </c>
     </row>
     <row r="713">
@@ -5773,7 +5773,7 @@
         <v>35187.0</v>
       </c>
       <c r="B713" t="n">
-        <v>77.50769837184515</v>
+        <v>160.0195672141427</v>
       </c>
     </row>
     <row r="714">
@@ -5781,7 +5781,7 @@
         <v>35188.0</v>
       </c>
       <c r="B714" t="n">
-        <v>28.065464126324013</v>
+        <v>159.721330957724</v>
       </c>
     </row>
     <row r="715">
@@ -5789,7 +5789,7 @@
         <v>35190.0</v>
       </c>
       <c r="B715" t="n">
-        <v>20.95888371262216</v>
+        <v>159.66865532747278</v>
       </c>
     </row>
     <row r="716">
@@ -5797,7 +5797,7 @@
         <v>35192.0</v>
       </c>
       <c r="B716" t="n">
-        <v>17.38549620908364</v>
+        <v>159.64071443629587</v>
       </c>
     </row>
     <row r="717">
@@ -5805,7 +5805,7 @@
         <v>35194.0</v>
       </c>
       <c r="B717" t="n">
-        <v>16.69772688392814</v>
+        <v>159.63540242991618</v>
       </c>
     </row>
     <row r="718">
@@ -5813,7 +5813,7 @@
         <v>35195.0</v>
       </c>
       <c r="B718" t="n">
-        <v>18.629121759391307</v>
+        <v>159.65232857176554</v>
       </c>
     </row>
     <row r="719">
@@ -5821,7 +5821,7 @@
         <v>35198.0</v>
       </c>
       <c r="B719" t="n">
-        <v>17.628000562243415</v>
+        <v>159.64455187022216</v>
       </c>
     </row>
     <row r="720">
@@ -5829,7 +5829,7 @@
         <v>35199.0</v>
       </c>
       <c r="B720" t="n">
-        <v>15.711316871147556</v>
+        <v>159.6290042087461</v>
       </c>
     </row>
     <row r="721">
@@ -5837,7 +5837,7 @@
         <v>35200.0</v>
       </c>
       <c r="B721" t="n">
-        <v>14.309917270302916</v>
+        <v>159.61782216906053</v>
       </c>
     </row>
     <row r="722">
@@ -5845,7 +5845,7 @@
         <v>35202.0</v>
       </c>
       <c r="B722" t="n">
-        <v>14.12973316660927</v>
+        <v>159.61664087410387</v>
       </c>
     </row>
     <row r="723">
@@ -5853,7 +5853,7 @@
         <v>35203.0</v>
       </c>
       <c r="B723" t="n">
-        <v>14.350910959756474</v>
+        <v>159.61891383771544</v>
       </c>
     </row>
     <row r="724">
@@ -5861,7 +5861,7 @@
         <v>35204.0</v>
       </c>
       <c r="B724" t="n">
-        <v>16.900572639554724</v>
+        <v>159.64151785301348</v>
       </c>
     </row>
     <row r="725">
@@ -5869,7 +5869,7 @@
         <v>35207.0</v>
       </c>
       <c r="B725" t="n">
-        <v>25.56223595088816</v>
+        <v>159.70964927562568</v>
       </c>
     </row>
     <row r="726">
@@ -5877,7 +5877,7 @@
         <v>35208.0</v>
       </c>
       <c r="B726" t="n">
-        <v>21.403530080008228</v>
+        <v>159.67877582561673</v>
       </c>
     </row>
     <row r="727">
@@ -5885,7 +5885,7 @@
         <v>35210.0</v>
       </c>
       <c r="B727" t="n">
-        <v>21.472405201900663</v>
+        <v>159.68005075064082</v>
       </c>
     </row>
     <row r="728">
@@ -5893,7 +5893,7 @@
         <v>35212.0</v>
       </c>
       <c r="B728" t="n">
-        <v>26.82538628098547</v>
+        <v>159.72116549918556</v>
       </c>
     </row>
     <row r="729">
@@ -5901,7 +5901,7 @@
         <v>35214.0</v>
       </c>
       <c r="B729" t="n">
-        <v>31.285059204536267</v>
+        <v>159.7533967896148</v>
       </c>
     </row>
     <row r="730">
@@ -5909,7 +5909,7 @@
         <v>35215.0</v>
       </c>
       <c r="B730" t="n">
-        <v>17.547090682553936</v>
+        <v>159.6509087354995</v>
       </c>
     </row>
     <row r="731">
@@ -5917,7 +5917,7 @@
         <v>35218.0</v>
       </c>
       <c r="B731" t="n">
-        <v>15.793693835068948</v>
+        <v>159.6367200314994</v>
       </c>
     </row>
     <row r="732">
@@ -5925,7 +5925,7 @@
         <v>35219.0</v>
       </c>
       <c r="B732" t="n">
-        <v>14.44196389649984</v>
+        <v>159.62561101120454</v>
       </c>
     </row>
     <row r="733">
@@ -5933,7 +5933,7 @@
         <v>35220.0</v>
       </c>
       <c r="B733" t="n">
-        <v>12.512824898360138</v>
+        <v>159.60955522464718</v>
       </c>
     </row>
     <row r="734">
@@ -5941,7 +5941,7 @@
         <v>35222.0</v>
       </c>
       <c r="B734" t="n">
-        <v>13.08674086268254</v>
+        <v>159.61497446114004</v>
       </c>
     </row>
     <row r="735">
@@ -5949,7 +5949,7 @@
         <v>35223.0</v>
       </c>
       <c r="B735" t="n">
-        <v>16.69613581248953</v>
+        <v>159.646106146442</v>
       </c>
     </row>
     <row r="736">
@@ -5957,7 +5957,7 @@
         <v>35224.0</v>
       </c>
       <c r="B736" t="n">
-        <v>12.256953058884188</v>
+        <v>159.60913864336172</v>
       </c>
     </row>
     <row r="737">
@@ -5965,7 +5965,7 @@
         <v>35227.0</v>
       </c>
       <c r="B737" t="n">
-        <v>12.99009006116663</v>
+        <v>159.61597660903516</v>
       </c>
     </row>
     <row r="738">
@@ -5973,7 +5973,7 @@
         <v>35228.0</v>
       </c>
       <c r="B738" t="n">
-        <v>12.184415998243571</v>
+        <v>159.60960431260034</v>
       </c>
     </row>
     <row r="739">
@@ -5981,7 +5981,7 @@
         <v>35230.0</v>
       </c>
       <c r="B739" t="n">
-        <v>10.917064953801692</v>
+        <v>159.5989677639143</v>
       </c>
     </row>
     <row r="740">
@@ -5989,7 +5989,7 @@
         <v>35232.0</v>
       </c>
       <c r="B740" t="n">
-        <v>10.729649938434179</v>
+        <v>159.59800516217416</v>
       </c>
     </row>
     <row r="741">
@@ -5997,7 +5997,7 @@
         <v>35234.0</v>
       </c>
       <c r="B741" t="n">
-        <v>10.779534980771045</v>
+        <v>159.5988288885117</v>
       </c>
     </row>
     <row r="742">
@@ -6005,7 +6005,7 @@
         <v>35235.0</v>
       </c>
       <c r="B742" t="n">
-        <v>10.49690200917858</v>
+        <v>159.597363391263</v>
       </c>
     </row>
     <row r="743">
@@ -6013,7 +6013,7 @@
         <v>35238.0</v>
       </c>
       <c r="B743" t="n">
-        <v>10.612206205572669</v>
+        <v>159.59878564295633</v>
       </c>
     </row>
     <row r="744">
@@ -6021,7 +6021,7 @@
         <v>35239.0</v>
       </c>
       <c r="B744" t="n">
-        <v>10.315502520721102</v>
+        <v>159.5964439703695</v>
       </c>
     </row>
     <row r="745">
@@ -6029,7 +6029,7 @@
         <v>35240.0</v>
       </c>
       <c r="B745" t="n">
-        <v>10.117870594285074</v>
+        <v>159.59537027424224</v>
       </c>
     </row>
     <row r="746">
@@ -6037,7 +6037,7 @@
         <v>35242.0</v>
       </c>
       <c r="B746" t="n">
-        <v>10.344856203485797</v>
+        <v>159.5978230319253</v>
       </c>
     </row>
     <row r="747">
@@ -6045,7 +6045,7 @@
         <v>35243.0</v>
       </c>
       <c r="B747" t="n">
-        <v>11.192718961086499</v>
+        <v>159.60590242150647</v>
       </c>
     </row>
     <row r="748">
@@ -6053,7 +6053,7 @@
         <v>35244.0</v>
       </c>
       <c r="B748" t="n">
-        <v>10.659722173645271</v>
+        <v>159.6021790362817</v>
       </c>
     </row>
     <row r="749">
@@ -6061,7 +6061,7 @@
         <v>35247.0</v>
       </c>
       <c r="B749" t="n">
-        <v>11.08762522848436</v>
+        <v>159.6064328944717</v>
       </c>
     </row>
     <row r="750">
@@ -6069,7 +6069,7 @@
         <v>35248.0</v>
       </c>
       <c r="B750" t="n">
-        <v>23.68053968087309</v>
+        <v>159.71103845643682</v>
       </c>
     </row>
     <row r="751">
@@ -6077,7 +6077,7 @@
         <v>35250.0</v>
       </c>
       <c r="B751" t="n">
-        <v>18.53048984550238</v>
+        <v>159.67148181240552</v>
       </c>
     </row>
     <row r="752">
@@ -6085,7 +6085,7 @@
         <v>35252.0</v>
       </c>
       <c r="B752" t="n">
-        <v>12.801504714702594</v>
+        <v>159.62393791967142</v>
       </c>
     </row>
     <row r="753">
@@ -6093,7 +6093,7 @@
         <v>35254.0</v>
       </c>
       <c r="B753" t="n">
-        <v>11.930060832803825</v>
+        <v>159.6165892975993</v>
       </c>
     </row>
     <row r="754">
@@ -6101,7 +6101,7 @@
         <v>35255.0</v>
       </c>
       <c r="B754" t="n">
-        <v>10.341982878254562</v>
+        <v>159.60334802479275</v>
       </c>
     </row>
     <row r="755">
@@ -6109,7 +6109,7 @@
         <v>35258.0</v>
       </c>
       <c r="B755" t="n">
-        <v>10.014455154520398</v>
+        <v>159.60071047426703</v>
       </c>
     </row>
     <row r="756">
@@ -6117,7 +6117,7 @@
         <v>35259.0</v>
       </c>
       <c r="B756" t="n">
-        <v>9.839514538121193</v>
+        <v>159.59946722983744</v>
       </c>
     </row>
     <row r="757">
@@ -6125,7 +6125,7 @@
         <v>35260.0</v>
       </c>
       <c r="B757" t="n">
-        <v>9.856226606645889</v>
+        <v>159.6003618519613</v>
       </c>
     </row>
     <row r="758">
@@ -6133,7 +6133,7 @@
         <v>35262.0</v>
       </c>
       <c r="B758" t="n">
-        <v>9.547337088278432</v>
+        <v>159.5978722529048</v>
       </c>
     </row>
     <row r="759">
@@ -6141,7 +6141,7 @@
         <v>35263.0</v>
       </c>
       <c r="B759" t="n">
-        <v>9.235452433739505</v>
+        <v>159.59533934798176</v>
       </c>
     </row>
     <row r="760">
@@ -6149,7 +6149,7 @@
         <v>35264.0</v>
       </c>
       <c r="B760" t="n">
-        <v>8.803086882343369</v>
+        <v>159.59239906675936</v>
       </c>
     </row>
     <row r="761">
@@ -6157,7 +6157,7 @@
         <v>35267.0</v>
       </c>
       <c r="B761" t="n">
-        <v>8.779147526822475</v>
+        <v>159.59254408466464</v>
       </c>
     </row>
     <row r="762">
@@ -6165,7 +6165,7 @@
         <v>35268.0</v>
       </c>
       <c r="B762" t="n">
-        <v>9.631490374729216</v>
+        <v>159.60124406838264</v>
       </c>
     </row>
     <row r="763">
@@ -6173,7 +6173,7 @@
         <v>35270.0</v>
       </c>
       <c r="B763" t="n">
-        <v>9.157513494699518</v>
+        <v>159.59757298091498</v>
       </c>
     </row>
     <row r="764">
@@ -6181,7 +6181,7 @@
         <v>35272.0</v>
       </c>
       <c r="B764" t="n">
-        <v>9.030895678847846</v>
+        <v>159.59712873268091</v>
       </c>
     </row>
     <row r="765">
@@ -6189,7 +6189,7 @@
         <v>35274.0</v>
       </c>
       <c r="B765" t="n">
-        <v>9.64845264206303</v>
+        <v>159.60325221148312</v>
       </c>
     </row>
     <row r="766">
@@ -6197,7 +6197,7 @@
         <v>35275.0</v>
       </c>
       <c r="B766" t="n">
-        <v>11.316528722873382</v>
+        <v>159.61960143009352</v>
       </c>
     </row>
     <row r="767">
@@ -6205,7 +6205,7 @@
         <v>35278.0</v>
       </c>
       <c r="B767" t="n">
-        <v>10.293112643625125</v>
+        <v>159.6106733625466</v>
       </c>
     </row>
     <row r="768">
@@ -6213,7 +6213,7 @@
         <v>35279.0</v>
       </c>
       <c r="B768" t="n">
-        <v>9.792742714798807</v>
+        <v>159.606438536595</v>
       </c>
     </row>
     <row r="769">
@@ -6221,7 +6221,7 @@
         <v>35280.0</v>
       </c>
       <c r="B769" t="n">
-        <v>9.183886743452138</v>
+        <v>159.6015216383438</v>
       </c>
     </row>
     <row r="770">
@@ -6229,7 +6229,7 @@
         <v>35282.0</v>
       </c>
       <c r="B770" t="n">
-        <v>9.700348352462441</v>
+        <v>159.60669451324156</v>
       </c>
     </row>
     <row r="771">
@@ -6237,7 +6237,7 @@
         <v>35283.0</v>
       </c>
       <c r="B771" t="n">
-        <v>10.513906791905642</v>
+        <v>159.6145437977756</v>
       </c>
     </row>
     <row r="772">
@@ -6245,7 +6245,7 @@
         <v>35284.0</v>
       </c>
       <c r="B772" t="n">
-        <v>10.348905469199012</v>
+        <v>159.6141459008711</v>
       </c>
     </row>
     <row r="773">
@@ -6253,7 +6253,7 @@
         <v>35287.0</v>
       </c>
       <c r="B773" t="n">
-        <v>14.29682573894163</v>
+        <v>159.64951571045634</v>
       </c>
     </row>
     <row r="774">
@@ -6261,7 +6261,7 @@
         <v>35288.0</v>
       </c>
       <c r="B774" t="n">
-        <v>11.621736291635507</v>
+        <v>159.62678539913338</v>
       </c>
     </row>
     <row r="775">
@@ -6269,7 +6269,7 @@
         <v>35290.0</v>
       </c>
       <c r="B775" t="n">
-        <v>9.938932481953014</v>
+        <v>159.6122306310139</v>
       </c>
     </row>
     <row r="776">
@@ -6277,7 +6277,7 @@
         <v>35292.0</v>
       </c>
       <c r="B776" t="n">
-        <v>9.269005225392304</v>
+        <v>159.60675918442715</v>
       </c>
     </row>
     <row r="777">
@@ -6285,7 +6285,7 @@
         <v>35294.0</v>
       </c>
       <c r="B777" t="n">
-        <v>8.889604715339877</v>
+        <v>159.6035790751385</v>
       </c>
     </row>
     <row r="778">
@@ -6293,7 +6293,7 @@
         <v>35295.0</v>
       </c>
       <c r="B778" t="n">
-        <v>8.712759682684478</v>
+        <v>159.60302692882493</v>
       </c>
     </row>
     <row r="779">
@@ -6301,7 +6301,7 @@
         <v>35298.0</v>
       </c>
       <c r="B779" t="n">
-        <v>8.962515493187464</v>
+        <v>159.6057443833551</v>
       </c>
     </row>
     <row r="780">
@@ -6309,7 +6309,7 @@
         <v>35299.0</v>
       </c>
       <c r="B780" t="n">
-        <v>10.882904380600626</v>
+        <v>159.6238251253987</v>
       </c>
     </row>
     <row r="781">
@@ -6317,7 +6317,7 @@
         <v>35300.0</v>
       </c>
       <c r="B781" t="n">
-        <v>15.358441182084542</v>
+        <v>159.663743891482</v>
       </c>
     </row>
     <row r="782">
@@ -6325,7 +6325,7 @@
         <v>35302.0</v>
       </c>
       <c r="B782" t="n">
-        <v>15.986835950345046</v>
+        <v>159.66940287465437</v>
       </c>
     </row>
     <row r="783">
@@ -6333,7 +6333,7 @@
         <v>35303.0</v>
       </c>
       <c r="B783" t="n">
-        <v>36.88816814129545</v>
+        <v>159.82461906554062</v>
       </c>
     </row>
     <row r="784">
@@ -6341,7 +6341,7 @@
         <v>35305.0</v>
       </c>
       <c r="B784" t="n">
-        <v>14.807334624630249</v>
+        <v>159.6612848201625</v>
       </c>
     </row>
     <row r="785">
@@ -6349,7 +6349,7 @@
         <v>35308.0</v>
       </c>
       <c r="B785" t="n">
-        <v>12.700611204890341</v>
+        <v>159.6434028650797</v>
       </c>
     </row>
     <row r="786">
@@ -6357,7 +6357,7 @@
         <v>35309.0</v>
       </c>
       <c r="B786" t="n">
-        <v>11.884808562854017</v>
+        <v>159.63691153468253</v>
       </c>
     </row>
     <row r="787">
@@ -6365,7 +6365,7 @@
         <v>35311.0</v>
       </c>
       <c r="B787" t="n">
-        <v>10.882148267897428</v>
+        <v>159.62863130662674</v>
       </c>
     </row>
     <row r="788">
@@ -6373,7 +6373,7 @@
         <v>35313.0</v>
       </c>
       <c r="B788" t="n">
-        <v>10.348182339978008</v>
+        <v>159.62450608133832</v>
       </c>
     </row>
     <row r="789">
@@ -6381,7 +6381,7 @@
         <v>35315.0</v>
       </c>
       <c r="B789" t="n">
-        <v>10.17023184013659</v>
+        <v>159.6232450090736</v>
       </c>
     </row>
     <row r="790">
@@ -6389,7 +6389,7 @@
         <v>35316.0</v>
       </c>
       <c r="B790" t="n">
-        <v>9.881692249720391</v>
+        <v>159.6217001949283</v>
       </c>
     </row>
     <row r="791">
@@ -6397,7 +6397,7 @@
         <v>35319.0</v>
       </c>
       <c r="B791" t="n">
-        <v>9.755807874346024</v>
+        <v>159.62090774449402</v>
       </c>
     </row>
     <row r="792">
@@ -6405,7 +6405,7 @@
         <v>35320.0</v>
       </c>
       <c r="B792" t="n">
-        <v>9.471364110366899</v>
+        <v>159.61864137450476</v>
       </c>
     </row>
     <row r="793">
@@ -6413,7 +6413,7 @@
         <v>35321.0</v>
       </c>
       <c r="B793" t="n">
-        <v>9.338050727585719</v>
+        <v>159.6181418070882</v>
       </c>
     </row>
     <row r="794">
@@ -6421,7 +6421,7 @@
         <v>35323.0</v>
       </c>
       <c r="B794" t="n">
-        <v>9.252994106335162</v>
+        <v>159.61771934286574</v>
       </c>
     </row>
     <row r="795">
@@ -6429,7 +6429,7 @@
         <v>35324.0</v>
       </c>
       <c r="B795" t="n">
-        <v>9.181267746206894</v>
+        <v>159.61742022063208</v>
       </c>
     </row>
     <row r="796">
@@ -6437,7 +6437,7 @@
         <v>35325.0</v>
       </c>
       <c r="B796" t="n">
-        <v>9.100321535023816</v>
+        <v>159.61777479126926</v>
       </c>
     </row>
     <row r="797">
@@ -6445,7 +6445,7 @@
         <v>35328.0</v>
       </c>
       <c r="B797" t="n">
-        <v>9.138208315342315</v>
+        <v>159.61849940814176</v>
       </c>
     </row>
     <row r="798">
@@ -6453,7 +6453,7 @@
         <v>35329.0</v>
       </c>
       <c r="B798" t="n">
-        <v>9.04846385400762</v>
+        <v>159.61840070836982</v>
       </c>
     </row>
     <row r="799">
@@ -6461,7 +6461,7 @@
         <v>35331.0</v>
       </c>
       <c r="B799" t="n">
-        <v>9.123528418363609</v>
+        <v>159.61984373820275</v>
       </c>
     </row>
     <row r="800">
@@ -6469,7 +6469,7 @@
         <v>35333.0</v>
       </c>
       <c r="B800" t="n">
-        <v>9.128718415163434</v>
+        <v>159.62063305290272</v>
       </c>
     </row>
     <row r="801">
@@ -6477,7 +6477,7 @@
         <v>35335.0</v>
       </c>
       <c r="B801" t="n">
-        <v>9.673160761089667</v>
+        <v>159.62606867867362</v>
       </c>
     </row>
     <row r="802">
@@ -6485,7 +6485,7 @@
         <v>35336.0</v>
       </c>
       <c r="B802" t="n">
-        <v>28.92013162739319</v>
+        <v>159.78240398855203</v>
       </c>
     </row>
     <row r="803">
@@ -6493,7 +6493,7 @@
         <v>35339.0</v>
       </c>
       <c r="B803" t="n">
-        <v>17.858048425579916</v>
+        <v>159.69855706706198</v>
       </c>
     </row>
     <row r="804">
@@ -6501,7 +6501,7 @@
         <v>35340.0</v>
       </c>
       <c r="B804" t="n">
-        <v>14.567645681539489</v>
+        <v>159.6714505955263</v>
       </c>
     </row>
     <row r="805">
@@ -6509,7 +6509,7 @@
         <v>35341.0</v>
       </c>
       <c r="B805" t="n">
-        <v>32.881935477507774</v>
+        <v>159.81160651397084</v>
       </c>
     </row>
     <row r="806">
@@ -6517,7 +6517,7 @@
         <v>35343.0</v>
       </c>
       <c r="B806" t="n">
-        <v>21.115520534772443</v>
+        <v>159.726031416282</v>
       </c>
     </row>
     <row r="807">
@@ -6525,7 +6525,7 @@
         <v>35344.0</v>
       </c>
       <c r="B807" t="n">
-        <v>16.29150324744237</v>
+        <v>159.68748856468778</v>
       </c>
     </row>
     <row r="808">
@@ -6533,7 +6533,7 @@
         <v>35345.0</v>
       </c>
       <c r="B808" t="n">
-        <v>12.559668181462442</v>
+        <v>159.65659863575374</v>
       </c>
     </row>
     <row r="809">
@@ -6541,7 +6541,7 @@
         <v>35348.0</v>
       </c>
       <c r="B809" t="n">
-        <v>11.571996313525803</v>
+        <v>159.64818357206093</v>
       </c>
     </row>
     <row r="810">
@@ -6549,7 +6549,7 @@
         <v>35349.0</v>
       </c>
       <c r="B810" t="n">
-        <v>10.586677201994428</v>
+        <v>159.64001668240152</v>
       </c>
     </row>
     <row r="811">
@@ -6557,7 +6557,7 @@
         <v>35351.0</v>
       </c>
       <c r="B811" t="n">
-        <v>10.281663889801548</v>
+        <v>159.63797007636614</v>
       </c>
     </row>
     <row r="812">
@@ -6565,7 +6565,7 @@
         <v>35353.0</v>
       </c>
       <c r="B812" t="n">
-        <v>17.38838109596395</v>
+        <v>159.70026341486565</v>
       </c>
     </row>
     <row r="813">
@@ -6573,7 +6573,7 @@
         <v>35355.0</v>
       </c>
       <c r="B813" t="n">
-        <v>16.745083865636108</v>
+        <v>159.69532877255216</v>
       </c>
     </row>
     <row r="814">
@@ -6581,7 +6581,7 @@
         <v>35356.0</v>
       </c>
       <c r="B814" t="n">
-        <v>33.4152698454162</v>
+        <v>159.8211548155453</v>
       </c>
     </row>
     <row r="815">
@@ -6589,7 +6589,7 @@
         <v>35359.0</v>
       </c>
       <c r="B815" t="n">
-        <v>23.128450110979223</v>
+        <v>159.7474718325485</v>
       </c>
     </row>
     <row r="816">
@@ -6597,7 +6597,7 @@
         <v>35360.0</v>
       </c>
       <c r="B816" t="n">
-        <v>16.590555881833865</v>
+        <v>159.6958976422436</v>
       </c>
     </row>
     <row r="817">
@@ -6605,7 +6605,7 @@
         <v>35361.0</v>
       </c>
       <c r="B817" t="n">
-        <v>13.612800138555508</v>
+        <v>159.67136853746695</v>
       </c>
     </row>
     <row r="818">
@@ -6613,7 +6613,7 @@
         <v>35363.0</v>
       </c>
       <c r="B818" t="n">
-        <v>31.227606335899146</v>
+        <v>159.8079056093226</v>
       </c>
     </row>
     <row r="819">
@@ -6621,7 +6621,7 @@
         <v>35364.0</v>
       </c>
       <c r="B819" t="n">
-        <v>78.03190388837726</v>
+        <v>160.08644529768483</v>
       </c>
     </row>
     <row r="820">
@@ -6629,7 +6629,7 @@
         <v>35365.0</v>
       </c>
       <c r="B820" t="n">
-        <v>34.22356117125288</v>
+        <v>159.82996955810282</v>
       </c>
     </row>
     <row r="821">
@@ -6637,7 +6637,7 @@
         <v>35368.0</v>
       </c>
       <c r="B821" t="n">
-        <v>22.78626232409104</v>
+        <v>159.748186318368</v>
       </c>
     </row>
     <row r="822">
@@ -6645,7 +6645,7 @@
         <v>35369.0</v>
       </c>
       <c r="B822" t="n">
-        <v>33.613953370736624</v>
+        <v>159.82693318571862</v>
       </c>
     </row>
     <row r="823">
@@ -6653,7 +6653,7 @@
         <v>35371.0</v>
       </c>
       <c r="B823" t="n">
-        <v>44.76392203130903</v>
+        <v>159.90013849052661</v>
       </c>
     </row>
     <row r="824">
@@ -6661,7 +6661,7 @@
         <v>35373.0</v>
       </c>
       <c r="B824" t="n">
-        <v>122.15573727898455</v>
+        <v>160.31781758852165</v>
       </c>
     </row>
     <row r="825">
@@ -6669,7 +6669,7 @@
         <v>35376.0</v>
       </c>
       <c r="B825" t="n">
-        <v>55.61327902163412</v>
+        <v>159.96676500052214</v>
       </c>
     </row>
     <row r="826">
@@ -6677,7 +6677,7 @@
         <v>35377.0</v>
       </c>
       <c r="B826" t="n">
-        <v>28.296990085497978</v>
+        <v>159.7930735148838</v>
       </c>
     </row>
     <row r="827">
@@ -6685,7 +6685,7 @@
         <v>35380.0</v>
       </c>
       <c r="B827" t="n">
-        <v>76.67117350344446</v>
+        <v>160.08500347313063</v>
       </c>
     </row>
     <row r="828">
@@ -6693,7 +6693,7 @@
         <v>35381.0</v>
       </c>
       <c r="B828" t="n">
-        <v>79.31937262299537</v>
+        <v>160.09943771176992</v>
       </c>
     </row>
     <row r="829">
@@ -6701,7 +6701,7 @@
         <v>35382.0</v>
       </c>
       <c r="B829" t="n">
-        <v>32.43919159709325</v>
+        <v>159.82367822005781</v>
       </c>
     </row>
     <row r="830">
@@ -6709,7 +6709,7 @@
         <v>35384.0</v>
       </c>
       <c r="B830" t="n">
-        <v>25.401770191400246</v>
+        <v>159.7737938880817</v>
       </c>
     </row>
     <row r="831">
@@ -6717,7 +6717,7 @@
         <v>35385.0</v>
       </c>
       <c r="B831" t="n">
-        <v>24.214904107323818</v>
+        <v>159.76530237751746</v>
       </c>
     </row>
     <row r="832">
@@ -6725,7 +6725,7 @@
         <v>35386.0</v>
       </c>
       <c r="B832" t="n">
-        <v>26.774252871586746</v>
+        <v>159.7853699242734</v>
       </c>
     </row>
     <row r="833">
@@ -6733,7 +6733,7 @@
         <v>35389.0</v>
       </c>
       <c r="B833" t="n">
-        <v>28.9952483933316</v>
+        <v>159.8017620127094</v>
       </c>
     </row>
     <row r="834">
@@ -6741,7 +6741,7 @@
         <v>35390.0</v>
       </c>
       <c r="B834" t="n">
-        <v>27.47111469556604</v>
+        <v>159.7915465121356</v>
       </c>
     </row>
     <row r="835">
@@ -6749,7 +6749,7 @@
         <v>35392.0</v>
       </c>
       <c r="B835" t="n">
-        <v>33.4721999867837</v>
+        <v>159.8344462912764</v>
       </c>
     </row>
     <row r="836">
@@ -6757,7 +6757,7 @@
         <v>35394.0</v>
       </c>
       <c r="B836" t="n">
-        <v>63.41309534214893</v>
+        <v>160.01816136342595</v>
       </c>
     </row>
     <row r="837">
@@ -6765,7 +6765,7 @@
         <v>35396.0</v>
       </c>
       <c r="B837" t="n">
-        <v>34.91686330772454</v>
+        <v>159.84533964935426</v>
       </c>
     </row>
     <row r="838">
@@ -6773,7 +6773,7 @@
         <v>35397.0</v>
       </c>
       <c r="B838" t="n">
-        <v>80.14806781165896</v>
+        <v>160.11034302807514</v>
       </c>
     </row>
     <row r="839">
@@ -6781,7 +6781,7 @@
         <v>35400.0</v>
       </c>
       <c r="B839" t="n">
-        <v>107.79746598594036</v>
+        <v>160.25334085950158</v>
       </c>
     </row>
     <row r="840">
@@ -6789,7 +6789,7 @@
         <v>35401.0</v>
       </c>
       <c r="B840" t="n">
-        <v>88.00933805698558</v>
+        <v>160.15220284988467</v>
       </c>
     </row>
     <row r="841">
@@ -6797,7 +6797,7 @@
         <v>35402.0</v>
       </c>
       <c r="B841" t="n">
-        <v>100.63528574411518</v>
+        <v>160.21787594906274</v>
       </c>
     </row>
     <row r="842">
@@ -6805,7 +6805,7 @@
         <v>35404.0</v>
       </c>
       <c r="B842" t="n">
-        <v>59.3840146033001</v>
+        <v>159.99870660708615</v>
       </c>
     </row>
     <row r="843">
@@ -6813,7 +6813,7 @@
         <v>35405.0</v>
       </c>
       <c r="B843" t="n">
-        <v>40.24593111528939</v>
+        <v>159.883701908739</v>
       </c>
     </row>
     <row r="844">
@@ -6821,7 +6821,7 @@
         <v>35406.0</v>
       </c>
       <c r="B844" t="n">
-        <v>35.447044801159954</v>
+        <v>159.85332199672763</v>
       </c>
     </row>
     <row r="845">
@@ -6829,7 +6829,7 @@
         <v>35409.0</v>
       </c>
       <c r="B845" t="n">
-        <v>28.16025866470011</v>
+        <v>159.80316843520293</v>
       </c>
     </row>
     <row r="846">
@@ -6837,7 +6837,7 @@
         <v>35410.0</v>
       </c>
       <c r="B846" t="n">
-        <v>23.147399162194784</v>
+        <v>159.76683902565478</v>
       </c>
     </row>
     <row r="847">
@@ -6845,7 +6845,7 @@
         <v>35412.0</v>
       </c>
       <c r="B847" t="n">
-        <v>20.55358587762154</v>
+        <v>159.7475159261287</v>
       </c>
     </row>
     <row r="848">
@@ -6853,7 +6853,7 @@
         <v>35414.0</v>
       </c>
       <c r="B848" t="n">
-        <v>25.524463573883786</v>
+        <v>159.78615817807514</v>
       </c>
     </row>
     <row r="849">
@@ -6861,7 +6861,7 @@
         <v>35416.0</v>
       </c>
       <c r="B849" t="n">
-        <v>24.294938225051776</v>
+        <v>159.77736234127426</v>
       </c>
     </row>
     <row r="850">
@@ -6869,7 +6869,7 @@
         <v>35417.0</v>
       </c>
       <c r="B850" t="n">
-        <v>147.80098212788192</v>
+        <v>160.4678520491436</v>
       </c>
     </row>
     <row r="851">
@@ -6877,7 +6877,7 @@
         <v>35420.0</v>
       </c>
       <c r="B851" t="n">
-        <v>78.58750693273431</v>
+        <v>160.10970363812373</v>
       </c>
     </row>
     <row r="852">
@@ -6885,7 +6885,7 @@
         <v>35421.0</v>
       </c>
       <c r="B852" t="n">
-        <v>54.48347358282266</v>
+        <v>159.976656836149</v>
       </c>
     </row>
     <row r="853">
@@ -6893,7 +6893,7 @@
         <v>35422.0</v>
       </c>
       <c r="B853" t="n">
-        <v>35.69003901646157</v>
+        <v>159.86047636519757</v>
       </c>
     </row>
     <row r="854">
@@ -6901,7 +6901,7 @@
         <v>35424.0</v>
       </c>
       <c r="B854" t="n">
-        <v>29.713975522882873</v>
+        <v>159.8197876572762</v>
       </c>
     </row>
     <row r="855">
@@ -6909,7 +6909,7 @@
         <v>35425.0</v>
       </c>
       <c r="B855" t="n">
-        <v>26.688117437606415</v>
+        <v>159.79841014793215</v>
       </c>
     </row>
     <row r="856">
@@ -6917,7 +6917,7 @@
         <v>35426.0</v>
       </c>
       <c r="B856" t="n">
-        <v>30.772465770761794</v>
+        <v>159.8287109124101</v>
       </c>
     </row>
     <row r="857">
@@ -6925,7 +6925,7 @@
         <v>35429.0</v>
       </c>
       <c r="B857" t="n">
-        <v>35.37827830998367</v>
+        <v>159.86060267785228</v>
       </c>
     </row>
   </sheetData>
